--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_410.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_410.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d8552209-Reviews-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>207</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Hotel-Indigo-Los-Angeles-Downtown.h11966077.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_410.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_410.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="872">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2618 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r591584799-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>8552209</t>
+  </si>
+  <si>
+    <t>591584799</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Great hotel and staff (Jordon)</t>
+  </si>
+  <si>
+    <t>When checked into hotel, the hotel receptionist, Jordon, was very friendly and helpful. Gave good suggestions (ie parking, etc) and have me a free upgrade. The hotel is really beautiful and great location. I will recommend the hotel to anybody. I would totally come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Christine C, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>When checked into hotel, the hotel receptionist, Jordon, was very friendly and helpful. Gave good suggestions (ie parking, etc) and have me a free upgrade. The hotel is really beautiful and great location. I will recommend the hotel to anybody. I would totally come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r591569694-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>591569694</t>
+  </si>
+  <si>
+    <t>decent hotel in downtown LA</t>
+  </si>
+  <si>
+    <t>This downtown hotel is bright and clean, my room had wood floors and bathroom had a window that opened.  I asked for a quiet room and my room faced the inside streets and was relatively quiet.  The AC is a bit loud, but I liked the big bathroom windows because it brought in a lot of light.   Walls are very thin, I could here the guest in room above and next to me walk around, as well as the sounds from the corridor.Overall the hotel's theme seems to be 'young and hip'MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This downtown hotel is bright and clean, my room had wood floors and bathroom had a window that opened.  I asked for a quiet room and my room faced the inside streets and was relatively quiet.  The AC is a bit loud, but I liked the big bathroom windows because it brought in a lot of light.   Walls are very thin, I could here the guest in room above and next to me walk around, as well as the sounds from the corridor.Overall the hotel's theme seems to be 'young and hip'More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r591536448-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>591536448</t>
+  </si>
+  <si>
+    <t>Okay 3-star hotel, service lacking</t>
+  </si>
+  <si>
+    <t>Hotel Indigo LA Downtown is fairly new and has some clever design touches, but overall I found it disappointing and would not recommend it given the many choices in the area. Service was slow and not particularly friendly.
+Room: The standard room was smallish, average size for a downtown hotel--nicely designed but certainly nothing special. Higher floor rooms facing northwest would have nice views, all other rooms just face nearby buildings. The room was rather noisy, with some street noise and surprisingly even noise from the room above. 
+Amenities: The pool is okay but very small, with no spa. The fitness center was good. The top-floor lounge had nice views while the lobby was small and congested. Annoyingly, an event closed the outdoor patio and most of the pool the entire time I was there-- no notice or consideration given to guests. I think that happens often at this hotel. 
+Service: Below average. When I checked in the front desk agent initially claimed I could only get a low-floor, disabled access room--unless I paid an upgrade fee. (Of course, when I refused this, another room magically became available.) I wasn't offered any choice of room location or view, even when I inquired. In general staff was unfriendly, never greeting guests. Used room service dishes remained in the hallway the entire time I was there. 
+Location: Convenient to most of downtown LA but the immediate surroundings are dreary--it's a 10 minute,...Hotel Indigo LA Downtown is fairly new and has some clever design touches, but overall I found it disappointing and would not recommend it given the many choices in the area. Service was slow and not particularly friendly.Room: The standard room was smallish, average size for a downtown hotel--nicely designed but certainly nothing special. Higher floor rooms facing northwest would have nice views, all other rooms just face nearby buildings. The room was rather noisy, with some street noise and surprisingly even noise from the room above. Amenities: The pool is okay but very small, with no spa. The fitness center was good. The top-floor lounge had nice views while the lobby was small and congested. Annoyingly, an event closed the outdoor patio and most of the pool the entire time I was there-- no notice or consideration given to guests. I think that happens often at this hotel. Service: Below average. When I checked in the front desk agent initially claimed I could only get a low-floor, disabled access room--unless I paid an upgrade fee. (Of course, when I refused this, another room magically became available.) I wasn't offered any choice of room location or view, even when I inquired. In general staff was unfriendly, never greeting guests. Used room service dishes remained in the hallway the entire time I was there. Location: Convenient to most of downtown LA but the immediate surroundings are dreary--it's a 10 minute, somewhat isolated walk to LA Live/Staples Center or the heart of downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel Indigo LA Downtown is fairly new and has some clever design touches, but overall I found it disappointing and would not recommend it given the many choices in the area. Service was slow and not particularly friendly.
+Room: The standard room was smallish, average size for a downtown hotel--nicely designed but certainly nothing special. Higher floor rooms facing northwest would have nice views, all other rooms just face nearby buildings. The room was rather noisy, with some street noise and surprisingly even noise from the room above. 
+Amenities: The pool is okay but very small, with no spa. The fitness center was good. The top-floor lounge had nice views while the lobby was small and congested. Annoyingly, an event closed the outdoor patio and most of the pool the entire time I was there-- no notice or consideration given to guests. I think that happens often at this hotel. 
+Service: Below average. When I checked in the front desk agent initially claimed I could only get a low-floor, disabled access room--unless I paid an upgrade fee. (Of course, when I refused this, another room magically became available.) I wasn't offered any choice of room location or view, even when I inquired. In general staff was unfriendly, never greeting guests. Used room service dishes remained in the hallway the entire time I was there. 
+Location: Convenient to most of downtown LA but the immediate surroundings are dreary--it's a 10 minute,...Hotel Indigo LA Downtown is fairly new and has some clever design touches, but overall I found it disappointing and would not recommend it given the many choices in the area. Service was slow and not particularly friendly.Room: The standard room was smallish, average size for a downtown hotel--nicely designed but certainly nothing special. Higher floor rooms facing northwest would have nice views, all other rooms just face nearby buildings. The room was rather noisy, with some street noise and surprisingly even noise from the room above. Amenities: The pool is okay but very small, with no spa. The fitness center was good. The top-floor lounge had nice views while the lobby was small and congested. Annoyingly, an event closed the outdoor patio and most of the pool the entire time I was there-- no notice or consideration given to guests. I think that happens often at this hotel. Service: Below average. When I checked in the front desk agent initially claimed I could only get a low-floor, disabled access room--unless I paid an upgrade fee. (Of course, when I refused this, another room magically became available.) I wasn't offered any choice of room location or view, even when I inquired. In general staff was unfriendly, never greeting guests. Used room service dishes remained in the hallway the entire time I was there. Location: Convenient to most of downtown LA but the immediate surroundings are dreary--it's a 10 minute, somewhat isolated walk to LA Live/Staples Center or the heart of downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r591496686-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>591496686</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Very fancy hotel with beautiful art deco. Excellent location as it is close to the highway. However, the room cleaning and maintenance was quite disgusting, with reused mats, a broken coffee machine, a small dead insect and various hairs on the floor, and a lack of refilled bath gels.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Christine C, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded 6 days ago</t>
+  </si>
+  <si>
+    <t>Responded 6 days ago</t>
+  </si>
+  <si>
+    <t>Very fancy hotel with beautiful art deco. Excellent location as it is close to the highway. However, the room cleaning and maintenance was quite disgusting, with reused mats, a broken coffee machine, a small dead insect and various hairs on the floor, and a lack of refilled bath gels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r591486679-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>591486679</t>
+  </si>
+  <si>
+    <t>Celebrity Stay</t>
+  </si>
+  <si>
+    <t>The room Wow us as we enter! It’s so hollywood style and super conveniently located with supermarket and eatery within walking distant! However if you drive, parking fee in the hotel is USD46 daily, you can find cheaper carpark nearby within walking distant too.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>The room Wow us as we enter! It’s so hollywood style and super conveniently located with supermarket and eatery within walking distant! However if you drive, parking fee in the hotel is USD46 daily, you can find cheaper carpark nearby within walking distant too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r591351735-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>591351735</t>
+  </si>
+  <si>
+    <t>Amazing Staff!</t>
+  </si>
+  <si>
+    <t>I had a wonderful time staying at the Hotel Indigo last week, everything was luxury and the staff made you feel like family. I was impressed by the artistic detail put into every part of the experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a wonderful time staying at the Hotel Indigo last week, everything was luxury and the staff made you feel like family. I was impressed by the artistic detail put into every part of the experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r590289022-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>590289022</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Awesome location, dog friendly, great staff!</t>
+  </si>
+  <si>
+    <t>We stayed in the hotel for 3 nights while attending a 2 day event in the conference rooms on the 3rd floor, and it was so convienient. The rooms are super hip, reminiscent of Vegas, with great views of downtown Los Angeles. The only parking option is valet, and we were in and out a lot- but our Valet, Rios, was super cool, and made everything super easy. We’d be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>We stayed in the hotel for 3 nights while attending a 2 day event in the conference rooms on the 3rd floor, and it was so convienient. The rooms are super hip, reminiscent of Vegas, with great views of downtown Los Angeles. The only parking option is valet, and we were in and out a lot- but our Valet, Rios, was super cool, and made everything super easy. We’d be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r589815778-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>589815778</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>One of my favorite hotel experiences to date</t>
+  </si>
+  <si>
+    <t>Our stay at the Hotel Indigo was fantastic. When we checked in we were greeted with a complementary upgrade (perhaps because it was a Monday night), nevertheless the room was amazing. Spacious, comfortable, and very modern. I'd highly recommend this hotel to anyone visiting LA! MoreShow less</t>
+  </si>
+  <si>
+    <t>Our stay at the Hotel Indigo was fantastic. When we checked in we were greeted with a complementary upgrade (perhaps because it was a Monday night), nevertheless the room was amazing. Spacious, comfortable, and very modern. I'd highly recommend this hotel to anyone visiting LA! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r589481714-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>589481714</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>Hotel Indigo is conveniently located just a short walk from LA Live, making it ideal for attending conferences or nearby events. The hotel feels very modern and new - the rooms are very clean, well decorated and comfortable. The pool and gym and great, and the bar and restaurant are also very good. The only negative was that during our stay, there was only one team member at reception which meant for 10 minute waits each time we had a delivery or query.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel Indigo is conveniently located just a short walk from LA Live, making it ideal for attending conferences or nearby events. The hotel feels very modern and new - the rooms are very clean, well decorated and comfortable. The pool and gym and great, and the bar and restaurant are also very good. The only negative was that during our stay, there was only one team member at reception which meant for 10 minute waits each time we had a delivery or query.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r588217132-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>588217132</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Hotel Indigo Los Angeles</t>
+  </si>
+  <si>
+    <t>The hotel is located in downtown Los Angeles near Regal Cinemas, Target and near the 110 Freeway.   The hotel has a boutique feel and is brand new with a nice bar in the lobby area.  The service is good from parking and front desk staff courteous and helpful.   The 18th social lounge is worth visiting.MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>The hotel is located in downtown Los Angeles near Regal Cinemas, Target and near the 110 Freeway.   The hotel has a boutique feel and is brand new with a nice bar in the lobby area.  The service is good from parking and front desk staff courteous and helpful.   The 18th social lounge is worth visiting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r588166432-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>588166432</t>
+  </si>
+  <si>
+    <t>Top notch hotel!</t>
+  </si>
+  <si>
+    <t>As first time visitors to LA we were very nervous about where to stay. Couldn’t have been happier than we were with this hotel. All the staff were friendly and always made a point to greet us. The rooms were squeaky clean and the decor was so impressive. We always felt safe as well. There is plenty to do within walking distance and even a Target a few blocks away. The train is also within walking distance and is a great cheap way to commute. MoreShow less</t>
+  </si>
+  <si>
+    <t>As first time visitors to LA we were very nervous about where to stay. Couldn’t have been happier than we were with this hotel. All the staff were friendly and always made a point to greet us. The rooms were squeaky clean and the decor was so impressive. We always felt safe as well. There is plenty to do within walking distance and even a Target a few blocks away. The train is also within walking distance and is a great cheap way to commute. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r588155407-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>588155407</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>Loved the attention to detail.  Staff was courteous and helpful.  Decor was welcoming and comfortable.The hotel is centrally located to many restaurants and of course, the Staples Center.  Highly recommended!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Loved the attention to detail.  Staff was courteous and helpful.  Decor was welcoming and comfortable.The hotel is centrally located to many restaurants and of course, the Staples Center.  Highly recommended!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r587425933-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>587425933</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Incredible Hotel</t>
+  </si>
+  <si>
+    <t>The rooms were beautiful, extremely quiet and the bed was super comfortable!  The restaurant had great food and the bar area was fun.  The customer service was excellent throughout the entire hotel. The pool area was beautiful as well!MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were beautiful, extremely quiet and the bed was super comfortable!  The restaurant had great food and the bar area was fun.  The customer service was excellent throughout the entire hotel. The pool area was beautiful as well!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r587226582-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>587226582</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Very clean, convenient and chic</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights and had a very positive experience. The facilities are very new and clean. The front desk staff was very accommodating with suggestions and assistance. It was nice to have a bar and restaurant downstairs with super cool decor. I was traveling with children and grateful there were some more kid-friendly options to eat.  We also enjoyed the pool and outdoor areas on the rooftop. It was easy to get around downtown and environs and walkable to markets and shopping. Would definitely stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights and had a very positive experience. The facilities are very new and clean. The front desk staff was very accommodating with suggestions and assistance. It was nice to have a bar and restaurant downstairs with super cool decor. I was traveling with children and grateful there were some more kid-friendly options to eat.  We also enjoyed the pool and outdoor areas on the rooftop. It was easy to get around downtown and environs and walkable to markets and shopping. Would definitely stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r587213175-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>587213175</t>
+  </si>
+  <si>
+    <t>Stressful and Undesirable Experience</t>
+  </si>
+  <si>
+    <t>I reserved my booking through booking.com where I paid for lodging and breakfast for 3. Upon checkin I was told that the reservation only included breakfast for 2 despite my confirmation and proof of booking. The host at guest services continued by telling me that nothing could be done about it, so I contacted booking.com and they assured me that the matter would be resolved. This is not the way I envisioned the start of my vacation. So, as we made our way to our room upon inspection we noticed the room was not cleaned at all. The floors were dirty with stains and dried substances but the worst of it was a used bandaid hanging from the air conditioning unit. I went back down to the front desk where I was promptly placed in a different room. All this happen within the first few hours of my stay made for a very exhausting and frustrating experience; not to mention being in my third trimester of pregnancy.  To Booking.com's  credit the matter involving the breakfast passes was taken care of and honored. The next day, however, I noticed that I was being overcharged for my stay. I went back to the front desk with a copy of my reservation, after making me wait several minutes before acknowledging me, Shai, the desk attendant finally offered her assistance. She gave me a hand written explanation of the charges, even after I requested...I reserved my booking through booking.com where I paid for lodging and breakfast for 3. Upon checkin I was told that the reservation only included breakfast for 2 despite my confirmation and proof of booking. The host at guest services continued by telling me that nothing could be done about it, so I contacted booking.com and they assured me that the matter would be resolved. This is not the way I envisioned the start of my vacation. So, as we made our way to our room upon inspection we noticed the room was not cleaned at all. The floors were dirty with stains and dried substances but the worst of it was a used bandaid hanging from the air conditioning unit. I went back down to the front desk where I was promptly placed in a different room. All this happen within the first few hours of my stay made for a very exhausting and frustrating experience; not to mention being in my third trimester of pregnancy.  To Booking.com's  credit the matter involving the breakfast passes was taken care of and honored. The next day, however, I noticed that I was being overcharged for my stay. I went back to the front desk with a copy of my reservation, after making me wait several minutes before acknowledging me, Shai, the desk attendant finally offered her assistance. She gave me a hand written explanation of the charges, even after I requested a formal print out of all charges. How is that acceptable? I again had to spend a considerable part of my vacation trying to right wrongs that were not my own. I again called booking.com and they assured my that the matter would be handled which is was but this caused me a lot of undue stress and hassle only for them to take $40 off the my bill. I would not recommend this place to any one else. Horrible and unwarranted experience!!! I will say that the rest of the service staff were excellent and pleasant. My advice is to think twice about booking here or not at all! I read the reviews before my stay and was impressed so it's hard not to think I was given the worst intentionally!MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine C, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I reserved my booking through booking.com where I paid for lodging and breakfast for 3. Upon checkin I was told that the reservation only included breakfast for 2 despite my confirmation and proof of booking. The host at guest services continued by telling me that nothing could be done about it, so I contacted booking.com and they assured me that the matter would be resolved. This is not the way I envisioned the start of my vacation. So, as we made our way to our room upon inspection we noticed the room was not cleaned at all. The floors were dirty with stains and dried substances but the worst of it was a used bandaid hanging from the air conditioning unit. I went back down to the front desk where I was promptly placed in a different room. All this happen within the first few hours of my stay made for a very exhausting and frustrating experience; not to mention being in my third trimester of pregnancy.  To Booking.com's  credit the matter involving the breakfast passes was taken care of and honored. The next day, however, I noticed that I was being overcharged for my stay. I went back to the front desk with a copy of my reservation, after making me wait several minutes before acknowledging me, Shai, the desk attendant finally offered her assistance. She gave me a hand written explanation of the charges, even after I requested...I reserved my booking through booking.com where I paid for lodging and breakfast for 3. Upon checkin I was told that the reservation only included breakfast for 2 despite my confirmation and proof of booking. The host at guest services continued by telling me that nothing could be done about it, so I contacted booking.com and they assured me that the matter would be resolved. This is not the way I envisioned the start of my vacation. So, as we made our way to our room upon inspection we noticed the room was not cleaned at all. The floors were dirty with stains and dried substances but the worst of it was a used bandaid hanging from the air conditioning unit. I went back down to the front desk where I was promptly placed in a different room. All this happen within the first few hours of my stay made for a very exhausting and frustrating experience; not to mention being in my third trimester of pregnancy.  To Booking.com's  credit the matter involving the breakfast passes was taken care of and honored. The next day, however, I noticed that I was being overcharged for my stay. I went back to the front desk with a copy of my reservation, after making me wait several minutes before acknowledging me, Shai, the desk attendant finally offered her assistance. She gave me a hand written explanation of the charges, even after I requested a formal print out of all charges. How is that acceptable? I again had to spend a considerable part of my vacation trying to right wrongs that were not my own. I again called booking.com and they assured my that the matter would be handled which is was but this caused me a lot of undue stress and hassle only for them to take $40 off the my bill. I would not recommend this place to any one else. Horrible and unwarranted experience!!! I will say that the rest of the service staff were excellent and pleasant. My advice is to think twice about booking here or not at all! I read the reviews before my stay and was impressed so it's hard not to think I was given the worst intentionally!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r586440081-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>586440081</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>A nice stay and good location</t>
+  </si>
+  <si>
+    <t>We had a 2 night stay, and out room was modern furnishing and comfortable. A maor plus is that the hotel is within walking distance to LA Live for evening dining options with plenty of restaurants and bars, which we enjoyed. Staples Center is also located here should there be an event on.The staff are friendly and helpful. One minus is that parking is via valet and very expensive per night, but this may be typical for LA. The hotel is close to freeway which makes driving easy. The hotel is in a business area, but still OK for tourists to use. Also, Skyspace LA is located nearby for great sunset views, plus the nearby intercontinental hotel is worth a visit for drink - the bar is on a high floor offering great views.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>We had a 2 night stay, and out room was modern furnishing and comfortable. A maor plus is that the hotel is within walking distance to LA Live for evening dining options with plenty of restaurants and bars, which we enjoyed. Staples Center is also located here should there be an event on.The staff are friendly and helpful. One minus is that parking is via valet and very expensive per night, but this may be typical for LA. The hotel is close to freeway which makes driving easy. The hotel is in a business area, but still OK for tourists to use. Also, Skyspace LA is located nearby for great sunset views, plus the nearby intercontinental hotel is worth a visit for drink - the bar is on a high floor offering great views.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r586310042-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>586310042</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Good location, mediocre service</t>
+  </si>
+  <si>
+    <t>I spent four nights in a room at the 16th floor. Overall, I would recommend staying here if you need access to downtown LA (walking distance to many restaurants, museums and shopping centers), don't want to spend a lot for a fancy hotel and still want the comfort of a nice hotel. The price is not high for what you get. My room was clean and well organized/designed and I don't have any complaints about the bathroom. However, there were a few things I didn't like about my stay:- The service (mainly room service) needs improvement: I asked for dental floss twice and after about an hour, someone brought me a toothbrush and a toothpaste.- You can hear the hallway noise in your room, especially during the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>I spent four nights in a room at the 16th floor. Overall, I would recommend staying here if you need access to downtown LA (walking distance to many restaurants, museums and shopping centers), don't want to spend a lot for a fancy hotel and still want the comfort of a nice hotel. The price is not high for what you get. My room was clean and well organized/designed and I don't have any complaints about the bathroom. However, there were a few things I didn't like about my stay:- The service (mainly room service) needs improvement: I asked for dental floss twice and after about an hour, someone brought me a toothbrush and a toothpaste.- You can hear the hallway noise in your room, especially during the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r585861626-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>585861626</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Interesting....</t>
+  </si>
+  <si>
+    <t>We walked into the hotel to check in at 3:30 pm and the lobby was completely full of people that had already checked in and were waiting for their rooms. After standing in a painfully slow line we were told that "We are running a tight ship and your room is not ready. Can you check back in an hour?" We were then handed a token for the "inconvenience"  a buy one get one free drink in their upstairs bar. I later found out that they give the tokens to everyone that checks in, it's their way of promoting the bar. We had dinner plans at 6:00 pm and because of the inconvenience we had no time to rest before dinner after a long drive in from Vegas. We paid for a room that was supposed to be ready at 3:00 pm not 4:45 pm. Aside from this the room was nice, the gym was awesome and the pool was nice. We did not order room service but the menu was one of the best selections that I have seen in LA. Thankfully we wake up early because the next morning...Saturday morning on Memorial weekend at 7:30 am just down the street from the hotel there is road construction, repaving the road complete with cars and trucks honking, jack hammers and all the other loud noises that come from construction occurring, We were on the 7th floor and the sound...We walked into the hotel to check in at 3:30 pm and the lobby was completely full of people that had already checked in and were waiting for their rooms. After standing in a painfully slow line we were told that "We are running a tight ship and your room is not ready. Can you check back in an hour?" We were then handed a token for the "inconvenience"  a buy one get one free drink in their upstairs bar. I later found out that they give the tokens to everyone that checks in, it's their way of promoting the bar. We had dinner plans at 6:00 pm and because of the inconvenience we had no time to rest before dinner after a long drive in from Vegas. We paid for a room that was supposed to be ready at 3:00 pm not 4:45 pm. Aside from this the room was nice, the gym was awesome and the pool was nice. We did not order room service but the menu was one of the best selections that I have seen in LA. Thankfully we wake up early because the next morning...Saturday morning on Memorial weekend at 7:30 am just down the street from the hotel there is road construction, repaving the road complete with cars and trucks honking, jack hammers and all the other loud noises that come from construction occurring, We were on the 7th floor and the sound carried up to our room as if we were on the 1st floor. I felt bad for the guys next door that partied the night before who told us they wanted to sleep in. It is a very hip, attractive hotel but for the money you are paying I felt it was completely unacceptable for the room not to be ready and I feel we should have all been comped for the time we had to wait. I will not stay at Indigo again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We walked into the hotel to check in at 3:30 pm and the lobby was completely full of people that had already checked in and were waiting for their rooms. After standing in a painfully slow line we were told that "We are running a tight ship and your room is not ready. Can you check back in an hour?" We were then handed a token for the "inconvenience"  a buy one get one free drink in their upstairs bar. I later found out that they give the tokens to everyone that checks in, it's their way of promoting the bar. We had dinner plans at 6:00 pm and because of the inconvenience we had no time to rest before dinner after a long drive in from Vegas. We paid for a room that was supposed to be ready at 3:00 pm not 4:45 pm. Aside from this the room was nice, the gym was awesome and the pool was nice. We did not order room service but the menu was one of the best selections that I have seen in LA. Thankfully we wake up early because the next morning...Saturday morning on Memorial weekend at 7:30 am just down the street from the hotel there is road construction, repaving the road complete with cars and trucks honking, jack hammers and all the other loud noises that come from construction occurring, We were on the 7th floor and the sound...We walked into the hotel to check in at 3:30 pm and the lobby was completely full of people that had already checked in and were waiting for their rooms. After standing in a painfully slow line we were told that "We are running a tight ship and your room is not ready. Can you check back in an hour?" We were then handed a token for the "inconvenience"  a buy one get one free drink in their upstairs bar. I later found out that they give the tokens to everyone that checks in, it's their way of promoting the bar. We had dinner plans at 6:00 pm and because of the inconvenience we had no time to rest before dinner after a long drive in from Vegas. We paid for a room that was supposed to be ready at 3:00 pm not 4:45 pm. Aside from this the room was nice, the gym was awesome and the pool was nice. We did not order room service but the menu was one of the best selections that I have seen in LA. Thankfully we wake up early because the next morning...Saturday morning on Memorial weekend at 7:30 am just down the street from the hotel there is road construction, repaving the road complete with cars and trucks honking, jack hammers and all the other loud noises that come from construction occurring, We were on the 7th floor and the sound carried up to our room as if we were on the 1st floor. I felt bad for the guys next door that partied the night before who told us they wanted to sleep in. It is a very hip, attractive hotel but for the money you are paying I felt it was completely unacceptable for the room not to be ready and I feel we should have all been comped for the time we had to wait. I will not stay at Indigo again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r584727248-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>584727248</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Didn't want to leave!</t>
+  </si>
+  <si>
+    <t>Had an amazing stay at the gorgeous Hotel Indigo LA Downtown.  Staff were so friendly and welcoming.  Chris Salas, one of the breakfast servers, deserves a special shoutout for being exceptionally friendly, knowledgable about the area and for doing such a great British accent!MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Had an amazing stay at the gorgeous Hotel Indigo LA Downtown.  Staff were so friendly and welcoming.  Chris Salas, one of the breakfast servers, deserves a special shoutout for being exceptionally friendly, knowledgable about the area and for doing such a great British accent!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r584462115-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>584462115</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Hotel Indigo</t>
+  </si>
+  <si>
+    <t>Cool new hotel in downtown LA near LA Live. Lots of restaurants and bars in walking distance. Room was obviously new and very modern with Keurig machine. Fantastic view of LA from the room and I liked the super comfy bed. My friend got a decent rate from Priceline. The bar and restaurant on the 18th floor have the most amazing views in LA, you must check it out at night. Friendly staff - Catherine the Manager is extremely professional and Javie is the downtown LA guru! He gave me a map and recommended some great restaurant nearby the hotel. I was also given a discount token and free access to pool area, weather did not permit me to dip in the pool but looks gorgeous. I will definitely come back soon, hopefully I can get same rate that my friend paid for our room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cool new hotel in downtown LA near LA Live. Lots of restaurants and bars in walking distance. Room was obviously new and very modern with Keurig machine. Fantastic view of LA from the room and I liked the super comfy bed. My friend got a decent rate from Priceline. The bar and restaurant on the 18th floor have the most amazing views in LA, you must check it out at night. Friendly staff - Catherine the Manager is extremely professional and Javie is the downtown LA guru! He gave me a map and recommended some great restaurant nearby the hotel. I was also given a discount token and free access to pool area, weather did not permit me to dip in the pool but looks gorgeous. I will definitely come back soon, hopefully I can get same rate that my friend paid for our room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r584216443-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>584216443</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Very nice hotel and very nice people</t>
+  </si>
+  <si>
+    <t>Hotel is very nice and also the people there, the location is good, even though there is construction going on next to the building, but didn't take too much time to find the hotel. Juan Bellman gave me a very good tour, the equipment is very nice! the view of the pool is fantastic. I will be there next time!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Hotel is very nice and also the people there, the location is good, even though there is construction going on next to the building, but didn't take too much time to find the hotel. Juan Bellman gave me a very good tour, the equipment is very nice! the view of the pool is fantastic. I will be there next time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r583097199-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>583097199</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Read this.</t>
+  </si>
+  <si>
+    <t>The hotel is very nice. Every floor has a different theme. The reason I rated it a 2 was because of valet. If I knew valet was $46 a day then I would not have booked this hotel. On Saturday May 26 when we arrived back at the hotel, the valet staff took their time coming to our car. We sat there almost a minute before they stopped talking and came to assist. The younger guys during the day are always fast. The two older guys at night, not so much.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is very nice. Every floor has a different theme. The reason I rated it a 2 was because of valet. If I knew valet was $46 a day then I would not have booked this hotel. On Saturday May 26 when we arrived back at the hotel, the valet staff took their time coming to our car. We sat there almost a minute before they stopped talking and came to assist. The younger guys during the day are always fast. The two older guys at night, not so much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r582462388-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>582462388</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel and restaurant</t>
+  </si>
+  <si>
+    <t>New, very nice and clean, great staff. Close to convention center. Had one dinner and three breakfast's in the hotel, all excellent. Very clean and quiet on 10th floor. Big rooms, very comfortable bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded May 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2018</t>
+  </si>
+  <si>
+    <t>New, very nice and clean, great staff. Close to convention center. Had one dinner and three breakfast's in the hotel, all excellent. Very clean and quiet on 10th floor. Big rooms, very comfortable bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r582098330-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>582098330</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Modern downtown getaway</t>
+  </si>
+  <si>
+    <t>Completely enjoyed our experience at Hotel Indigo! Our room was modern, clean and incredibly comfortable. We had a corner room with the greatest views of downtown that reminded you just how close you were to great entertainment, restaurants, and bars. Susan, who helped check us into our room, was so attentive to us and even called to make sure everything was up to par once we settled into the room. She, along with every other employee we interacted with during our stay, was super warm and welcoming and made our visit so great. We hope to be back soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>Completely enjoyed our experience at Hotel Indigo! Our room was modern, clean and incredibly comfortable. We had a corner room with the greatest views of downtown that reminded you just how close you were to great entertainment, restaurants, and bars. Susan, who helped check us into our room, was so attentive to us and even called to make sure everything was up to par once we settled into the room. She, along with every other employee we interacted with during our stay, was super warm and welcoming and made our visit so great. We hope to be back soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r580728954-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>580728954</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Awesome Old Hollywood Theme</t>
+  </si>
+  <si>
+    <t>Totally loved this hotel. Went to a game at Staples Center and it was nice to be so close to the arena and LA Live.  Newer hotel with an old Hollywood look. Even though Hollywood was a short train ride away we felt like with the decor we were right in the middle of Old Hollywood. Finally the hotel staff was always helpful and knowledgeable of the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Totally loved this hotel. Went to a game at Staples Center and it was nice to be so close to the arena and LA Live.  Newer hotel with an old Hollywood look. Even though Hollywood was a short train ride away we felt like with the decor we were right in the middle of Old Hollywood. Finally the hotel staff was always helpful and knowledgeable of the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r579621754-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>579621754</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Lovely place with great views</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here when we came to town for Dragcon at the Los Angeles Convention Center. It is within walking distance and a pleasant walk with much to see and do along the way. We got to the hotel earlier than check in time which is 3 pm. I had called and they said they could keep our luggage until we checked in. When we got to the desk they instead checked us in early. What a nice surprise!  The hotel is very uniquely decorated with tons to look at. Every elevator is different. We were on the 13th floor and the view is fabulous. The room is very comfortable. It has a small frig and a small safe. The bed was super comfortable with really nice pillows. With the kerig machine they offered tea along with coffee which is great for me. Our room was very clean. We hadn’t eaten all day so we had late lunch early dinner at the hotel restaurant and it was fabulous. Lots of vegetarian options. The only small thing I wish the hotel offered would be bottled water for purchase in out room. Oh there is free WiFi and a USB port on both sides of the bed. Very cool and convenient. MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here when we came to town for Dragcon at the Los Angeles Convention Center. It is within walking distance and a pleasant walk with much to see and do along the way. We got to the hotel earlier than check in time which is 3 pm. I had called and they said they could keep our luggage until we checked in. When we got to the desk they instead checked us in early. What a nice surprise!  The hotel is very uniquely decorated with tons to look at. Every elevator is different. We were on the 13th floor and the view is fabulous. The room is very comfortable. It has a small frig and a small safe. The bed was super comfortable with really nice pillows. With the kerig machine they offered tea along with coffee which is great for me. Our room was very clean. We hadn’t eaten all day so we had late lunch early dinner at the hotel restaurant and it was fabulous. Lots of vegetarian options. The only small thing I wish the hotel offered would be bottled water for purchase in out room. Oh there is free WiFi and a USB port on both sides of the bed. Very cool and convenient. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r579091099-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>579091099</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I have stayed at other Hotel Indigo hotels many times. Came to Indigo Los Angeles for conference. The location is superb and all staff I encountered were attentive from arrival to departure. The rooms was handsomely decorated and lobby was well designed. I loved the breakfast bar and lobby music.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at other Hotel Indigo hotels many times. Came to Indigo Los Angeles for conference. The location is superb and all staff I encountered were attentive from arrival to departure. The rooms was handsomely decorated and lobby was well designed. I loved the breakfast bar and lobby music.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r578567562-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>578567562</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Pretty disappointing for a nice-looking hotel</t>
+  </si>
+  <si>
+    <t>Pretty disappointing hotel which I can't recommend to anyone. The staff here is generally poor-mannered and not at the level of service one would expect for a hotel charging $250+ per night. The experience with the staff was disappointing from start to finish
+- pulled up at around 11PM to check-in and no one came to help with luggage, offer assistance, or bother to open the door even though there were plenty of people standing around
+- our room was noisy and the staff was initially unhelpful and unwilling to move us to a quieter location. quite rude as well
+- no service either as I was leaving and carrying my luggage. Had to open my own door which makes me sound like a diva, but if you have 3 people standing around and you see me with both hands occupied, do your job and offer me some hospitality.
+The worst part is actually the room itself which looks amazing but seems to be poorly constructed. I don't think I've ever stayed in a hotel where there was more random rattling and popping noises coming from the wall. If you like sleeping quietly through the night, this hotel is not for you. The AC is horrible as well. They brag about the low dB level for the unit, but unfortunately 1) it's not very efficient at heating/cooling and 2) it's poorly mounted so while the AC is quiet, you can...Pretty disappointing hotel which I can't recommend to anyone. The staff here is generally poor-mannered and not at the level of service one would expect for a hotel charging $250+ per night. The experience with the staff was disappointing from start to finish- pulled up at around 11PM to check-in and no one came to help with luggage, offer assistance, or bother to open the door even though there were plenty of people standing around- our room was noisy and the staff was initially unhelpful and unwilling to move us to a quieter location. quite rude as well- no service either as I was leaving and carrying my luggage. Had to open my own door which makes me sound like a diva, but if you have 3 people standing around and you see me with both hands occupied, do your job and offer me some hospitality.The worst part is actually the room itself which looks amazing but seems to be poorly constructed. I don't think I've ever stayed in a hotel where there was more random rattling and popping noises coming from the wall. If you like sleeping quietly through the night, this hotel is not for you. The AC is horrible as well. They brag about the low dB level for the unit, but unfortunately 1) it's not very efficient at heating/cooling and 2) it's poorly mounted so while the AC is quiet, you can hear the vibrations from the mounts. Again you need to choose whether you want to be at a comfortable temperature or be constantly disturbed by vibrations.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine C, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Pretty disappointing hotel which I can't recommend to anyone. The staff here is generally poor-mannered and not at the level of service one would expect for a hotel charging $250+ per night. The experience with the staff was disappointing from start to finish
+- pulled up at around 11PM to check-in and no one came to help with luggage, offer assistance, or bother to open the door even though there were plenty of people standing around
+- our room was noisy and the staff was initially unhelpful and unwilling to move us to a quieter location. quite rude as well
+- no service either as I was leaving and carrying my luggage. Had to open my own door which makes me sound like a diva, but if you have 3 people standing around and you see me with both hands occupied, do your job and offer me some hospitality.
+The worst part is actually the room itself which looks amazing but seems to be poorly constructed. I don't think I've ever stayed in a hotel where there was more random rattling and popping noises coming from the wall. If you like sleeping quietly through the night, this hotel is not for you. The AC is horrible as well. They brag about the low dB level for the unit, but unfortunately 1) it's not very efficient at heating/cooling and 2) it's poorly mounted so while the AC is quiet, you can...Pretty disappointing hotel which I can't recommend to anyone. The staff here is generally poor-mannered and not at the level of service one would expect for a hotel charging $250+ per night. The experience with the staff was disappointing from start to finish- pulled up at around 11PM to check-in and no one came to help with luggage, offer assistance, or bother to open the door even though there were plenty of people standing around- our room was noisy and the staff was initially unhelpful and unwilling to move us to a quieter location. quite rude as well- no service either as I was leaving and carrying my luggage. Had to open my own door which makes me sound like a diva, but if you have 3 people standing around and you see me with both hands occupied, do your job and offer me some hospitality.The worst part is actually the room itself which looks amazing but seems to be poorly constructed. I don't think I've ever stayed in a hotel where there was more random rattling and popping noises coming from the wall. If you like sleeping quietly through the night, this hotel is not for you. The AC is horrible as well. They brag about the low dB level for the unit, but unfortunately 1) it's not very efficient at heating/cooling and 2) it's poorly mounted so while the AC is quiet, you can hear the vibrations from the mounts. Again you need to choose whether you want to be at a comfortable temperature or be constantly disturbed by vibrations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r577659050-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>577659050</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Decent new hotel, but...</t>
+  </si>
+  <si>
+    <t>I really wanted to give this a hotel a 4 or 5 rating because the staff is very friendly, the rooms are very nice, and the location is good, but here's why i couldnt bring myself to do so:  When i first checked in, i was given a room overlooking the outside pool area with music thumping at 4:00 pm on a rainy 60 degree day with not a person in sight.  The music was so loud that i immediately asked for a different room.  
+The rooms all have special air conditioner units that are very high-tech and new, but complicated to operate via the remote control you're given.  I couldnt tell if the a/c was supposed to be constantly on, but it was.  I even went on the internet to try and find an owners manual, to no avail.  
+Lastly, there is no coffee maker in the room, which i found very odd.  Additionally, there is no coffee in the lobby.  The only place to get coffee is at the bar or the restaurant.  I asked the bar tender for a coffee as i was checking out that morning.  He gave me the coffee and then I walked away.  He signaled me back to "pay the check."  It was $3.00 plus dollars for a tiny cup of coffee.  I was quite impressed that the hotel has the gal to charge guests $3 for what should otherwise be free coffee...I really wanted to give this a hotel a 4 or 5 rating because the staff is very friendly, the rooms are very nice, and the location is good, but here's why i couldnt bring myself to do so:  When i first checked in, i was given a room overlooking the outside pool area with music thumping at 4:00 pm on a rainy 60 degree day with not a person in sight.  The music was so loud that i immediately asked for a different room.  The rooms all have special air conditioner units that are very high-tech and new, but complicated to operate via the remote control you're given.  I couldnt tell if the a/c was supposed to be constantly on, but it was.  I even went on the internet to try and find an owners manual, to no avail.  Lastly, there is no coffee maker in the room, which i found very odd.  Additionally, there is no coffee in the lobby.  The only place to get coffee is at the bar or the restaurant.  I asked the bar tender for a coffee as i was checking out that morning.  He gave me the coffee and then I walked away.  He signaled me back to "pay the check."  It was $3.00 plus dollars for a tiny cup of coffee.  I was quite impressed that the hotel has the gal to charge guests $3 for what should otherwise be free coffee in a $250 per night hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2018</t>
+  </si>
+  <si>
+    <t>I really wanted to give this a hotel a 4 or 5 rating because the staff is very friendly, the rooms are very nice, and the location is good, but here's why i couldnt bring myself to do so:  When i first checked in, i was given a room overlooking the outside pool area with music thumping at 4:00 pm on a rainy 60 degree day with not a person in sight.  The music was so loud that i immediately asked for a different room.  
+The rooms all have special air conditioner units that are very high-tech and new, but complicated to operate via the remote control you're given.  I couldnt tell if the a/c was supposed to be constantly on, but it was.  I even went on the internet to try and find an owners manual, to no avail.  
+Lastly, there is no coffee maker in the room, which i found very odd.  Additionally, there is no coffee in the lobby.  The only place to get coffee is at the bar or the restaurant.  I asked the bar tender for a coffee as i was checking out that morning.  He gave me the coffee and then I walked away.  He signaled me back to "pay the check."  It was $3.00 plus dollars for a tiny cup of coffee.  I was quite impressed that the hotel has the gal to charge guests $3 for what should otherwise be free coffee...I really wanted to give this a hotel a 4 or 5 rating because the staff is very friendly, the rooms are very nice, and the location is good, but here's why i couldnt bring myself to do so:  When i first checked in, i was given a room overlooking the outside pool area with music thumping at 4:00 pm on a rainy 60 degree day with not a person in sight.  The music was so loud that i immediately asked for a different room.  The rooms all have special air conditioner units that are very high-tech and new, but complicated to operate via the remote control you're given.  I couldnt tell if the a/c was supposed to be constantly on, but it was.  I even went on the internet to try and find an owners manual, to no avail.  Lastly, there is no coffee maker in the room, which i found very odd.  Additionally, there is no coffee in the lobby.  The only place to get coffee is at the bar or the restaurant.  I asked the bar tender for a coffee as i was checking out that morning.  He gave me the coffee and then I walked away.  He signaled me back to "pay the check."  It was $3.00 plus dollars for a tiny cup of coffee.  I was quite impressed that the hotel has the gal to charge guests $3 for what should otherwise be free coffee in a $250 per night hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r577271104-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>577271104</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Staff is awesome</t>
+  </si>
+  <si>
+    <t>I stayed here during Herbalife. After traveling over 10 hours from Asia, I was really tired and just wanted to get into my room. Christine, the manager at the front desk, was very helpful. The check-in process was very smooth. She made sure that I was satisfied with everything my room. She explained every amenities offered in the hotel since this was my first time staying at the Hotel Indigo LA Downtown. The room was amazing especially with the view. However, one thing I was a little bit disappointed was the breakfast options. I feel like there was not much options for Chinese Travelers. Overall, great stay. Highly recommended!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here during Herbalife. After traveling over 10 hours from Asia, I was really tired and just wanted to get into my room. Christine, the manager at the front desk, was very helpful. The check-in process was very smooth. She made sure that I was satisfied with everything my room. She explained every amenities offered in the hotel since this was my first time staying at the Hotel Indigo LA Downtown. The room was amazing especially with the view. However, one thing I was a little bit disappointed was the breakfast options. I feel like there was not much options for Chinese Travelers. Overall, great stay. Highly recommended!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r573843526-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>573843526</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Will not be back</t>
+  </si>
+  <si>
+    <t>I was initially very excited for my stay at the Hotel Indigo. I had read nothing but good reviews, the location looked good, and the hotel itself looked beautiful. I would like to warn potential guests that there is something being ignored here. Once we checked in and got into our room, a member of our group took a very unpleasant shower. The shower head setting were irrelevant because the holes were so clogged up that it functioned only as a jet. We informed the hotel staff and they went to change the head while we were out for lunch. We had no idea the permanent jet setting was a blessing in disguise. For the rest of our stay we had water pressure equal to a light rain. The temperature regulator in the shower was also broken. The water was either ice cold or hot enough to burn your skin. The staff does not seem to have mastered communication. Our room only had 2 water glasses and we had four guests in the room. The cleaning staff never took our dirty glasses to replace them each day. We, on multiple occasions, called guest services to ask for more glasses. Each occasion required a minimum of three calls to the desk and often a walk down there to finally get someone to bring us glasses. I was truly astonished at the amount of time we had to wait for such a...I was initially very excited for my stay at the Hotel Indigo. I had read nothing but good reviews, the location looked good, and the hotel itself looked beautiful. I would like to warn potential guests that there is something being ignored here. Once we checked in and got into our room, a member of our group took a very unpleasant shower. The shower head setting were irrelevant because the holes were so clogged up that it functioned only as a jet. We informed the hotel staff and they went to change the head while we were out for lunch. We had no idea the permanent jet setting was a blessing in disguise. For the rest of our stay we had water pressure equal to a light rain. The temperature regulator in the shower was also broken. The water was either ice cold or hot enough to burn your skin. The staff does not seem to have mastered communication. Our room only had 2 water glasses and we had four guests in the room. The cleaning staff never took our dirty glasses to replace them each day. We, on multiple occasions, called guest services to ask for more glasses. Each occasion required a minimum of three calls to the desk and often a walk down there to finally get someone to bring us glasses. I was truly astonished at the amount of time we had to wait for such a simple request. My biggest issue is with the valet situation. It costs $42 + tax to valet your car there overnight. Something I find unreasonable to begin with. They valet staff and hotel staff failed to inform us at any point that we would be charged this fee automatically. Upon check out, I was given the invoice, showing we had racked up a $346 valet charge over he course of our 7 night stay. When we expressed our disappointment to the hotel and valet staff, they didn’t seem to care at all. They just said “okay” in response to anything until we walked away. Then, no one helped us load our suitcases into the vehicle or assisted us in any way as we got ready to leave. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded April 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2018</t>
+  </si>
+  <si>
+    <t>I was initially very excited for my stay at the Hotel Indigo. I had read nothing but good reviews, the location looked good, and the hotel itself looked beautiful. I would like to warn potential guests that there is something being ignored here. Once we checked in and got into our room, a member of our group took a very unpleasant shower. The shower head setting were irrelevant because the holes were so clogged up that it functioned only as a jet. We informed the hotel staff and they went to change the head while we were out for lunch. We had no idea the permanent jet setting was a blessing in disguise. For the rest of our stay we had water pressure equal to a light rain. The temperature regulator in the shower was also broken. The water was either ice cold or hot enough to burn your skin. The staff does not seem to have mastered communication. Our room only had 2 water glasses and we had four guests in the room. The cleaning staff never took our dirty glasses to replace them each day. We, on multiple occasions, called guest services to ask for more glasses. Each occasion required a minimum of three calls to the desk and often a walk down there to finally get someone to bring us glasses. I was truly astonished at the amount of time we had to wait for such a...I was initially very excited for my stay at the Hotel Indigo. I had read nothing but good reviews, the location looked good, and the hotel itself looked beautiful. I would like to warn potential guests that there is something being ignored here. Once we checked in and got into our room, a member of our group took a very unpleasant shower. The shower head setting were irrelevant because the holes were so clogged up that it functioned only as a jet. We informed the hotel staff and they went to change the head while we were out for lunch. We had no idea the permanent jet setting was a blessing in disguise. For the rest of our stay we had water pressure equal to a light rain. The temperature regulator in the shower was also broken. The water was either ice cold or hot enough to burn your skin. The staff does not seem to have mastered communication. Our room only had 2 water glasses and we had four guests in the room. The cleaning staff never took our dirty glasses to replace them each day. We, on multiple occasions, called guest services to ask for more glasses. Each occasion required a minimum of three calls to the desk and often a walk down there to finally get someone to bring us glasses. I was truly astonished at the amount of time we had to wait for such a simple request. My biggest issue is with the valet situation. It costs $42 + tax to valet your car there overnight. Something I find unreasonable to begin with. They valet staff and hotel staff failed to inform us at any point that we would be charged this fee automatically. Upon check out, I was given the invoice, showing we had racked up a $346 valet charge over he course of our 7 night stay. When we expressed our disappointment to the hotel and valet staff, they didn’t seem to care at all. They just said “okay” in response to anything until we walked away. Then, no one helped us load our suitcases into the vehicle or assisted us in any way as we got ready to leave. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r573584944-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>573584944</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Not good hospitality</t>
+  </si>
+  <si>
+    <t>1.) The staff is very sniffy and 2.) The staff is unknown about the hospitality.3.) Property is not comfort.4.) Need to improvement of the staff quality.5.) Front desk staff is not known to treat with the guests.6.) Room service staff is unknown about the own hotel policies.MoreShow less</t>
+  </si>
+  <si>
+    <t>1.) The staff is very sniffy and 2.) The staff is unknown about the hospitality.3.) Property is not comfort.4.) Need to improvement of the staff quality.5.) Front desk staff is not known to treat with the guests.6.) Room service staff is unknown about the own hotel policies.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r573270251-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>573270251</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>Contemporary, hip hotel</t>
+  </si>
+  <si>
+    <t>Depending where your business obligations are, this is a great choice. Only you will know if the hotel is in walking distance to your meetings. This location was perfect for my needs. There are some food opportunities in walking distance, including a Whole Foods, just a few blocks away.MoreShow less</t>
+  </si>
+  <si>
+    <t>Depending where your business obligations are, this is a great choice. Only you will know if the hotel is in walking distance to your meetings. This location was perfect for my needs. There are some food opportunities in walking distance, including a Whole Foods, just a few blocks away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r571351286-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>571351286</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel but bad service</t>
+  </si>
+  <si>
+    <t>My family of 3 members stayed here for a week, the hotel is nice and very convenient to go to all locations. But the service was poor, 
+Room Service: We have 3 people and all they gave us was just 2 sets of everything, when we call and ask them to give one more set they have missed it for two times and when they finally remember it they gave me almost 20 hair conditioner, shampoo and body wash, very unprofessional and trying to short me. 
+Secondary, the room service will never tidy up our iron, slippers and towels, iron with the wire all spread out, they didn’t tidy it up for us, slippers was same location and everywhere on the floor, and towels was messy. One time I thought the room was not done yet but I didn’t ask eventually. 
+Front Desk: when I checkout I found that they have charged me 7 days of valet parking which I have only used on the first day, and I told the front desk guy he was rude and keep shaking his leg and ask me to go outside and talk to the valet counter myself, I was very pissed off that he didn’t ask and need me to ask by myself. Eventually I managed to ask him to take care of it but end up he calculated the wrong parking fee again, and the 3rd time they finally calculate it...My family of 3 members stayed here for a week, the hotel is nice and very convenient to go to all locations. But the service was poor, Room Service: We have 3 people and all they gave us was just 2 sets of everything, when we call and ask them to give one more set they have missed it for two times and when they finally remember it they gave me almost 20 hair conditioner, shampoo and body wash, very unprofessional and trying to short me. Secondary, the room service will never tidy up our iron, slippers and towels, iron with the wire all spread out, they didn’t tidy it up for us, slippers was same location and everywhere on the floor, and towels was messy. One time I thought the room was not done yet but I didn’t ask eventually. Front Desk: when I checkout I found that they have charged me 7 days of valet parking which I have only used on the first day, and I told the front desk guy he was rude and keep shaking his leg and ask me to go outside and talk to the valet counter myself, I was very pissed off that he didn’t ask and need me to ask by myself. Eventually I managed to ask him to take care of it but end up he calculated the wrong parking fee again, and the 3rd time they finally calculate it right. I advice you guys to check your bill when you checkout. Valet Parking: They were just standing there and see my whole family moving the luggage by ourselves and didn’t offer any help, I never seen this kind of bad service before. Overall experience it was good in terms of the environment and structure. But the service was the worst I ever have for all hotels I have ever lived. Those staffs need to train better and more professional. It’s not a cheap hotel anyway, customers should not deserve these attitude. MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>My family of 3 members stayed here for a week, the hotel is nice and very convenient to go to all locations. But the service was poor, 
+Room Service: We have 3 people and all they gave us was just 2 sets of everything, when we call and ask them to give one more set they have missed it for two times and when they finally remember it they gave me almost 20 hair conditioner, shampoo and body wash, very unprofessional and trying to short me. 
+Secondary, the room service will never tidy up our iron, slippers and towels, iron with the wire all spread out, they didn’t tidy it up for us, slippers was same location and everywhere on the floor, and towels was messy. One time I thought the room was not done yet but I didn’t ask eventually. 
+Front Desk: when I checkout I found that they have charged me 7 days of valet parking which I have only used on the first day, and I told the front desk guy he was rude and keep shaking his leg and ask me to go outside and talk to the valet counter myself, I was very pissed off that he didn’t ask and need me to ask by myself. Eventually I managed to ask him to take care of it but end up he calculated the wrong parking fee again, and the 3rd time they finally calculate it...My family of 3 members stayed here for a week, the hotel is nice and very convenient to go to all locations. But the service was poor, Room Service: We have 3 people and all they gave us was just 2 sets of everything, when we call and ask them to give one more set they have missed it for two times and when they finally remember it they gave me almost 20 hair conditioner, shampoo and body wash, very unprofessional and trying to short me. Secondary, the room service will never tidy up our iron, slippers and towels, iron with the wire all spread out, they didn’t tidy it up for us, slippers was same location and everywhere on the floor, and towels was messy. One time I thought the room was not done yet but I didn’t ask eventually. Front Desk: when I checkout I found that they have charged me 7 days of valet parking which I have only used on the first day, and I told the front desk guy he was rude and keep shaking his leg and ask me to go outside and talk to the valet counter myself, I was very pissed off that he didn’t ask and need me to ask by myself. Eventually I managed to ask him to take care of it but end up he calculated the wrong parking fee again, and the 3rd time they finally calculate it right. I advice you guys to check your bill when you checkout. Valet Parking: They were just standing there and see my whole family moving the luggage by ourselves and didn’t offer any help, I never seen this kind of bad service before. Overall experience it was good in terms of the environment and structure. But the service was the worst I ever have for all hotels I have ever lived. Those staffs need to train better and more professional. It’s not a cheap hotel anyway, customers should not deserve these attitude. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r571151597-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>571151597</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Universal Studios</t>
+  </si>
+  <si>
+    <t>I have to admit this hotel was great! Super nice and clean, the room was so cool and the hotel staff was professional. We stayed here for two nights on a Hotwire deal to go to Universal Studios with three little excited kids. Everyone was friendly, everyone had smiles and they went out of their way to help us. Ruben specifically went out of his way to help us load up all of our bags, ( we had a lot) organize and make it easier for travel on a road trip! He was awesome and we are so thankful for the customer service! See you next time and Ruben thank you so much!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have to admit this hotel was great! Super nice and clean, the room was so cool and the hotel staff was professional. We stayed here for two nights on a Hotwire deal to go to Universal Studios with three little excited kids. Everyone was friendly, everyone had smiles and they went out of their way to help us. Ruben specifically went out of his way to help us load up all of our bags, ( we had a lot) organize and make it easier for travel on a road trip! He was awesome and we are so thankful for the customer service! See you next time and Ruben thank you so much!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r571051734-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>571051734</t>
+  </si>
+  <si>
+    <t>Great Business Stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights for a business trip in LA. Was upgraded on arrival and the room was fantastic - very spacious with a great view of the pool. Breakfast was good as were the gym facilities. Would definitely stay here again if needing to be in Downtown LA. My only complaint was check-out. As some others have stated, check-out too much, much longer than I would expect at any hotel. I waited over 20 minutes in line despite multiple people working behind the desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights for a business trip in LA. Was upgraded on arrival and the room was fantastic - very spacious with a great view of the pool. Breakfast was good as were the gym facilities. Would definitely stay here again if needing to be in Downtown LA. My only complaint was check-out. As some others have stated, check-out too much, much longer than I would expect at any hotel. I waited over 20 minutes in line despite multiple people working behind the desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r569788291-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>569788291</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer service </t>
+  </si>
+  <si>
+    <t>Kyle at the front desk gives amazing customer service! He always has a smile on and is more than willing to accommodate requests. Thank you Kyle! Beautiful hotel. Great views. The Cobb salad, burger, and steak are all very good. Beautiful lobby. Cool bar. MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Kyle at the front desk gives amazing customer service! He always has a smile on and is more than willing to accommodate requests. Thank you Kyle! Beautiful hotel. Great views. The Cobb salad, burger, and steak are all very good. Beautiful lobby. Cool bar. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r569488645-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>569488645</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful Property </t>
+  </si>
+  <si>
+    <t>We chose this due to the proximity of the Staples Center and weren't disappointed. Beautiful hotel that left us with smiles on our face. People are very friendly and helpful to our needs. Great restaurants near by. Definitely recommend this to friends, family and anyone that would ask. If we are ever in LA again, this will be our base again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this due to the proximity of the Staples Center and weren't disappointed. Beautiful hotel that left us with smiles on our face. People are very friendly and helpful to our needs. Great restaurants near by. Definitely recommend this to friends, family and anyone that would ask. If we are ever in LA again, this will be our base again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r568985483-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>568985483</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top Notch </t>
+  </si>
+  <si>
+    <t>Chai and Kyle made this experience and stay enjoyable during my travel to LA for the marathon weekend. Both went well above and beyond to ensure I was taken care of during my stay at the Indigo LA. The service and amenities here are great. Enjoyed my visit and am now a loyal guest at their properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chai and Kyle made this experience and stay enjoyable during my travel to LA for the marathon weekend. Both went well above and beyond to ensure I was taken care of during my stay at the Indigo LA. The service and amenities here are great. Enjoyed my visit and am now a loyal guest at their properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r568786353-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>568786353</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Great Service from Juan and staff</t>
+  </si>
+  <si>
+    <t>I visited for a night and was swiftly taken care of by the valet. Juan at the front desk made sure my room had water, snacks, and helped with my luggage. Exceptional service! I look forward to staying here again MoreShow less</t>
+  </si>
+  <si>
+    <t>I visited for a night and was swiftly taken care of by the valet. Juan at the front desk made sure my room had water, snacks, and helped with my luggage. Exceptional service! I look forward to staying here again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r567335614-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>567335614</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>The Front desk reception made the trip!</t>
+  </si>
+  <si>
+    <t>Brilliant staff!When booking this hotel last week Kyle, the charismatic and definitely enthusiastic front desk reception made a booking simple and enjoyable. Though I made the reservation for a friend, he treated me as if I was a guest,Staff and the location are both world class.The indigo Hotel is new and fabulous.I highly recommend anyone to stay here!And if you’re fortunate enough to meet Kyle I’m sure you’ll have a great experience too.Hans.MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded March 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2018</t>
+  </si>
+  <si>
+    <t>Brilliant staff!When booking this hotel last week Kyle, the charismatic and definitely enthusiastic front desk reception made a booking simple and enjoyable. Though I made the reservation for a friend, he treated me as if I was a guest,Staff and the location are both world class.The indigo Hotel is new and fabulous.I highly recommend anyone to stay here!And if you’re fortunate enough to meet Kyle I’m sure you’ll have a great experience too.Hans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r567141603-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>567141603</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Review for the front desk</t>
+  </si>
+  <si>
+    <t>Kyle is the one helping us. His really helpful, welcoming and making us comfortable. This place is really amazing. We had a long day and he make our stay wonderful, giving us a really great view and he also helped us for dinner restaurant. If you looking for a wonderful and helpful staff, great location come to hotel Indigo. And ask for kyle, who have my word!! he will help you out. Thank you..MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle is the one helping us. His really helpful, welcoming and making us comfortable. This place is really amazing. We had a long day and he make our stay wonderful, giving us a really great view and he also helped us for dinner restaurant. If you looking for a wonderful and helpful staff, great location come to hotel Indigo. And ask for kyle, who have my word!! he will help you out. Thank you..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r566658416-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>566658416</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>"People" turned an average stay into an excellent one.</t>
+  </si>
+  <si>
+    <t>I booked this room through a third party site using a "pay what you feel" option.  I loved the location and hipster vibe of the hotel (if you're going to LA why not go all the way).  Definetly worth staying here for the selfies alone! (hey when in Rome, OK)!However, what really made this an experience worth reviewing was the service provided by Javie at the front desk   He went above and beyond really making me feel like an invited guest not just a reservation.  People are what can change experiences from "just like any other" to "something to write home about"  if you take Javie out of Hotel Indigo it would just be another nameless overpriced experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded March 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2018</t>
+  </si>
+  <si>
+    <t>I booked this room through a third party site using a "pay what you feel" option.  I loved the location and hipster vibe of the hotel (if you're going to LA why not go all the way).  Definetly worth staying here for the selfies alone! (hey when in Rome, OK)!However, what really made this an experience worth reviewing was the service provided by Javie at the front desk   He went above and beyond really making me feel like an invited guest not just a reservation.  People are what can change experiences from "just like any other" to "something to write home about"  if you take Javie out of Hotel Indigo it would just be another nameless overpriced experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r566522344-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>566522344</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Nice, new hotel in downtown LA</t>
+  </si>
+  <si>
+    <t>I was in town on business for one night and was lucky enough to stay at Hotel Indigo while I was there. I was able to check in a bit early, and the concierge was very friendly. There was a conference in the hotel as well, but they did not interfere with my stay at all.My room was on the 7th floor and had a great view of downtown. It was a great size, and the bathroom was gorgeous! I felt very comfortable, and was able to work during the afternoon on very reliable wifi. Was not bothered at all by other guests and slept well overall.The hotel is in a great location, walking distance to several convenience stores, restaurants and bars, and great pick up location for rideshare services.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in town on business for one night and was lucky enough to stay at Hotel Indigo while I was there. I was able to check in a bit early, and the concierge was very friendly. There was a conference in the hotel as well, but they did not interfere with my stay at all.My room was on the 7th floor and had a great view of downtown. It was a great size, and the bathroom was gorgeous! I felt very comfortable, and was able to work during the afternoon on very reliable wifi. Was not bothered at all by other guests and slept well overall.The hotel is in a great location, walking distance to several convenience stores, restaurants and bars, and great pick up location for rideshare services.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r565927152-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>565927152</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Hollywood retro motif</t>
+  </si>
+  <si>
+    <t>4* Hotel Indigo999 FranciscoLos AngelesConvenient location; close to Staples CenterEarly 20’s/Hollywood retro motif that has been modernizedFriendly hotel staffBoutique roomsMinus: Hated the showers that had weird showerhead, swivel cord that was a pain to adjust. Caused water on bathroom floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2018</t>
+  </si>
+  <si>
+    <t>4* Hotel Indigo999 FranciscoLos AngelesConvenient location; close to Staples CenterEarly 20’s/Hollywood retro motif that has been modernizedFriendly hotel staffBoutique roomsMinus: Hated the showers that had weird showerhead, swivel cord that was a pain to adjust. Caused water on bathroom floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r564657651-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>564657651</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Excellent Value But Mediocre Service</t>
+  </si>
+  <si>
+    <t>I am torn, writing this review.  The physical plant and rooms in this hotel are very good to excellent.  But, the service was mediocre at best.  So, let's start with the building and the room.  The lobby is chic and upscale - a great place for a cup of coffee in the morning or a cocktail in the evening.  The location of the hotel is perfect if you're exploring or conducting business in downtown Los Angeles.  And the rooms are perfect - very nice for the price point.  We stayed in a corner room on the 13th floor with spectacular views on two sides.  I highly recommend upgrading to a corner room.  The bed was very comfortable, the toiletries - Jonathan Adler Champagne - were very nice (scent/quality).  A few picky items . . . the shower water temperature was never hot enough - not even when you turned the lever to the hottest level.  And, the sofa in the room was very uncomfortable.  It looked nice - but, it was hard and uncomfortable - even with pillows.  Now, on to the service.  From the front desk to the bar area - there are problems.  The front desk staff were unwelcoming and unfriendly.  I saw this not only with my arrival - but, each time that I walked through the lobby and watched them interact with other guests (over a 48 hour period).  The room service was abysmal.  We tried...I am torn, writing this review.  The physical plant and rooms in this hotel are very good to excellent.  But, the service was mediocre at best.  So, let's start with the building and the room.  The lobby is chic and upscale - a great place for a cup of coffee in the morning or a cocktail in the evening.  The location of the hotel is perfect if you're exploring or conducting business in downtown Los Angeles.  And the rooms are perfect - very nice for the price point.  We stayed in a corner room on the 13th floor with spectacular views on two sides.  I highly recommend upgrading to a corner room.  The bed was very comfortable, the toiletries - Jonathan Adler Champagne - were very nice (scent/quality).  A few picky items . . . the shower water temperature was never hot enough - not even when you turned the lever to the hottest level.  And, the sofa in the room was very uncomfortable.  It looked nice - but, it was hard and uncomfortable - even with pillows.  Now, on to the service.  From the front desk to the bar area - there are problems.  The front desk staff were unwelcoming and unfriendly.  I saw this not only with my arrival - but, each time that I walked through the lobby and watched them interact with other guests (over a 48 hour period).  The room service was abysmal.  We tried to order room service twice.  Both times, the operator said that it would be 30 minutes.  Both times, we waited for more than an hour and then canceled the service.  The hotel needs to fix this issue.  Either be truthful with guests and tell us that it will be 1 hour - or, actually arrive somewhere close to 30 minutes after we place our orders.  The bartenders were unfriendly and acted as if we were inconveniencing them when we placed orders and spent money at the bar!  I will say - one exception to the consistently poor service - the one valet who was very friendly and efficient when he retrieved our car on our last morning.  One final comment - the fitness center looked nice enough - but all of the treadmills this weekend were inoperable except for one.  We called this to the attention of the attendant and he told us that it has "been this way" and management is not repairing the inoperable equipment.  My last comment - I had a similar experience up the street at the Hotel Intercontinental last year.  Interesting - that hotel and the Indigo are both owned by the same company.  Maybe they should listen to guests and improve their customer service.  My next stay downtown will be at the Ritz or JW Marriott.  Those locations know how to treat their guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded March 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2018</t>
+  </si>
+  <si>
+    <t>I am torn, writing this review.  The physical plant and rooms in this hotel are very good to excellent.  But, the service was mediocre at best.  So, let's start with the building and the room.  The lobby is chic and upscale - a great place for a cup of coffee in the morning or a cocktail in the evening.  The location of the hotel is perfect if you're exploring or conducting business in downtown Los Angeles.  And the rooms are perfect - very nice for the price point.  We stayed in a corner room on the 13th floor with spectacular views on two sides.  I highly recommend upgrading to a corner room.  The bed was very comfortable, the toiletries - Jonathan Adler Champagne - were very nice (scent/quality).  A few picky items . . . the shower water temperature was never hot enough - not even when you turned the lever to the hottest level.  And, the sofa in the room was very uncomfortable.  It looked nice - but, it was hard and uncomfortable - even with pillows.  Now, on to the service.  From the front desk to the bar area - there are problems.  The front desk staff were unwelcoming and unfriendly.  I saw this not only with my arrival - but, each time that I walked through the lobby and watched them interact with other guests (over a 48 hour period).  The room service was abysmal.  We tried...I am torn, writing this review.  The physical plant and rooms in this hotel are very good to excellent.  But, the service was mediocre at best.  So, let's start with the building and the room.  The lobby is chic and upscale - a great place for a cup of coffee in the morning or a cocktail in the evening.  The location of the hotel is perfect if you're exploring or conducting business in downtown Los Angeles.  And the rooms are perfect - very nice for the price point.  We stayed in a corner room on the 13th floor with spectacular views on two sides.  I highly recommend upgrading to a corner room.  The bed was very comfortable, the toiletries - Jonathan Adler Champagne - were very nice (scent/quality).  A few picky items . . . the shower water temperature was never hot enough - not even when you turned the lever to the hottest level.  And, the sofa in the room was very uncomfortable.  It looked nice - but, it was hard and uncomfortable - even with pillows.  Now, on to the service.  From the front desk to the bar area - there are problems.  The front desk staff were unwelcoming and unfriendly.  I saw this not only with my arrival - but, each time that I walked through the lobby and watched them interact with other guests (over a 48 hour period).  The room service was abysmal.  We tried to order room service twice.  Both times, the operator said that it would be 30 minutes.  Both times, we waited for more than an hour and then canceled the service.  The hotel needs to fix this issue.  Either be truthful with guests and tell us that it will be 1 hour - or, actually arrive somewhere close to 30 minutes after we place our orders.  The bartenders were unfriendly and acted as if we were inconveniencing them when we placed orders and spent money at the bar!  I will say - one exception to the consistently poor service - the one valet who was very friendly and efficient when he retrieved our car on our last morning.  One final comment - the fitness center looked nice enough - but all of the treadmills this weekend were inoperable except for one.  We called this to the attention of the attendant and he told us that it has "been this way" and management is not repairing the inoperable equipment.  My last comment - I had a similar experience up the street at the Hotel Intercontinental last year.  Interesting - that hotel and the Indigo are both owned by the same company.  Maybe they should listen to guests and improve their customer service.  My next stay downtown will be at the Ritz or JW Marriott.  Those locations know how to treat their guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r564455934-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>564455934</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Downtown &amp; LA Live</t>
+  </si>
+  <si>
+    <t>The Hotel Indigo is a recently opened property in downtown LA ... located close to LA LIVE and the Staples Center.  Easy access is afforded from the 110 / Habor Freeway exiting to 9th Street and the hotel is right there on your left side on Francisco Street.    The hotel staff were friendly and professional.  Room was clean and functional.  Only one warming to guests ... you may want to opt out of getting a room assigned on the 17th floor ... do to its proximity to the lounge on 18 and the weekend DJ thumping out music until 2am might be considered counterproductive to your sleeping before the music ceases.    All in all , the stay has been pleasant , staff has been helpful &amp; kind.  I’d stay at the property again when visiting downtown Los Angeles.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Hotel Indigo is a recently opened property in downtown LA ... located close to LA LIVE and the Staples Center.  Easy access is afforded from the 110 / Habor Freeway exiting to 9th Street and the hotel is right there on your left side on Francisco Street.    The hotel staff were friendly and professional.  Room was clean and functional.  Only one warming to guests ... you may want to opt out of getting a room assigned on the 17th floor ... do to its proximity to the lounge on 18 and the weekend DJ thumping out music until 2am might be considered counterproductive to your sleeping before the music ceases.    All in all , the stay has been pleasant , staff has been helpful &amp; kind.  I’d stay at the property again when visiting downtown Los Angeles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r564006311-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>564006311</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Expected More from the Indigo</t>
+  </si>
+  <si>
+    <t>The reviews did not match up for this DTLA property. With a location next to the freeway off-ramp you will venture away from this destination for food and fun. There is construction across the street and the lobby is small and just meh. The hallways are dark and gloomy like being in the Disney Tower of Terror. The room is clean and somewhat trendy. The bed is comfy, but the pillows are horrible and the bath towels are super small and therefore deemed useless. Bath products are dolled out in small quantities and there are no cotton balls or q-tips. One saving grace is the view! Good job on that and the window that lets fresh air in!Another place next time!MoreShow less</t>
+  </si>
+  <si>
+    <t>The reviews did not match up for this DTLA property. With a location next to the freeway off-ramp you will venture away from this destination for food and fun. There is construction across the street and the lobby is small and just meh. The hallways are dark and gloomy like being in the Disney Tower of Terror. The room is clean and somewhat trendy. The bed is comfy, but the pillows are horrible and the bath towels are super small and therefore deemed useless. Bath products are dolled out in small quantities and there are no cotton balls or q-tips. One saving grace is the view! Good job on that and the window that lets fresh air in!Another place next time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r563007392-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>563007392</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>Views !!</t>
+  </si>
+  <si>
+    <t>I was in town with my wife and daughter, couple of days of relaxation. The property is beautiful and located centrally downtown. Service was spot on and check in staff simply perfect. My room had a gorgeous view, and everything in it was new and super chic. I would def recommend this, and i will gladly stay here on my next visit. The gent at the front desk was awesome( Jamie), good work.MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded March 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2018</t>
+  </si>
+  <si>
+    <t>I was in town with my wife and daughter, couple of days of relaxation. The property is beautiful and located centrally downtown. Service was spot on and check in staff simply perfect. My room had a gorgeous view, and everything in it was new and super chic. I would def recommend this, and i will gladly stay here on my next visit. The gent at the front desk was awesome( Jamie), good work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r562844415-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>562844415</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Ruben was super helpful.</t>
+  </si>
+  <si>
+    <t>I needed a hotel as I came to LA for some medical appointments at USC. The staff was all very helpful. The hotel and room was modern and clean. My dog was welcomed and doted on my the valet attendants. I will book with Hotel Indigo again when I return to LA in a couple of months.MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed a hotel as I came to LA for some medical appointments at USC. The staff was all very helpful. The hotel and room was modern and clean. My dog was welcomed and doted on my the valet attendants. I will book with Hotel Indigo again when I return to LA in a couple of months.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r562798913-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>562798913</t>
+  </si>
+  <si>
+    <t>This is a perfect find for DTLA!!</t>
+  </si>
+  <si>
+    <t>I stayed here a few weeks ago and fell in love.  They are discreetly located in walking distance from Staples Center.  I was upgraded to a suite by the manager.  I loved the decor, staff and all the cool things nearby.  Really beautiful and well-worth the money.I will highly recommend this to all of my out-of-towners!  LOVE!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r560756152-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>560756152</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t>First ever trip to LA</t>
+  </si>
+  <si>
+    <t>Beautiful hotel centrally located. Stunning rooms with minimal yet capturing deco pieces and fabulous wall paper. Comfortable beds too. Professional and friendly staff from warm welcome at reception. The restaurant has a great menu and the food is just amazing. I would definitely recommend it. MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel centrally located. Stunning rooms with minimal yet capturing deco pieces and fabulous wall paper. Comfortable beds too. Professional and friendly staff from warm welcome at reception. The restaurant has a great menu and the food is just amazing. I would definitely recommend it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r560711718-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>560711718</t>
+  </si>
+  <si>
+    <t>Travel Agent Review- Gorgeous Hotel!</t>
+  </si>
+  <si>
+    <t>The location of this hotel is awesome- it is walking distance to Staples Center! If you upgrade to a higher floor you can get an awesome view of the city and Staples Center (we were on the 9th floor). It was also a short and cheap Uber ride to Hollywood &amp; Universal City as well! They have a stunning 18th floor bar/lounge which was perfect for an evening drink before going out on the town.The hotel was gorgeously decorated inside. Modern, new, quirky and had one of a kind decor &amp; design!  The room and bathroom were huge and the beds very comfy. I am also a very light sleeper and noticed the windows were quite sound proof for being in a busy city. One tip about the hotel parking: The valet is expensive but there is a self parking lot across the street that you can park at for $10 per 24 hours, I believe, but they only down side is that there are no in a out privileges so once you leave you will have to pay another $10 to get back into the lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location of this hotel is awesome- it is walking distance to Staples Center! If you upgrade to a higher floor you can get an awesome view of the city and Staples Center (we were on the 9th floor). It was also a short and cheap Uber ride to Hollywood &amp; Universal City as well! They have a stunning 18th floor bar/lounge which was perfect for an evening drink before going out on the town.The hotel was gorgeously decorated inside. Modern, new, quirky and had one of a kind decor &amp; design!  The room and bathroom were huge and the beds very comfy. I am also a very light sleeper and noticed the windows were quite sound proof for being in a busy city. One tip about the hotel parking: The valet is expensive but there is a self parking lot across the street that you can park at for $10 per 24 hours, I believe, but they only down side is that there are no in a out privileges so once you leave you will have to pay another $10 to get back into the lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r560346767-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>560346767</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Extraordinary location and product</t>
+  </si>
+  <si>
+    <t>Greatly located in the heart of downtown Los Angeles; the design is awesome, service is excellent and the brand is lovelly. Very close to the convention center, staples center and the fig and seven livestyle center. MoreShow less</t>
+  </si>
+  <si>
+    <t>Greatly located in the heart of downtown Los Angeles; the design is awesome, service is excellent and the brand is lovelly. Very close to the convention center, staples center and the fig and seven livestyle center. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r557922026-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>557922026</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised!</t>
+  </si>
+  <si>
+    <t>I stayed at Hotel Indigo last week during a work trip and I loved it! I was super impressed by the rooms - cleanliness, decor, comfort, and amenities (soaps, etc.) Room was a nice size and I will definitely stay here again when visiting DTLA.MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded February 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at Hotel Indigo last week during a work trip and I loved it! I was super impressed by the rooms - cleanliness, decor, comfort, and amenities (soaps, etc.) Room was a nice size and I will definitely stay here again when visiting DTLA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r557661181-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>557661181</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Out stay at Hotel Indigo</t>
+  </si>
+  <si>
+    <t>What a great place!! I have been travelling a lot lately on business, often ending up in Los Angeles!! Never heard of this hotel but gave it a shot!! 
+Great valet, immediately available and welcoming (kinda pricey parking $42/day) but who doesn't charge those rates these days??  Anyway, they told us the cost, no surprise at check out!!
+We arrived early, yet no problem!  The man at the desk had a room ready for us--I don't remember his name but something with a J--Latino gentleman, friendly and welcoming as well!!  Cool lobby, nothing like it that we have stayed at.  Dropped off our luggage, room 1107?? Great room, great view, great bath amenities, champagne something by Jonathan Adler??  Wife loved it!! 
+First stop: Lobby bar where Julian a young man welcomed us, he was busy with another guest at the bar and immediately apologized for the delay (which was no delay).  He shared how he loves the hotel and company that he works for!! Such a pleasant guy!!  Had a few drinks, and a Julian Special, raspberry drink: On Point!  Julian recommended places to visit and explore while in LA but did not have much time on this trip.
+Lobby/Bell hop gentlemen were very attentive, I had some computer work to catch up on, they had me set up in the lobby to work away!! 
+We did stop by the 18th floor bar, great views but not much time to...What a great place!! I have been travelling a lot lately on business, often ending up in Los Angeles!! Never heard of this hotel but gave it a shot!! Great valet, immediately available and welcoming (kinda pricey parking $42/day) but who doesn't charge those rates these days??  Anyway, they told us the cost, no surprise at check out!!We arrived early, yet no problem!  The man at the desk had a room ready for us--I don't remember his name but something with a J--Latino gentleman, friendly and welcoming as well!!  Cool lobby, nothing like it that we have stayed at.  Dropped off our luggage, room 1107?? Great room, great view, great bath amenities, champagne something by Jonathan Adler??  Wife loved it!! First stop: Lobby bar where Julian a young man welcomed us, he was busy with another guest at the bar and immediately apologized for the delay (which was no delay).  He shared how he loves the hotel and company that he works for!! Such a pleasant guy!!  Had a few drinks, and a Julian Special, raspberry drink: On Point!  Julian recommended places to visit and explore while in LA but did not have much time on this trip.Lobby/Bell hop gentlemen were very attentive, I had some computer work to catch up on, they had me set up in the lobby to work away!! We did stop by the 18th floor bar, great views but not much time to enjoy, explored the pool, heated and great to have to our selves for a while.  This was a short trip but definitley want to return REAL SOON!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>What a great place!! I have been travelling a lot lately on business, often ending up in Los Angeles!! Never heard of this hotel but gave it a shot!! 
+Great valet, immediately available and welcoming (kinda pricey parking $42/day) but who doesn't charge those rates these days??  Anyway, they told us the cost, no surprise at check out!!
+We arrived early, yet no problem!  The man at the desk had a room ready for us--I don't remember his name but something with a J--Latino gentleman, friendly and welcoming as well!!  Cool lobby, nothing like it that we have stayed at.  Dropped off our luggage, room 1107?? Great room, great view, great bath amenities, champagne something by Jonathan Adler??  Wife loved it!! 
+First stop: Lobby bar where Julian a young man welcomed us, he was busy with another guest at the bar and immediately apologized for the delay (which was no delay).  He shared how he loves the hotel and company that he works for!! Such a pleasant guy!!  Had a few drinks, and a Julian Special, raspberry drink: On Point!  Julian recommended places to visit and explore while in LA but did not have much time on this trip.
+Lobby/Bell hop gentlemen were very attentive, I had some computer work to catch up on, they had me set up in the lobby to work away!! 
+We did stop by the 18th floor bar, great views but not much time to...What a great place!! I have been travelling a lot lately on business, often ending up in Los Angeles!! Never heard of this hotel but gave it a shot!! Great valet, immediately available and welcoming (kinda pricey parking $42/day) but who doesn't charge those rates these days??  Anyway, they told us the cost, no surprise at check out!!We arrived early, yet no problem!  The man at the desk had a room ready for us--I don't remember his name but something with a J--Latino gentleman, friendly and welcoming as well!!  Cool lobby, nothing like it that we have stayed at.  Dropped off our luggage, room 1107?? Great room, great view, great bath amenities, champagne something by Jonathan Adler??  Wife loved it!! First stop: Lobby bar where Julian a young man welcomed us, he was busy with another guest at the bar and immediately apologized for the delay (which was no delay).  He shared how he loves the hotel and company that he works for!! Such a pleasant guy!!  Had a few drinks, and a Julian Special, raspberry drink: On Point!  Julian recommended places to visit and explore while in LA but did not have much time on this trip.Lobby/Bell hop gentlemen were very attentive, I had some computer work to catch up on, they had me set up in the lobby to work away!! We did stop by the 18th floor bar, great views but not much time to enjoy, explored the pool, heated and great to have to our selves for a while.  This was a short trip but definitley want to return REAL SOON!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r556943728-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>556943728</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>In Major Need of Management</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here one night with another couple when we were going to a concert at Microsoft Theater.  From the moment we walked through the door, I was disappointed purely from a customer service standpoint.  The hotel itself was beautiful, but it’s all downhill from there.  The women’s bathroom in the lobby smelled horrible - like something had died there.  I used that bathroom three different times and it was the same each time on two different days.  
+When we entered the hotel, there were three people at the front desk and no one acknowledged our friends to even make eye contact or welcome them to the hotel.  We went to the bar for drinks, and even though the bartender was very nice, he forgot our drinks until we reminded him - and that happened twice.  We were 4 of only 6 in the bar at the time.  At breakfast the next morning, we stood at the hostess desk for 5 or more minutes before anyone appeared.  We were seated and I asked for coffee and water, but I got coffee and juice.  I ordered off the menu rather than getting the buffet and it took over 30 minutes to get bacon and eggs and that only happened after we went back to the kitchen because none of the waiters came by to even check on us.  Again, we were 4 of less than a dozen people...My husband and I stayed here one night with another couple when we were going to a concert at Microsoft Theater.  From the moment we walked through the door, I was disappointed purely from a customer service standpoint.  The hotel itself was beautiful, but it’s all downhill from there.  The women’s bathroom in the lobby smelled horrible - like something had died there.  I used that bathroom three different times and it was the same each time on two different days.  When we entered the hotel, there were three people at the front desk and no one acknowledged our friends to even make eye contact or welcome them to the hotel.  We went to the bar for drinks, and even though the bartender was very nice, he forgot our drinks until we reminded him - and that happened twice.  We were 4 of only 6 in the bar at the time.  At breakfast the next morning, we stood at the hostess desk for 5 or more minutes before anyone appeared.  We were seated and I asked for coffee and water, but I got coffee and juice.  I ordered off the menu rather than getting the buffet and it took over 30 minutes to get bacon and eggs and that only happened after we went back to the kitchen because none of the waiters came by to even check on us.  Again, we were 4 of less than a dozen people there.  Our friends came downstairs after us, and one of them ordered a side of fruit.  Same thing happened and she was then charged for a buffet which she didn’t eat.  Customer service training and management is desperately needed.  Nice people, but poorly trained, poorly supervised and in need of immediate management if this place is going to survive.MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here one night with another couple when we were going to a concert at Microsoft Theater.  From the moment we walked through the door, I was disappointed purely from a customer service standpoint.  The hotel itself was beautiful, but it’s all downhill from there.  The women’s bathroom in the lobby smelled horrible - like something had died there.  I used that bathroom three different times and it was the same each time on two different days.  
+When we entered the hotel, there were three people at the front desk and no one acknowledged our friends to even make eye contact or welcome them to the hotel.  We went to the bar for drinks, and even though the bartender was very nice, he forgot our drinks until we reminded him - and that happened twice.  We were 4 of only 6 in the bar at the time.  At breakfast the next morning, we stood at the hostess desk for 5 or more minutes before anyone appeared.  We were seated and I asked for coffee and water, but I got coffee and juice.  I ordered off the menu rather than getting the buffet and it took over 30 minutes to get bacon and eggs and that only happened after we went back to the kitchen because none of the waiters came by to even check on us.  Again, we were 4 of less than a dozen people...My husband and I stayed here one night with another couple when we were going to a concert at Microsoft Theater.  From the moment we walked through the door, I was disappointed purely from a customer service standpoint.  The hotel itself was beautiful, but it’s all downhill from there.  The women’s bathroom in the lobby smelled horrible - like something had died there.  I used that bathroom three different times and it was the same each time on two different days.  When we entered the hotel, there were three people at the front desk and no one acknowledged our friends to even make eye contact or welcome them to the hotel.  We went to the bar for drinks, and even though the bartender was very nice, he forgot our drinks until we reminded him - and that happened twice.  We were 4 of only 6 in the bar at the time.  At breakfast the next morning, we stood at the hostess desk for 5 or more minutes before anyone appeared.  We were seated and I asked for coffee and water, but I got coffee and juice.  I ordered off the menu rather than getting the buffet and it took over 30 minutes to get bacon and eggs and that only happened after we went back to the kitchen because none of the waiters came by to even check on us.  Again, we were 4 of less than a dozen people there.  Our friends came downstairs after us, and one of them ordered a side of fruit.  Same thing happened and she was then charged for a buffet which she didn’t eat.  Customer service training and management is desperately needed.  Nice people, but poorly trained, poorly supervised and in need of immediate management if this place is going to survive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r555565930-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>555565930</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>2 Wedding functions and Hotel stay</t>
+  </si>
+  <si>
+    <t>In mid December Hotel Indigo hosted 2 events for my sons wedding. A Friday night Rehearsal sit down dinner for 65 people with a set menu and the most delicious dinner and a Sunday Brunch in the Metropole Kitchen which was wonderful too Each and every step of the way the people I worked with we're extremely helpful cooperative and helped to make this a most memorable eventOla was fantastic in helping suggesting and organizing everything making sure that each detail was taken care of. She was very easy to work withJessica and her team with Zac organized a fantastic Rehearsal dinner . Nothing was too much for them including last minute montage arrangements!The Hotel staff were wonderful checking us in and distributing our welcome packages as guests checked in including Ruben. We chose Hotel Indigo as the Hotel for all our guests to stay for the wedding. Evertybody loved staying there and it's proximity to so many downtown places to see and enjoy. Thank you to all the staff and employees who made our wedding weekend so memorable ! We look forward to returning to stay again in the near future and defin ately highly recommend it for events and accommodationMoreShow less</t>
+  </si>
+  <si>
+    <t>In mid December Hotel Indigo hosted 2 events for my sons wedding. A Friday night Rehearsal sit down dinner for 65 people with a set menu and the most delicious dinner and a Sunday Brunch in the Metropole Kitchen which was wonderful too Each and every step of the way the people I worked with we're extremely helpful cooperative and helped to make this a most memorable eventOla was fantastic in helping suggesting and organizing everything making sure that each detail was taken care of. She was very easy to work withJessica and her team with Zac organized a fantastic Rehearsal dinner . Nothing was too much for them including last minute montage arrangements!The Hotel staff were wonderful checking us in and distributing our welcome packages as guests checked in including Ruben. We chose Hotel Indigo as the Hotel for all our guests to stay for the wedding. Evertybody loved staying there and it's proximity to so many downtown places to see and enjoy. Thank you to all the staff and employees who made our wedding weekend so memorable ! We look forward to returning to stay again in the near future and defin ately highly recommend it for events and accommodationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r555392980-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>555392980</t>
+  </si>
+  <si>
+    <t>Lots of Luxury in DTLA</t>
+  </si>
+  <si>
+    <t>Some friends and I were attending a sponsored pool party event on their pool and deck and we booked a room for the night. The room was cute and the beds were very comfortable. Love the farm-style door to the bathroom and the glass shower. This was a fun stay and I would definitely come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Some friends and I were attending a sponsored pool party event on their pool and deck and we booked a room for the night. The room was cute and the beds were very comfortable. Love the farm-style door to the bathroom and the glass shower. This was a fun stay and I would definitely come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r555282821-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>555282821</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>LA Live at your feet</t>
+  </si>
+  <si>
+    <t>Brand New Indigo is a perfect spot for business or pleasure . The price point was better than I expected and the lobby , room and 18th floor bar we’re all well appointed and upper tier. I chuckle to myself that only in LA would I see Gerard Butler walking the Red Carpet a few blocks from this hotel to actually watching Khalid filming a music video at Hotel Indigo ! After dinner options at either Wolfgang Pucks at the Ritz or any of the other great dining at LA Live it’s a must to journey up to the 18th floor to have a night cap at Hotel Indigo. The living room type layout with Staples Center and LA Live at your feet made for a great spot to enjoy a drink ! Book this hotel before the rates escalate and the word gets out !MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Brand New Indigo is a perfect spot for business or pleasure . The price point was better than I expected and the lobby , room and 18th floor bar we’re all well appointed and upper tier. I chuckle to myself that only in LA would I see Gerard Butler walking the Red Carpet a few blocks from this hotel to actually watching Khalid filming a music video at Hotel Indigo ! After dinner options at either Wolfgang Pucks at the Ritz or any of the other great dining at LA Live it’s a must to journey up to the 18th floor to have a night cap at Hotel Indigo. The living room type layout with Staples Center and LA Live at your feet made for a great spot to enjoy a drink ! Book this hotel before the rates escalate and the word gets out !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r551383536-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>551383536</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>LA Stay</t>
+  </si>
+  <si>
+    <t>After travelling for five weeks we spent our last three days at the Indigo before back home.Generally the stay was ok. Location is good, close to the Staples centre, restaurants and metro. Areas of improvement include the breakfast set up and coffee service. Never got a hot coffee and the breakfast is a compromised set up. A 350 room hotel and that tiny restaurant are always going to struggle at breakfast. The rooms are ok but water pressure in the showers was terrible, seems to be a common issue.Staff were pretty good all around.MoreShow less</t>
+  </si>
+  <si>
+    <t>Emma J, Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>After travelling for five weeks we spent our last three days at the Indigo before back home.Generally the stay was ok. Location is good, close to the Staples centre, restaurants and metro. Areas of improvement include the breakfast set up and coffee service. Never got a hot coffee and the breakfast is a compromised set up. A 350 room hotel and that tiny restaurant are always going to struggle at breakfast. The rooms are ok but water pressure in the showers was terrible, seems to be a common issue.Staff were pretty good all around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r550778130-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>550778130</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Rose Bowl Hotel flop</t>
+  </si>
+  <si>
+    <t>Horrible service.   Water pressure in rooms terrible.  Food room service minor league (cold or just no delivery).  Pitiful experience.  Management does not show enough interest to help cure problems.   Never giving this IMG Ambassador program another opportunity. MoreShow less</t>
+  </si>
+  <si>
+    <t>Horrible service.   Water pressure in rooms terrible.  Food room service minor league (cold or just no delivery).  Pitiful experience.  Management does not show enough interest to help cure problems.   Never giving this IMG Ambassador program another opportunity. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r550776470-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>550776470</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not prepared</t>
+  </si>
+  <si>
+    <t>We booked a package deal for the Rose Bowl with many people staying at the hotel. They were clearly not prepared for the number of guests despite knowing a big group reserved. Check in took an hour and even though several hundred guests were booked for the Rose Bowl they didn’t anticipate a crowd for dinner after the game and only had one waitress at the restaurant. Took 1.5 hours to get our food. MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked a package deal for the Rose Bowl with many people staying at the hotel. They were clearly not prepared for the number of guests despite knowing a big group reserved. Check in took an hour and even though several hundred guests were booked for the Rose Bowl they didn’t anticipate a crowd for dinner after the game and only had one waitress at the restaurant. Took 1.5 hours to get our food. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r549825248-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>549825248</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay. </t>
+  </si>
+  <si>
+    <t>I read reviews and had a subdued view but I was pleasantly surprised by the staff and the room. Check in staff at 8PM on 12/27/17 went above and beyond anything I expected. She asked how I was I said "exhausted" (wife hates how honest I can be sometimes).  Front desk person offered a late checkout without me even mentioning it.  Thank goodness. I even signed up for the rewards program. We were on the 18th floor, no noise from rooms above.  We loved the room so much that we didn't want to leave. Typical room, yes but it's the little things that stood out. Like motion sensor ambient lighting whenever we got out of bed, or the bathroom sliding door that had a coushioned close feature so you couldn't slam it.  Or maybe the fantastic rain style shower heads with handheld capability. Or maybe the soft-close toilet. Or the USB charge ports at the head of the bed. Gripes are few: comedy central was spotty on the TV and I hit my shin on the bedfrane 3 times. But don't let that ruin it for you. I am clumsy. View was OK but we loved it. MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>I read reviews and had a subdued view but I was pleasantly surprised by the staff and the room. Check in staff at 8PM on 12/27/17 went above and beyond anything I expected. She asked how I was I said "exhausted" (wife hates how honest I can be sometimes).  Front desk person offered a late checkout without me even mentioning it.  Thank goodness. I even signed up for the rewards program. We were on the 18th floor, no noise from rooms above.  We loved the room so much that we didn't want to leave. Typical room, yes but it's the little things that stood out. Like motion sensor ambient lighting whenever we got out of bed, or the bathroom sliding door that had a coushioned close feature so you couldn't slam it.  Or maybe the fantastic rain style shower heads with handheld capability. Or maybe the soft-close toilet. Or the USB charge ports at the head of the bed. Gripes are few: comedy central was spotty on the TV and I hit my shin on the bedfrane 3 times. But don't let that ruin it for you. I am clumsy. View was OK but we loved it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r549759531-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>549759531</t>
+  </si>
+  <si>
+    <t>Stunning hotel - Staples Center location</t>
+  </si>
+  <si>
+    <t>Wow!  What a beautiful hotel this is.  Our room was on the 18th floor overlooking the Staples Center.   We came for the basketball and couldn’t have been happier with the location, literally a 2 minute stroll away.  The interior decor of this hotel is so carefully thought out - rooms and public areas are just beautiful.  Great value for money with a la carte breakfast included for the 4 of us in the restaurant.Our room had 2 big Queen size beds, huge bathroom, fantastic coffee pod machine, super quite air conditioner, window that opened, floorboards, Johnathan Adler amenities.The pool area was great, the pool was warm there was ping-pong, foosballl, hacky sack, and a fire pit.The ‘Social’ bar on level 18 was fun with incredible views of LA.Love this hotel, will be recommending it to everyone - thanks for a great stay.  A special shout out to Alfretz on the front desk for going over and above to sort my IHG membership out.Negatives - hotel still feels very new and perhaps lacks a little soul.  Bathroom could do with a ‘daylight’ lighting option - but that’s all!MoreShow less</t>
+  </si>
+  <si>
+    <t>Wow!  What a beautiful hotel this is.  Our room was on the 18th floor overlooking the Staples Center.   We came for the basketball and couldn’t have been happier with the location, literally a 2 minute stroll away.  The interior decor of this hotel is so carefully thought out - rooms and public areas are just beautiful.  Great value for money with a la carte breakfast included for the 4 of us in the restaurant.Our room had 2 big Queen size beds, huge bathroom, fantastic coffee pod machine, super quite air conditioner, window that opened, floorboards, Johnathan Adler amenities.The pool area was great, the pool was warm there was ping-pong, foosballl, hacky sack, and a fire pit.The ‘Social’ bar on level 18 was fun with incredible views of LA.Love this hotel, will be recommending it to everyone - thanks for a great stay.  A special shout out to Alfretz on the front desk for going over and above to sort my IHG membership out.Negatives - hotel still feels very new and perhaps lacks a little soul.  Bathroom could do with a ‘daylight’ lighting option - but that’s all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r549747835-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>549747835</t>
+  </si>
+  <si>
+    <t>Love love love!</t>
+  </si>
+  <si>
+    <t>This hotel is sooo beautiful and the location is perfect! So many things are within walking distance so it makes it easy to try new restaurants and bars, Our favorite part was Ruben! He helped us bring our bags up and was so accommodating and genuinely wanted us to enjoy our stay! Definitely will be staying here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is sooo beautiful and the location is perfect! So many things are within walking distance so it makes it easy to try new restaurants and bars, Our favorite part was Ruben! He helped us bring our bags up and was so accommodating and genuinely wanted us to enjoy our stay! Definitely will be staying here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r543231889-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>543231889</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business </t>
+  </si>
+  <si>
+    <t>I normally stay in hotels outside of the busy city of Los Angeles but since my business trip had me working in the downtown area this Hotel was a warm welcoming surprise. The nearby restaurants galore, shopping, and many close things to venture to was a wonderful surprise. The hotel itself has a fresh &amp; modern feel about it. It was great to use many of their amenities and literally stay in after a long day at the office!!! I thoroughly enjoyed my stay &amp; will be back on my next trip to Los Angeles, CA.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office  at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>I normally stay in hotels outside of the busy city of Los Angeles but since my business trip had me working in the downtown area this Hotel was a warm welcoming surprise. The nearby restaurants galore, shopping, and many close things to venture to was a wonderful surprise. The hotel itself has a fresh &amp; modern feel about it. It was great to use many of their amenities and literally stay in after a long day at the office!!! I thoroughly enjoyed my stay &amp; will be back on my next trip to Los Angeles, CA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r543022904-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>543022904</t>
+  </si>
+  <si>
+    <t>11/24/2017</t>
+  </si>
+  <si>
+    <t>Great hotel in a great location...</t>
+  </si>
+  <si>
+    <t>We recently stayed at the Indigo Los Angeles Downtown Hotel for a long weekend. The location of the hotel was excellent, right in the middle of downtown within easy walking distance of LA Live, the Staples Center and other downtown attractions. The hotel was very clean, the staff was very friendly and accommodating. Overall a great experience. I can highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>We recently stayed at the Indigo Los Angeles Downtown Hotel for a long weekend. The location of the hotel was excellent, right in the middle of downtown within easy walking distance of LA Live, the Staples Center and other downtown attractions. The hotel was very clean, the staff was very friendly and accommodating. Overall a great experience. I can highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r542753607-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>542753607</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>Already have lovely property but Only Staff that need to be more welcome.</t>
+  </si>
+  <si>
+    <t>I like :
+- New, I gave them 6 stars for the room with the superb bed. (2 queen sizes) The shower room is huge than I can imagine for business hotel . 
+- Great location in downtown , my last night stay I found my luggage broken and I ran to nearest Target alone at 10.40pm , it may dark and look scary but I was completely safe.
+- Lovely Breakfast ; our room package include 30$ credit  / person for  a la carte or buffet (25$ each)
+- After 24 hours of 2 flights include 7 hours transit we arrive hotel around 11.30am , I really appreciated front office allow us to check in 12.30pm however the guy who check in for us  seem unfriendly he not informs us about breakfast or hotel amenities
+- Bellman “Nelson” and young doorman seem to be the most friendly with great service .
+- We have only 3 nights in LA and not have much time for shopping , we order something online and arrive hotel a couple days before check in. I appreciated Mr.Alfrez for this courier arrangement we got them  
+What hotel can improve?
+-Front office / reception are cold. They never have smile. I knew you are chic boutique hotel but nothing wrong if you smile and non verbal language mean you smile not only lips but eyes if it 's from inside. (Only one front office guy...I like :- New, I gave them 6 stars for the room with the superb bed. (2 queen sizes) The shower room is huge than I can imagine for business hotel . - Great location in downtown , my last night stay I found my luggage broken and I ran to nearest Target alone at 10.40pm , it may dark and look scary but I was completely safe.- Lovely Breakfast ; our room package include 30$ credit  / person for  a la carte or buffet (25$ each)- After 24 hours of 2 flights include 7 hours transit we arrive hotel around 11.30am , I really appreciated front office allow us to check in 12.30pm however the guy who check in for us  seem unfriendly he not informs us about breakfast or hotel amenities- Bellman “Nelson” and young doorman seem to be the most friendly with great service .- We have only 3 nights in LA and not have much time for shopping , we order something online and arrive hotel a couple days before check in. I appreciated Mr.Alfrez for this courier arrangement we got them  What hotel can improve?-Front office / reception are cold. They never have smile. I knew you are chic boutique hotel but nothing wrong if you smile and non verbal language mean you smile not only lips but eyes if it 's from inside. (Only one front office guy I met on Sunday morning seem friendly and he is kind enough to print map of nearest FedEx.)-I was informed by waiter at the restaurant that room package include choice of breakfast either 30$ per person credit or buffet . We took a la cart twice but on the check out day ,we took buffet becoz it’s 6.30 am and driver was already there waiting to take us to airport by 7am. What I got when I back home is . They charge me buffet for 2. I send mail and still wait for answer of this issue, hope it's just misunderstood.-Bar on 18 Social is small but lovely , bartender is cold and very arrogant. I almost give up to order and back to room. We regret that we are unable to see the pool I think it must be a lovely spot. Our room is 0616 view is not bad .MoreShow less</t>
+  </si>
+  <si>
+    <t>I like :
+- New, I gave them 6 stars for the room with the superb bed. (2 queen sizes) The shower room is huge than I can imagine for business hotel . 
+- Great location in downtown , my last night stay I found my luggage broken and I ran to nearest Target alone at 10.40pm , it may dark and look scary but I was completely safe.
+- Lovely Breakfast ; our room package include 30$ credit  / person for  a la carte or buffet (25$ each)
+- After 24 hours of 2 flights include 7 hours transit we arrive hotel around 11.30am , I really appreciated front office allow us to check in 12.30pm however the guy who check in for us  seem unfriendly he not informs us about breakfast or hotel amenities
+- Bellman “Nelson” and young doorman seem to be the most friendly with great service .
+- We have only 3 nights in LA and not have much time for shopping , we order something online and arrive hotel a couple days before check in. I appreciated Mr.Alfrez for this courier arrangement we got them  
+What hotel can improve?
+-Front office / reception are cold. They never have smile. I knew you are chic boutique hotel but nothing wrong if you smile and non verbal language mean you smile not only lips but eyes if it 's from inside. (Only one front office guy...I like :- New, I gave them 6 stars for the room with the superb bed. (2 queen sizes) The shower room is huge than I can imagine for business hotel . - Great location in downtown , my last night stay I found my luggage broken and I ran to nearest Target alone at 10.40pm , it may dark and look scary but I was completely safe.- Lovely Breakfast ; our room package include 30$ credit  / person for  a la carte or buffet (25$ each)- After 24 hours of 2 flights include 7 hours transit we arrive hotel around 11.30am , I really appreciated front office allow us to check in 12.30pm however the guy who check in for us  seem unfriendly he not informs us about breakfast or hotel amenities- Bellman “Nelson” and young doorman seem to be the most friendly with great service .- We have only 3 nights in LA and not have much time for shopping , we order something online and arrive hotel a couple days before check in. I appreciated Mr.Alfrez for this courier arrangement we got them  What hotel can improve?-Front office / reception are cold. They never have smile. I knew you are chic boutique hotel but nothing wrong if you smile and non verbal language mean you smile not only lips but eyes if it 's from inside. (Only one front office guy I met on Sunday morning seem friendly and he is kind enough to print map of nearest FedEx.)-I was informed by waiter at the restaurant that room package include choice of breakfast either 30$ per person credit or buffet . We took a la cart twice but on the check out day ,we took buffet becoz it’s 6.30 am and driver was already there waiting to take us to airport by 7am. What I got when I back home is . They charge me buffet for 2. I send mail and still wait for answer of this issue, hope it's just misunderstood.-Bar on 18 Social is small but lovely , bartender is cold and very arrogant. I almost give up to order and back to room. We regret that we are unable to see the pool I think it must be a lovely spot. Our room is 0616 view is not bad .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r538308860-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>538308860</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>I'm surprised to see this Hotel ranked so low on TA.This is a new IHG property, centrally located in Downtown. The property is beautiful and found the service to be impeccable, even better than many Intercontinental properties I have stayed that.There was a long check-in line when I arrived at 3:30 PM. I believe it was the GM who apologized to everyone in line and handed out bottled waters.I found all staff members from valet to check-in clerks to be very friendly and inviting.As a Platinum member, I was upgraded to a King Corner Suite on the 15th floor. The room was very spacious and well distribuited, with amazing views.The bar area on the lobby was surprisinly good with great appetizers. I tried the beef weelington sliders and foie gras wontons and were excellent for a light snack.There are also multiple restaurants and a coffee shop within a few blocks. Overall a great hotel and will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm surprised to see this Hotel ranked so low on TA.This is a new IHG property, centrally located in Downtown. The property is beautiful and found the service to be impeccable, even better than many Intercontinental properties I have stayed that.There was a long check-in line when I arrived at 3:30 PM. I believe it was the GM who apologized to everyone in line and handed out bottled waters.I found all staff members from valet to check-in clerks to be very friendly and inviting.As a Platinum member, I was upgraded to a King Corner Suite on the 15th floor. The room was very spacious and well distribuited, with amazing views.The bar area on the lobby was surprisinly good with great appetizers. I tried the beef weelington sliders and foie gras wontons and were excellent for a light snack.There are also multiple restaurants and a coffee shop within a few blocks. Overall a great hotel and will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r536768958-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>536768958</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Not if you want to sleep</t>
+  </si>
+  <si>
+    <t>Had package delivered to front desk —told 3 times nothing arrived. Finally brought down tracking number from UPS and someone actually looked and found package. MOST IMPORTANTLY, LOUD dance party in pool area until 1:30 a.m. If you have any desire to sleep before then while visiting Los Angeles, pick another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Had package delivered to front desk —told 3 times nothing arrived. Finally brought down tracking number from UPS and someone actually looked and found package. MOST IMPORTANTLY, LOUD dance party in pool area until 1:30 a.m. If you have any desire to sleep before then while visiting Los Angeles, pick another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r535968340-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>535968340</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Can you say “Dirty”</t>
+  </si>
+  <si>
+    <t>I stayed here for a work conference. Checked in room dirty, called, cleaned, room still dirty, light bulb burnt out in rest room, too dark, called cleaned, still dirty no bulb. Finally 3rd day of 5 day stay cleaned. No offer to compensate except a brownie, fruit and water left in room. Manager won’t return call!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for a work conference. Checked in room dirty, called, cleaned, room still dirty, light bulb burnt out in rest room, too dark, called cleaned, still dirty no bulb. Finally 3rd day of 5 day stay cleaned. No offer to compensate except a brownie, fruit and water left in room. Manager won’t return call!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r533586581-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>533586581</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Amazing new hotel</t>
+  </si>
+  <si>
+    <t>The room was new spacious clean and comfortable. We stayed in a double queen room. The beds were so comfy with comfy comforters and 4 pillows each. The water pressure in the shower was amazing and got warm fast. We stayed here 4 nights here and the only complaint I had was the price of the valet. I felt it was too expensive. There is cheaper parking nearby but we didn't have my husband with us and I didn't feel safe dragging the kids by myself.We also ate buffet breakfast Saturday am and it was very good and had some bar bites one night also good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2017</t>
+  </si>
+  <si>
+    <t>The room was new spacious clean and comfortable. We stayed in a double queen room. The beds were so comfy with comfy comforters and 4 pillows each. The water pressure in the shower was amazing and got warm fast. We stayed here 4 nights here and the only complaint I had was the price of the valet. I felt it was too expensive. There is cheaper parking nearby but we didn't have my husband with us and I didn't feel safe dragging the kids by myself.We also ate buffet breakfast Saturday am and it was very good and had some bar bites one night also good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r533468950-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>533468950</t>
+  </si>
+  <si>
+    <t>Beautiful. Urban. Perfect Location for DTLA.</t>
+  </si>
+  <si>
+    <t>We went to a LA Lakers game and stayed for one night. Friendly staff, very clean and spacious rooms. Stylish bar. We loved it and would return anytime. If you don't want to pay the valet parking, there is more affordable parking lots very close to the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>We went to a LA Lakers game and stayed for one night. Friendly staff, very clean and spacious rooms. Stylish bar. We loved it and would return anytime. If you don't want to pay the valet parking, there is more affordable parking lots very close to the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r533427851-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>533427851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel convenient to downtown attractions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My room was on an upper floor, sunny and with a great view of the downtown skyscrapers. I loved all the little design details. The bed was comfortable and the WiFi lightning fast. The hotel is an easy walk from restaurants and attractions such as the Grammy museum and the convention center. The restaurant was not bad but the service was very slow, despite the fact that there were very few patrons. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r531541401-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>531541401</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Great Service / Over rated costs</t>
+  </si>
+  <si>
+    <t>Hotel location is very good.Rooms not the best but confortables and clean , I mean if you are paying 300USD at least you expect above normal.Parking is 46 USD night, you can leave your car 1 block away in a parking lot for 10 USD.Food is taste average but expensive. E.g. buffet for breakfast with eggs, french toasts, some bread and cereals 27 USD.Social lounge is great. Amaizing view!Service is more than great, all the personel is awesome.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office  at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Hotel location is very good.Rooms not the best but confortables and clean , I mean if you are paying 300USD at least you expect above normal.Parking is 46 USD night, you can leave your car 1 block away in a parking lot for 10 USD.Food is taste average but expensive. E.g. buffet for breakfast with eggs, french toasts, some bread and cereals 27 USD.Social lounge is great. Amaizing view!Service is more than great, all the personel is awesome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r531217162-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>531217162</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Business Trip - Loved the hotel</t>
+  </si>
+  <si>
+    <t>Very nice room, it was clean and set up well.  We had really good food during our meetings.  The staff was very attentive. Seemed like all of our attendees enjoyed themselves and we got great feedback from the group.  Overall great experience!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office  at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Very nice room, it was clean and set up well.  We had really good food during our meetings.  The staff was very attentive. Seemed like all of our attendees enjoyed themselves and we got great feedback from the group.  Overall great experience!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r530898076-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>530898076</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved the Hotel Indigo downtown Los Angeles.  Staff was very friendly and helpful.  Hotel is new and very well done in a modern vibe.  Our room was fabulous, clean with great views and beautiful space and appointments.  Lovely bathroom.  Enjoyed our visit so much that when my wife returned to Los Angeles two months later, she stayed there again.  This will be our go to hotel for visiting our daughter at USC.  </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r529150298-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>529150298</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Our holiday to LA</t>
+  </si>
+  <si>
+    <t>This hotel is absolutely fantastic from the room to the service and the location breath taking views the room was fabulous the service at breakfast was excellent the staff were super.Would highly recommend this hotel if you want class then this is the hotel for youMoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is absolutely fantastic from the room to the service and the location breath taking views the room was fabulous the service at breakfast was excellent the staff were super.Would highly recommend this hotel if you want class then this is the hotel for youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r528389333-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>528389333</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>Great location for LA Live</t>
+  </si>
+  <si>
+    <t>I booked this hotel because of its location and was not disappointed. This hotel is within a couple blocks of LA Live, a block from the Pantry, and a 10 minute walk to the 7th Street Metro stop. The hotel itself is nice and the staff is friendly. The room was quiet and I appreciated that the window in the room could open for fresh air. The Jonathan Adler toiletries were great. The bed was very comfortable. I would definitely stay here again.  The hotel was busy when I was there and the reception desk was always crowded with people waiting to check-in every time I passed it. I did have to wait about 10 minutes to check-in, but I wasn't in a hurry so it was okay.   Just a few notes: the room I was in did not have carpet, which may or may not be true for all the rooms. Had I known I would have brought slippers with me. Not a big deal though. Also there wasn't a do not disturb sign in my room or a room service menu. Not sure if this is the case with all the rooms though.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>I booked this hotel because of its location and was not disappointed. This hotel is within a couple blocks of LA Live, a block from the Pantry, and a 10 minute walk to the 7th Street Metro stop. The hotel itself is nice and the staff is friendly. The room was quiet and I appreciated that the window in the room could open for fresh air. The Jonathan Adler toiletries were great. The bed was very comfortable. I would definitely stay here again.  The hotel was busy when I was there and the reception desk was always crowded with people waiting to check-in every time I passed it. I did have to wait about 10 minutes to check-in, but I wasn't in a hurry so it was okay.   Just a few notes: the room I was in did not have carpet, which may or may not be true for all the rooms. Had I known I would have brought slippers with me. Not a big deal though. Also there wasn't a do not disturb sign in my room or a room service menu. Not sure if this is the case with all the rooms though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r528287254-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>528287254</t>
+  </si>
+  <si>
+    <t>Cool venue, excellent service!</t>
+  </si>
+  <si>
+    <t>I stayed and had meetings here recently and from arrival to departure the experience was top-notch. First of all it is a very cool and unique hotel and the attention to detail and design create a great atmosphere. The sleeping room was great, meeting space was conducive to a productive program, and the restaurant did not disappoint. Perhaps most importantly the service was excellent all around. Very friendly and knowledgeable staff.  I would highly recommend the Hotel Indigo for business or pleasure if you are looking to stay in downtown L.A.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed and had meetings here recently and from arrival to departure the experience was top-notch. First of all it is a very cool and unique hotel and the attention to detail and design create a great atmosphere. The sleeping room was great, meeting space was conducive to a productive program, and the restaurant did not disappoint. Perhaps most importantly the service was excellent all around. Very friendly and knowledgeable staff.  I would highly recommend the Hotel Indigo for business or pleasure if you are looking to stay in downtown L.A.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r528149205-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>528149205</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Great service, fun and creative feel.  Meeting rooms were perfect for our group</t>
+  </si>
+  <si>
+    <t>I was greeted at arrival by Nelson who took excellent care in leading me thru the check-in and up to my room.  The hotel is full of natural light and the meeting rooms are perfectly located when coming from my guest room.  I had a caesar salad with bacon for lunch in the restaurant which was very good and the bread was served with crafted butter flavors which was unique and hit the spot.  Thank you, will be back!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was greeted at arrival by Nelson who took excellent care in leading me thru the check-in and up to my room.  The hotel is full of natural light and the meeting rooms are perfectly located when coming from my guest room.  I had a caesar salad with bacon for lunch in the restaurant which was very good and the bread was served with crafted butter flavors which was unique and hit the spot.  Thank you, will be back!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r527885711-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>527885711</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>I was very excited to stay at this new hotel. My expectations were definitely met once we arrived. I did not meet one single employee that had anything less than a smile while offering great service and recommendations.  We reserved 2 rooms for our girls trip. We arrived a little early and opted to pay the $45 early check in fee for one of the rooms to get changed for the day ahead. I never knew this was an option but it was definitely appreciated. Our room was beautiful and had a great 10th floor view of the Staples Center as well as LA Live. 2 minor issues with the room was the clicking of the air conditioner throughout the night which made it a little difficult to sleep and the water pressure of the shower was like taking a bath with a power washer. It was literally painful. Our friends in the other suite did not have the same water issue so I think it was unique to our room. I did mention this upon checking out so I'm sure it has been resolved by now. All in all a wonderful stay and I will most definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded September 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>I was very excited to stay at this new hotel. My expectations were definitely met once we arrived. I did not meet one single employee that had anything less than a smile while offering great service and recommendations.  We reserved 2 rooms for our girls trip. We arrived a little early and opted to pay the $45 early check in fee for one of the rooms to get changed for the day ahead. I never knew this was an option but it was definitely appreciated. Our room was beautiful and had a great 10th floor view of the Staples Center as well as LA Live. 2 minor issues with the room was the clicking of the air conditioner throughout the night which made it a little difficult to sleep and the water pressure of the shower was like taking a bath with a power washer. It was literally painful. Our friends in the other suite did not have the same water issue so I think it was unique to our room. I did mention this upon checking out so I'm sure it has been resolved by now. All in all a wonderful stay and I will most definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r526411045-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>526411045</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is amazing </t>
+  </si>
+  <si>
+    <t>First the valet parking service is so great. Tony was really helpful and had great customer service he was great ask for Tony in valet. The rooms are amazing as well the food they have there is amazing as well MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front of Office  at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded September 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2017</t>
+  </si>
+  <si>
+    <t>First the valet parking service is so great. Tony was really helpful and had great customer service he was great ask for Tony in valet. The rooms are amazing as well the food they have there is amazing as well More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r524744755-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>524744755</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>Attentive and fresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a great place! Conveniently located with easy access to restaurants and the downtown scene. Although no guarantee for pet free rooms, I was grateful to experience the newness of fresh smells and clean furniture. Staff was fantastic. Jordan, the bellhop, was attentive, organized and efficient. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r523185746-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>523185746</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>Gen in Downtown</t>
+  </si>
+  <si>
+    <t>Very nice hotel Downtown, within easy walking distance of the Staples Center. The staff are very friendly &amp; helpful. The rooms are very comfortable, although it was a bit of a struggle to keep the temperature constant.Overall, highly recommended for a Downtown location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel Downtown, within easy walking distance of the Staples Center. The staff are very friendly &amp; helpful. The rooms are very comfortable, although it was a bit of a struggle to keep the temperature constant.Overall, highly recommended for a Downtown location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r522112174-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>522112174</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>(Almost) Perfect</t>
+  </si>
+  <si>
+    <t>I visit LA regularly however I usually always stay in Santa Monica or Hollywood and this was my first time staying in downtown LA in over a decade! First things first, the location is super - downtown LA has transformed and it's obvious money is being invested on it! The hotel is close to all the major transport links and a short walk from the vibrant bars and restaurants DTLA had to offer.
+The hotel itself is stunning - beautiful building, perfectly decorated and still manages to keep that unique Indigo feel to it which is what makes Hotel Indigo my personal favourite IHG brand. The reception and bar are welcoming and the restaurant serves up a fantastic breakfast. The rooms are spacious and comfortable and the bar up on the 18th floor is definitely somewhere to visit for a cocktail! 
+One of my new favourite hotels. The only negatives for me were A) the coffee (worst I'd had in LA; I expected a decent barista style coffee but what I received was terrible - same for my partner). B) the staff - some were amazing, including the receptionist at check in who was super nice and helpful. Others were complete opposite - one of the bar staff looked like she wanted to be anywhere else other than work and one of the receptionists was really unhelpful when I asked for local recommendations - she had an attitude and didn't...I visit LA regularly however I usually always stay in Santa Monica or Hollywood and this was my first time staying in downtown LA in over a decade! First things first, the location is super - downtown LA has transformed and it's obvious money is being invested on it! The hotel is close to all the major transport links and a short walk from the vibrant bars and restaurants DTLA had to offer.The hotel itself is stunning - beautiful building, perfectly decorated and still manages to keep that unique Indigo feel to it which is what makes Hotel Indigo my personal favourite IHG brand. The reception and bar are welcoming and the restaurant serves up a fantastic breakfast. The rooms are spacious and comfortable and the bar up on the 18th floor is definitely somewhere to visit for a cocktail! One of my new favourite hotels. The only negatives for me were A) the coffee (worst I'd had in LA; I expected a decent barista style coffee but what I received was terrible - same for my partner). B) the staff - some were amazing, including the receptionist at check in who was super nice and helpful. Others were complete opposite - one of the bar staff looked like she wanted to be anywhere else other than work and one of the receptionists was really unhelpful when I asked for local recommendations - she had an attitude and didn't want to help.So all in all pretty perfect!MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2017</t>
+  </si>
+  <si>
+    <t>I visit LA regularly however I usually always stay in Santa Monica or Hollywood and this was my first time staying in downtown LA in over a decade! First things first, the location is super - downtown LA has transformed and it's obvious money is being invested on it! The hotel is close to all the major transport links and a short walk from the vibrant bars and restaurants DTLA had to offer.
+The hotel itself is stunning - beautiful building, perfectly decorated and still manages to keep that unique Indigo feel to it which is what makes Hotel Indigo my personal favourite IHG brand. The reception and bar are welcoming and the restaurant serves up a fantastic breakfast. The rooms are spacious and comfortable and the bar up on the 18th floor is definitely somewhere to visit for a cocktail! 
+One of my new favourite hotels. The only negatives for me were A) the coffee (worst I'd had in LA; I expected a decent barista style coffee but what I received was terrible - same for my partner). B) the staff - some were amazing, including the receptionist at check in who was super nice and helpful. Others were complete opposite - one of the bar staff looked like she wanted to be anywhere else other than work and one of the receptionists was really unhelpful when I asked for local recommendations - she had an attitude and didn't...I visit LA regularly however I usually always stay in Santa Monica or Hollywood and this was my first time staying in downtown LA in over a decade! First things first, the location is super - downtown LA has transformed and it's obvious money is being invested on it! The hotel is close to all the major transport links and a short walk from the vibrant bars and restaurants DTLA had to offer.The hotel itself is stunning - beautiful building, perfectly decorated and still manages to keep that unique Indigo feel to it which is what makes Hotel Indigo my personal favourite IHG brand. The reception and bar are welcoming and the restaurant serves up a fantastic breakfast. The rooms are spacious and comfortable and the bar up on the 18th floor is definitely somewhere to visit for a cocktail! One of my new favourite hotels. The only negatives for me were A) the coffee (worst I'd had in LA; I expected a decent barista style coffee but what I received was terrible - same for my partner). B) the staff - some were amazing, including the receptionist at check in who was super nice and helpful. Others were complete opposite - one of the bar staff looked like she wanted to be anywhere else other than work and one of the receptionists was really unhelpful when I asked for local recommendations - she had an attitude and didn't want to help.So all in all pretty perfect!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r521568546-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>521568546</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>A few kinks in stay...</t>
+  </si>
+  <si>
+    <t>I had heard so many great reviews on this hotel from many friends who've stayed here previously, plus based on all the stellar reviews- I thought this has definitely got to be where I need to spend my Labor Day weekend!  The valet staff was very friendly and on point, and as soon as I walked into the lobby, was blown away at how gorgeous it was! Beautiful decor, bar, and restaurant which was located far right inside the same level as lobby.  
+Now this is where things begin to turn fuzzy...the front desk staff seemed peppy and genuinely happy to be there; however, I ended up checking in with a seemingly irritated front desk female clerk.  She was only concerned with getting through the check-in process as fast as she could, wasn't very friendly, and failed to mention any further information standard to a check-in process (i.e how much deposit/ incidentals were, valet parking costs, etc.) She was also careless and seemed annoyed that I had reserved the room using a Travelzoo voucher and actually ended up giving us drink vouchers with the word "SAMPLE" written on the back.  When I went to go redeem them at the bar Social 18, one of the bartenders made me feel like a criminal for even having them.  He told me he couldn't redeem them because the word sample was on the back and asked which room I was staying in.  Still...I had heard so many great reviews on this hotel from many friends who've stayed here previously, plus based on all the stellar reviews- I thought this has definitely got to be where I need to spend my Labor Day weekend!  The valet staff was very friendly and on point, and as soon as I walked into the lobby, was blown away at how gorgeous it was! Beautiful decor, bar, and restaurant which was located far right inside the same level as lobby.  Now this is where things begin to turn fuzzy...the front desk staff seemed peppy and genuinely happy to be there; however, I ended up checking in with a seemingly irritated front desk female clerk.  She was only concerned with getting through the check-in process as fast as she could, wasn't very friendly, and failed to mention any further information standard to a check-in process (i.e how much deposit/ incidentals were, valet parking costs, etc.) She was also careless and seemed annoyed that I had reserved the room using a Travelzoo voucher and actually ended up giving us drink vouchers with the word "SAMPLE" written on the back.  When I went to go redeem them at the bar Social 18, one of the bartenders made me feel like a criminal for even having them.  He told me he couldn't redeem them because the word sample was on the back and asked which room I was staying in.  Still not satisfied, I had to wait while he called the front desk downstairs to check and verify.  That process took long and during that time, I even told him that the girl that checked me in and whom gave me the vouchers was working downstairs still at that time, and he could verify directly with her as needed.  This inconvenience was really upsetting to me since it was HER responsibility to do her job correctly.  Additionally, she gave me a room right next to the elevator and one which faced the empty tower in the process of being built without informing me of the location.  If given the choice, I would have asked for an alternate room. The next day, I got an evil eye from that same bartender but downstairs at the lobby bar.  Seriously, was this even necessary? Everyone else that I had the pleasure of interacting with at the front desk was beyond polite, helpful, and amazing, and it's a shame really that this girl doesn't know basics, and is a weak link to everyone else.About the food in the hotel restaurant, Metropole, is stellar- although service can be slow.  The food is so delicious, it's worth the wait though!  The pool is also amazing, clean, and there are fun games including corn hole that you can play too!  The valet and bellhop staff are also delightful, and overall I recommend this chic hotel.  Definitely reminds me of the Cosmo and SLS in Vegas.  Modern, hip, and sleek.  It's a rather new hotel though, so some of the staff needs to get retrained on their customer service.  Those little kinks definitely put a damper on what otherwise would have been a stellar stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office  at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded September 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2017</t>
+  </si>
+  <si>
+    <t>I had heard so many great reviews on this hotel from many friends who've stayed here previously, plus based on all the stellar reviews- I thought this has definitely got to be where I need to spend my Labor Day weekend!  The valet staff was very friendly and on point, and as soon as I walked into the lobby, was blown away at how gorgeous it was! Beautiful decor, bar, and restaurant which was located far right inside the same level as lobby.  
+Now this is where things begin to turn fuzzy...the front desk staff seemed peppy and genuinely happy to be there; however, I ended up checking in with a seemingly irritated front desk female clerk.  She was only concerned with getting through the check-in process as fast as she could, wasn't very friendly, and failed to mention any further information standard to a check-in process (i.e how much deposit/ incidentals were, valet parking costs, etc.) She was also careless and seemed annoyed that I had reserved the room using a Travelzoo voucher and actually ended up giving us drink vouchers with the word "SAMPLE" written on the back.  When I went to go redeem them at the bar Social 18, one of the bartenders made me feel like a criminal for even having them.  He told me he couldn't redeem them because the word sample was on the back and asked which room I was staying in.  Still...I had heard so many great reviews on this hotel from many friends who've stayed here previously, plus based on all the stellar reviews- I thought this has definitely got to be where I need to spend my Labor Day weekend!  The valet staff was very friendly and on point, and as soon as I walked into the lobby, was blown away at how gorgeous it was! Beautiful decor, bar, and restaurant which was located far right inside the same level as lobby.  Now this is where things begin to turn fuzzy...the front desk staff seemed peppy and genuinely happy to be there; however, I ended up checking in with a seemingly irritated front desk female clerk.  She was only concerned with getting through the check-in process as fast as she could, wasn't very friendly, and failed to mention any further information standard to a check-in process (i.e how much deposit/ incidentals were, valet parking costs, etc.) She was also careless and seemed annoyed that I had reserved the room using a Travelzoo voucher and actually ended up giving us drink vouchers with the word "SAMPLE" written on the back.  When I went to go redeem them at the bar Social 18, one of the bartenders made me feel like a criminal for even having them.  He told me he couldn't redeem them because the word sample was on the back and asked which room I was staying in.  Still not satisfied, I had to wait while he called the front desk downstairs to check and verify.  That process took long and during that time, I even told him that the girl that checked me in and whom gave me the vouchers was working downstairs still at that time, and he could verify directly with her as needed.  This inconvenience was really upsetting to me since it was HER responsibility to do her job correctly.  Additionally, she gave me a room right next to the elevator and one which faced the empty tower in the process of being built without informing me of the location.  If given the choice, I would have asked for an alternate room. The next day, I got an evil eye from that same bartender but downstairs at the lobby bar.  Seriously, was this even necessary? Everyone else that I had the pleasure of interacting with at the front desk was beyond polite, helpful, and amazing, and it's a shame really that this girl doesn't know basics, and is a weak link to everyone else.About the food in the hotel restaurant, Metropole, is stellar- although service can be slow.  The food is so delicious, it's worth the wait though!  The pool is also amazing, clean, and there are fun games including corn hole that you can play too!  The valet and bellhop staff are also delightful, and overall I recommend this chic hotel.  Definitely reminds me of the Cosmo and SLS in Vegas.  Modern, hip, and sleek.  It's a rather new hotel though, so some of the staff needs to get retrained on their customer service.  Those little kinks definitely put a damper on what otherwise would have been a stellar stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r515647695-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>515647695</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel is the best and staff </t>
+  </si>
+  <si>
+    <t>Arrived in style and the valet service is neat and respectful shout out to victor Perez , he hooked me up about the city and the top floor the 18th the new lounge is amazing city views 360   Hotel is beautiful and very clean , housekeeping is phenomenal and the pool on 4th floor perfect will definitely come back here hands down MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Arrived in style and the valet service is neat and respectful shout out to victor Perez , he hooked me up about the city and the top floor the 18th the new lounge is amazing city views 360   Hotel is beautiful and very clean , housekeeping is phenomenal and the pool on 4th floor perfect will definitely come back here hands down More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r514052961-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>514052961</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Weeks </t>
+  </si>
+  <si>
+    <t>This is an incredible property. Everything from the room to the valet was dialed in at a 10. Special mention to Robert on the 18th floor lounge - one of the best bartenders I have ever come across. Valet is a little expensive and rate hunting is a little apparent as the property is only 4 months old. MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office  at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded August 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2017</t>
+  </si>
+  <si>
+    <t>This is an incredible property. Everything from the room to the valet was dialed in at a 10. Special mention to Robert on the 18th floor lounge - one of the best bartenders I have ever come across. Valet is a little expensive and rate hunting is a little apparent as the property is only 4 months old. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r510172060-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>510172060</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Downtown LA, near Live but not noisy</t>
+  </si>
+  <si>
+    <t>New hotel, clean, large room, staff is learning and tries hard. No desk and no comfortable chair to work at in the room but otherwise a comfortable stay. I've stayed closer to LA Live before and it's too noisy--this place was very quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>New hotel, clean, large room, staff is learning and tries hard. No desk and no comfortable chair to work at in the room but otherwise a comfortable stay. I've stayed closer to LA Live before and it's too noisy--this place was very quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r509946242-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>509946242</t>
+  </si>
+  <si>
+    <t>Nice DTLA Get-Away !</t>
+  </si>
+  <si>
+    <t>The hotel is on a one way street and only a few blocks walking distance of shopping, bars, and other eateries.  This is an absolutely gorgeous DTLA hotel, in a good overall location.  Parking is usually difficult in LA but I was hoping hotel parking would be covered.  I was a bit disappointed upon check-in to learn the only way to park was via valet at $48 a day.  Luckily there is a parking garage around the corner that only charged $10 after 5 PM.  I hate to seem cheap (as many hotels do this), but I don't understand why parking is just not included in the room charge.
+Upon check-in, I was greeted nicely and even upgraded to a nicer room on a high floor.  The room itself was absolutely gorgeous! However, it seemed the floor hadn't been swept, as I found several hairs on the floor after coming in as well as a shower head that wouldn't stop leaking.  Minor grievances, I figured,  as I set off downstairs to grab a drink!
+The downstairs bar was quite lively during Happy Hour - so much so, it was hard to catch the bartenders attention sometimes.  
+The beds are comfy, but the doors are super heavy and slam shut so you can hear other people's doors close.  I'm a light sleeper and I could even hear the people above me walking the next morning (which reminded me more of an...The hotel is on a one way street and only a few blocks walking distance of shopping, bars, and other eateries.  This is an absolutely gorgeous DTLA hotel, in a good overall location.  Parking is usually difficult in LA but I was hoping hotel parking would be covered.  I was a bit disappointed upon check-in to learn the only way to park was via valet at $48 a day.  Luckily there is a parking garage around the corner that only charged $10 after 5 PM.  I hate to seem cheap (as many hotels do this), but I don't understand why parking is just not included in the room charge.Upon check-in, I was greeted nicely and even upgraded to a nicer room on a high floor.  The room itself was absolutely gorgeous! However, it seemed the floor hadn't been swept, as I found several hairs on the floor after coming in as well as a shower head that wouldn't stop leaking.  Minor grievances, I figured,  as I set off downstairs to grab a drink!The downstairs bar was quite lively during Happy Hour - so much so, it was hard to catch the bartenders attention sometimes.  The beds are comfy, but the doors are super heavy and slam shut so you can hear other people's doors close.  I'm a light sleeper and I could even hear the people above me walking the next morning (which reminded me more of an apartment building than a hotel).  However, even with my small grievances, the overall vibe of the hotel and my room was nice, and I enjoyed my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is on a one way street and only a few blocks walking distance of shopping, bars, and other eateries.  This is an absolutely gorgeous DTLA hotel, in a good overall location.  Parking is usually difficult in LA but I was hoping hotel parking would be covered.  I was a bit disappointed upon check-in to learn the only way to park was via valet at $48 a day.  Luckily there is a parking garage around the corner that only charged $10 after 5 PM.  I hate to seem cheap (as many hotels do this), but I don't understand why parking is just not included in the room charge.
+Upon check-in, I was greeted nicely and even upgraded to a nicer room on a high floor.  The room itself was absolutely gorgeous! However, it seemed the floor hadn't been swept, as I found several hairs on the floor after coming in as well as a shower head that wouldn't stop leaking.  Minor grievances, I figured,  as I set off downstairs to grab a drink!
+The downstairs bar was quite lively during Happy Hour - so much so, it was hard to catch the bartenders attention sometimes.  
+The beds are comfy, but the doors are super heavy and slam shut so you can hear other people's doors close.  I'm a light sleeper and I could even hear the people above me walking the next morning (which reminded me more of an...The hotel is on a one way street and only a few blocks walking distance of shopping, bars, and other eateries.  This is an absolutely gorgeous DTLA hotel, in a good overall location.  Parking is usually difficult in LA but I was hoping hotel parking would be covered.  I was a bit disappointed upon check-in to learn the only way to park was via valet at $48 a day.  Luckily there is a parking garage around the corner that only charged $10 after 5 PM.  I hate to seem cheap (as many hotels do this), but I don't understand why parking is just not included in the room charge.Upon check-in, I was greeted nicely and even upgraded to a nicer room on a high floor.  The room itself was absolutely gorgeous! However, it seemed the floor hadn't been swept, as I found several hairs on the floor after coming in as well as a shower head that wouldn't stop leaking.  Minor grievances, I figured,  as I set off downstairs to grab a drink!The downstairs bar was quite lively during Happy Hour - so much so, it was hard to catch the bartenders attention sometimes.  The beds are comfy, but the doors are super heavy and slam shut so you can hear other people's doors close.  I'm a light sleeper and I could even hear the people above me walking the next morning (which reminded me more of an apartment building than a hotel).  However, even with my small grievances, the overall vibe of the hotel and my room was nice, and I enjoyed my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r508904417-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>508904417</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>Great hotel and even better valet department</t>
+  </si>
+  <si>
+    <t>My family and I were very happy with how clean and comfortable our room was but we were especially thrilled with the valet department's excellent service. The entire department's staff was very kind and accommodating. Our truck exceeded the parking garage's height limit but they assured us that they would take good care of it outside of the garage (which they did!). Thank you so much Victor Perez, Michael, Raul Cienfuegos, Claudia and Adam. You bunch made our stay in Los Angeles great! MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>My family and I were very happy with how clean and comfortable our room was but we were especially thrilled with the valet department's excellent service. The entire department's staff was very kind and accommodating. Our truck exceeded the parking garage's height limit but they assured us that they would take good care of it outside of the garage (which they did!). Thank you so much Victor Perez, Michael, Raul Cienfuegos, Claudia and Adam. You bunch made our stay in Los Angeles great! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r505331872-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>505331872</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Excellent Prices While Construction Continues Next Door</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised at the comfort level of Hotel Indigo's accommodations because we got such a great price...enjoy it while you can because I have a feeling prices will soar once they finish construction on the new luxury condos across the driveway.
+Excellent staff from the valet to the desk to the housekeeping.  Special shout out to Tyler at the front desk, whose charm, speed and professionalism set the tone for our stay.  
+The decor throughout the hotel is "playful" modern - quite trendy.  The brick pattern wallpaper, elevator graphics and kaleidoscope rugs in the halls are testimony to this playful, almost garish, trendiness. The lobby is quite pretty and has a nice bar that was popular during our stay.
+We had a lovely corner room (1021) with floor to ceiling windows on two sides - urban living at its best.  The rooms are large and loft-like.   The bed was the type you don't want to get out of and struggle to exit as you remind yourself there are other things to do than sleep all day!  The bathroom is a little dark for doing make-up, but has a magnifying mirror.  The walk-in shower is huge.  One complaint would be that our shower leaked incessantly - it wasted a lot of water.  It also made a lot of noise with the running - such that we had to keep the bathroom door shut to cancel the noise.
+Conveniently located...We were pleasantly surprised at the comfort level of Hotel Indigo's accommodations because we got such a great price...enjoy it while you can because I have a feeling prices will soar once they finish construction on the new luxury condos across the driveway.Excellent staff from the valet to the desk to the housekeeping.  Special shout out to Tyler at the front desk, whose charm, speed and professionalism set the tone for our stay.  The decor throughout the hotel is "playful" modern - quite trendy.  The brick pattern wallpaper, elevator graphics and kaleidoscope rugs in the halls are testimony to this playful, almost garish, trendiness. The lobby is quite pretty and has a nice bar that was popular during our stay.We had a lovely corner room (1021) with floor to ceiling windows on two sides - urban living at its best.  The rooms are large and loft-like.   The bed was the type you don't want to get out of and struggle to exit as you remind yourself there are other things to do than sleep all day!  The bathroom is a little dark for doing make-up, but has a magnifying mirror.  The walk-in shower is huge.  One complaint would be that our shower leaked incessantly - it wasted a lot of water.  It also made a lot of noise with the running - such that we had to keep the bathroom door shut to cancel the noise.Conveniently located within easy access of all major DTLA areas...special bonus: The 24 hour Original Pantry, an LA landmark, is located only one block away.If you've read this far, here's my tip:  park in the garage kitty corner across from the hotel towards Figueroa, I think it's called Joe's.  We paid $10 a night there...no in/out, but valet is $42/night!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2017</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised at the comfort level of Hotel Indigo's accommodations because we got such a great price...enjoy it while you can because I have a feeling prices will soar once they finish construction on the new luxury condos across the driveway.
+Excellent staff from the valet to the desk to the housekeeping.  Special shout out to Tyler at the front desk, whose charm, speed and professionalism set the tone for our stay.  
+The decor throughout the hotel is "playful" modern - quite trendy.  The brick pattern wallpaper, elevator graphics and kaleidoscope rugs in the halls are testimony to this playful, almost garish, trendiness. The lobby is quite pretty and has a nice bar that was popular during our stay.
+We had a lovely corner room (1021) with floor to ceiling windows on two sides - urban living at its best.  The rooms are large and loft-like.   The bed was the type you don't want to get out of and struggle to exit as you remind yourself there are other things to do than sleep all day!  The bathroom is a little dark for doing make-up, but has a magnifying mirror.  The walk-in shower is huge.  One complaint would be that our shower leaked incessantly - it wasted a lot of water.  It also made a lot of noise with the running - such that we had to keep the bathroom door shut to cancel the noise.
+Conveniently located...We were pleasantly surprised at the comfort level of Hotel Indigo's accommodations because we got such a great price...enjoy it while you can because I have a feeling prices will soar once they finish construction on the new luxury condos across the driveway.Excellent staff from the valet to the desk to the housekeeping.  Special shout out to Tyler at the front desk, whose charm, speed and professionalism set the tone for our stay.  The decor throughout the hotel is "playful" modern - quite trendy.  The brick pattern wallpaper, elevator graphics and kaleidoscope rugs in the halls are testimony to this playful, almost garish, trendiness. The lobby is quite pretty and has a nice bar that was popular during our stay.We had a lovely corner room (1021) with floor to ceiling windows on two sides - urban living at its best.  The rooms are large and loft-like.   The bed was the type you don't want to get out of and struggle to exit as you remind yourself there are other things to do than sleep all day!  The bathroom is a little dark for doing make-up, but has a magnifying mirror.  The walk-in shower is huge.  One complaint would be that our shower leaked incessantly - it wasted a lot of water.  It also made a lot of noise with the running - such that we had to keep the bathroom door shut to cancel the noise.Conveniently located within easy access of all major DTLA areas...special bonus: The 24 hour Original Pantry, an LA landmark, is located only one block away.If you've read this far, here's my tip:  park in the garage kitty corner across from the hotel towards Figueroa, I think it's called Joe's.  We paid $10 a night there...no in/out, but valet is $42/night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r503562333-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>503562333</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>So very cool</t>
+  </si>
+  <si>
+    <t>This hotel is beautiful! It is decorated I. The most cool and vintage glam style. The atmosphere makes it feel rich and swanky. I loved the stay here and the bedding and room. The room was large and very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is beautiful! It is decorated I. The most cool and vintage glam style. The atmosphere makes it feel rich and swanky. I loved the stay here and the bedding and room. The room was large and very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r503006012-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>503006012</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Beautiful on the outside not so much in the inside</t>
+  </si>
+  <si>
+    <t>I am Spire Royal Ambassador.  Highest level that can be achieved in the hotel chain. Property is great.  Staff are ... well... not well trained, unfriendly, unengaging and trust me... I average 150 days a year in this chain of hotels for the last 15 years.  It is a pity... a true pity that such a wonderful property can be marred by such a simple thing to fix through proper service training for their staff.   Shame on you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>I am Spire Royal Ambassador.  Highest level that can be achieved in the hotel chain. Property is great.  Staff are ... well... not well trained, unfriendly, unengaging and trust me... I average 150 days a year in this chain of hotels for the last 15 years.  It is a pity... a true pity that such a wonderful property can be marred by such a simple thing to fix through proper service training for their staff.   Shame on you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r500326029-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>500326029</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Sleek Metropolitan Hotel in the Heart of Downtown!</t>
+  </si>
+  <si>
+    <t>On our date night, after dinner and drinks at 71Above, my wife and I ended up booking a room here last minute.  No bags, just us, and a desire to live by the moment.  We did a blind 4 stars Hotwire booking and figured since it was Thursday, we'd end up at a nice place no matter what.  Hotel Indigo was an unfamiliar name so we wondered where our Lyft driver was taking us.  As soon as we saw the drive way, high-rises, lights and chic bar/restaurant visible from the valet area, we were stoked (and I never use that word).  It only got better.  The room was on a high floor near their high-floor bar/lounge (I forget the name) and the room was spectacular with an amazing view and chic furnishings.  The bed was huge and comfy.  After a night of fun and some rest, we were ready to leave but the cool house music coming from the loby bar area just kept us there.  We ended up at their restaurant had a really good breakfast then called a night...at 10AM.  We are definitely going back to their bar and hopefully stay there again, though we live just 8 miles away.MoreShow less</t>
+  </si>
+  <si>
+    <t>On our date night, after dinner and drinks at 71Above, my wife and I ended up booking a room here last minute.  No bags, just us, and a desire to live by the moment.  We did a blind 4 stars Hotwire booking and figured since it was Thursday, we'd end up at a nice place no matter what.  Hotel Indigo was an unfamiliar name so we wondered where our Lyft driver was taking us.  As soon as we saw the drive way, high-rises, lights and chic bar/restaurant visible from the valet area, we were stoked (and I never use that word).  It only got better.  The room was on a high floor near their high-floor bar/lounge (I forget the name) and the room was spectacular with an amazing view and chic furnishings.  The bed was huge and comfy.  After a night of fun and some rest, we were ready to leave but the cool house music coming from the loby bar area just kept us there.  We ended up at their restaurant had a really good breakfast then called a night...at 10AM.  We are definitely going back to their bar and hopefully stay there again, though we live just 8 miles away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r499276019-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>499276019</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Would never return! Loud Music everwhere!!</t>
+  </si>
+  <si>
+    <t>LOUD MUSIC EVERYWHERE!! This was not good music, but  blaring techno music and it was everywhere. It was in the lobby, the bar, the gym,  the restaurant one could not escape. Even when I was working out, I had my own earbuds on and still could hear the music.  I complained the entire two weeks, did no good. I was told that  someone named Kevin said he knew how to open a restaurant/bar and loud music was it. Everyone complained, you could not carry on a conversation, therefore people talked louder and louder. Too bad.  I complained to the front desk, they did not seem to care.  Then on top of the horrible music was the extrememly strong smell of marijuana coming into my room for two days. Contacted the front desk and they sent someone up and said yes it is marijuana and it is coming from somewhere. Now it was not coming from outside, I was on the 16th floor! My sister and I both had headaches for two days.  Rules against smoking were posted, guess people did not think that applied to marijuana.  It was that way for two days! HEADACHES!  Great Bed and linens! 
+With the exception of Alfred at the front desk, who by the way was great, the other staff memebers at the front desk were not at all professional or nice. This is a beautiful new hotel, and certain individuals were great, but....LOUD MUSIC EVERYWHERE!! This was not good music, but  blaring techno music and it was everywhere. It was in the lobby, the bar, the gym,  the restaurant one could not escape. Even when I was working out, I had my own earbuds on and still could hear the music.  I complained the entire two weeks, did no good. I was told that  someone named Kevin said he knew how to open a restaurant/bar and loud music was it. Everyone complained, you could not carry on a conversation, therefore people talked louder and louder. Too bad.  I complained to the front desk, they did not seem to care.  Then on top of the horrible music was the extrememly strong smell of marijuana coming into my room for two days. Contacted the front desk and they sent someone up and said yes it is marijuana and it is coming from somewhere. Now it was not coming from outside, I was on the 16th floor! My sister and I both had headaches for two days.  Rules against smoking were posted, guess people did not think that applied to marijuana.  It was that way for two days! HEADACHES!  Great Bed and linens! With the exception of Alfred at the front desk, who by the way was great, the other staff memebers at the front desk were not at all professional or nice. This is a beautiful new hotel, and certain individuals were great, but. Only someone under 30 should ever stay there. No shower caps, no q-tips, things that one expects in a hotel. The room was beautiful and housekeepers were great.  Louis, Jasmine and Chris were great  and Alfred was I think the only adult, they were great things about this hotel. All were friendly and yet professional.  The hotel needs to get hire more employees like Alfred, Louis, Jasmine and Chris.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded July 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2017</t>
+  </si>
+  <si>
+    <t>LOUD MUSIC EVERYWHERE!! This was not good music, but  blaring techno music and it was everywhere. It was in the lobby, the bar, the gym,  the restaurant one could not escape. Even when I was working out, I had my own earbuds on and still could hear the music.  I complained the entire two weeks, did no good. I was told that  someone named Kevin said he knew how to open a restaurant/bar and loud music was it. Everyone complained, you could not carry on a conversation, therefore people talked louder and louder. Too bad.  I complained to the front desk, they did not seem to care.  Then on top of the horrible music was the extrememly strong smell of marijuana coming into my room for two days. Contacted the front desk and they sent someone up and said yes it is marijuana and it is coming from somewhere. Now it was not coming from outside, I was on the 16th floor! My sister and I both had headaches for two days.  Rules against smoking were posted, guess people did not think that applied to marijuana.  It was that way for two days! HEADACHES!  Great Bed and linens! 
+With the exception of Alfred at the front desk, who by the way was great, the other staff memebers at the front desk were not at all professional or nice. This is a beautiful new hotel, and certain individuals were great, but....LOUD MUSIC EVERYWHERE!! This was not good music, but  blaring techno music and it was everywhere. It was in the lobby, the bar, the gym,  the restaurant one could not escape. Even when I was working out, I had my own earbuds on and still could hear the music.  I complained the entire two weeks, did no good. I was told that  someone named Kevin said he knew how to open a restaurant/bar and loud music was it. Everyone complained, you could not carry on a conversation, therefore people talked louder and louder. Too bad.  I complained to the front desk, they did not seem to care.  Then on top of the horrible music was the extrememly strong smell of marijuana coming into my room for two days. Contacted the front desk and they sent someone up and said yes it is marijuana and it is coming from somewhere. Now it was not coming from outside, I was on the 16th floor! My sister and I both had headaches for two days.  Rules against smoking were posted, guess people did not think that applied to marijuana.  It was that way for two days! HEADACHES!  Great Bed and linens! With the exception of Alfred at the front desk, who by the way was great, the other staff memebers at the front desk were not at all professional or nice. This is a beautiful new hotel, and certain individuals were great, but. Only someone under 30 should ever stay there. No shower caps, no q-tips, things that one expects in a hotel. The room was beautiful and housekeepers were great.  Louis, Jasmine and Chris were great  and Alfred was I think the only adult, they were great things about this hotel. All were friendly and yet professional.  The hotel needs to get hire more employees like Alfred, Louis, Jasmine and Chris.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r498623107-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>498623107</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Chic, Eclectic and Slightly Confused.</t>
+  </si>
+  <si>
+    <t>First walk in, the lobby is on the smaller side for a Downtown LA hotel but was very unique and clean.  From the shelves filled with an assortment of hats and what seemed to be a chandelier made from bike spokes, the decor was reminiscent of what you'd see in a Madonna-esque music video.  Similar decor in the rooms coupled with the cleanliness gave the room a crisp feeling; especially with the awesome over-sized bathrooms.  One thing to note was that in our room was a picture...of the back of a woman looking into a compact mirror with the eyes looking at you.  This picture was posted on the glass between the shower and the toilet so that she's looking at you when you're most exposed.
+Operations of the hotel were okay as some elements were lacking but other positions were functioning great.  
+Valet - Attendants don't approach you so you must park, grab keys, exit vehicle, wait for them to finish conversing and let them know you want to valet your car.  Retrieving the car? Same thing.
+Front Desk - While I don't run the hotel, it was troubling to see only one front desk agent...in a downtown hotel...next to LA Live...during a soldout convention.  Both the morning and evening associates were very friendly though.
+Bar 1st floor- A little bit slower on the service side but prices were at what was expected for the area.  
+Housekeeping - Everywhere...First walk in, the lobby is on the smaller side for a Downtown LA hotel but was very unique and clean.  From the shelves filled with an assortment of hats and what seemed to be a chandelier made from bike spokes, the decor was reminiscent of what you'd see in a Madonna-esque music video.  Similar decor in the rooms coupled with the cleanliness gave the room a crisp feeling; especially with the awesome over-sized bathrooms.  One thing to note was that in our room was a picture...of the back of a woman looking into a compact mirror with the eyes looking at you.  This picture was posted on the glass between the shower and the toilet so that she's looking at you when you're most exposed.Operations of the hotel were okay as some elements were lacking but other positions were functioning great.  Valet - Attendants don't approach you so you must park, grab keys, exit vehicle, wait for them to finish conversing and let them know you want to valet your car.  Retrieving the car? Same thing.Front Desk - While I don't run the hotel, it was troubling to see only one front desk agent...in a downtown hotel...next to LA Live...during a soldout convention.  Both the morning and evening associates were very friendly though.Bar 1st floor- A little bit slower on the service side but prices were at what was expected for the area.  Housekeeping - Everywhere we went in the hotel, the cleanliness was on point.  Even when asking for amenities such as pillows, blankets, and toothbrushes they were very quick.Last bit to note was the shower.  Very large but didn't come with shampoo/conditioner/lotion.  In addition, the water pressure was very poor.  It got to a point where if you held the wand at an angle of 30 degrees or more the water would just trickle down your arm instead of spraying forward.It's a newer hotel so hopefully it'll learn from these growing pains but at ~$380/night, I'd wait for a slower season to visit this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>First walk in, the lobby is on the smaller side for a Downtown LA hotel but was very unique and clean.  From the shelves filled with an assortment of hats and what seemed to be a chandelier made from bike spokes, the decor was reminiscent of what you'd see in a Madonna-esque music video.  Similar decor in the rooms coupled with the cleanliness gave the room a crisp feeling; especially with the awesome over-sized bathrooms.  One thing to note was that in our room was a picture...of the back of a woman looking into a compact mirror with the eyes looking at you.  This picture was posted on the glass between the shower and the toilet so that she's looking at you when you're most exposed.
+Operations of the hotel were okay as some elements were lacking but other positions were functioning great.  
+Valet - Attendants don't approach you so you must park, grab keys, exit vehicle, wait for them to finish conversing and let them know you want to valet your car.  Retrieving the car? Same thing.
+Front Desk - While I don't run the hotel, it was troubling to see only one front desk agent...in a downtown hotel...next to LA Live...during a soldout convention.  Both the morning and evening associates were very friendly though.
+Bar 1st floor- A little bit slower on the service side but prices were at what was expected for the area.  
+Housekeeping - Everywhere...First walk in, the lobby is on the smaller side for a Downtown LA hotel but was very unique and clean.  From the shelves filled with an assortment of hats and what seemed to be a chandelier made from bike spokes, the decor was reminiscent of what you'd see in a Madonna-esque music video.  Similar decor in the rooms coupled with the cleanliness gave the room a crisp feeling; especially with the awesome over-sized bathrooms.  One thing to note was that in our room was a picture...of the back of a woman looking into a compact mirror with the eyes looking at you.  This picture was posted on the glass between the shower and the toilet so that she's looking at you when you're most exposed.Operations of the hotel were okay as some elements were lacking but other positions were functioning great.  Valet - Attendants don't approach you so you must park, grab keys, exit vehicle, wait for them to finish conversing and let them know you want to valet your car.  Retrieving the car? Same thing.Front Desk - While I don't run the hotel, it was troubling to see only one front desk agent...in a downtown hotel...next to LA Live...during a soldout convention.  Both the morning and evening associates were very friendly though.Bar 1st floor- A little bit slower on the service side but prices were at what was expected for the area.  Housekeeping - Everywhere we went in the hotel, the cleanliness was on point.  Even when asking for amenities such as pillows, blankets, and toothbrushes they were very quick.Last bit to note was the shower.  Very large but didn't come with shampoo/conditioner/lotion.  In addition, the water pressure was very poor.  It got to a point where if you held the wand at an angle of 30 degrees or more the water would just trickle down your arm instead of spraying forward.It's a newer hotel so hopefully it'll learn from these growing pains but at ~$380/night, I'd wait for a slower season to visit this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r497268290-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>497268290</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Modern, Boutique, Convenient</t>
+  </si>
+  <si>
+    <t>I stay in the downtown area frequently for business but this is the first time I stayed here - in fact, it had just opened. It was very clean and i loved the modern decor. There was only one dining option but I had breakfast and lunch and both the food and service was very good. It was a quieter option than the other, larger hotels we usually stay at but still only a short walk to LA Live and the price was MUCH cheaper than some of the more well-known properties. i would definitely recommend this hotel and would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Front Office Manager at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>I stay in the downtown area frequently for business but this is the first time I stayed here - in fact, it had just opened. It was very clean and i loved the modern decor. There was only one dining option but I had breakfast and lunch and both the food and service was very good. It was a quieter option than the other, larger hotels we usually stay at but still only a short walk to LA Live and the price was MUCH cheaper than some of the more well-known properties. i would definitely recommend this hotel and would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r494550928-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>494550928</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Great hotel downtown Los Angeles</t>
+  </si>
+  <si>
+    <t>We stayed at Hotel Indigo Los Angeles Downtown for 2 nights.The hotel is located downtown LA next to LA live and in walking distance to shops and restaurants. There ia s lot of construction undergoing in the neighborhood. There was great service in the reception. The hotel is brand new. We really like the hotel and its decor. The room was ok, it was clean and the wifi worked fine.The hotel has its own small pool. We used it every afternoon, and it was really peaceful.We used vallet parking, which is really expensive - dont do that. You can park just across the street for only USD 15 per day.It is a great hotel - I can easily come backMoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office  at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at Hotel Indigo Los Angeles Downtown for 2 nights.The hotel is located downtown LA next to LA live and in walking distance to shops and restaurants. There ia s lot of construction undergoing in the neighborhood. There was great service in the reception. The hotel is brand new. We really like the hotel and its decor. The room was ok, it was clean and the wifi worked fine.The hotel has its own small pool. We used it every afternoon, and it was really peaceful.We used vallet parking, which is really expensive - dont do that. You can park just across the street for only USD 15 per day.It is a great hotel - I can easily come backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r493544488-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>493544488</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Updated and Clean</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new and everything is modern. It's not as tall as the other hotels in the area, but you still get a good view of the surrounding area. We were on the 13th floor and could see all of L. A. Live. When we got here, the shower head was clogged and sprayed all over the place but we managed to fix it ourselves. Staff were friendly in general and it's walking distance to L. A. Live, Staples Center, and the L. A. Convention Center.Notes:- No complimentary breakfast, but there is a small snack shop in the lobby, room service or Postmates from a bunch of great breakfast places in the area (like we did haha)- Parking is Valet only, $42 a day- Deposit is $100 A DAY. Every night you stay is an extra $100 (refundable)MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office  at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded June 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new and everything is modern. It's not as tall as the other hotels in the area, but you still get a good view of the surrounding area. We were on the 13th floor and could see all of L. A. Live. When we got here, the shower head was clogged and sprayed all over the place but we managed to fix it ourselves. Staff were friendly in general and it's walking distance to L. A. Live, Staples Center, and the L. A. Convention Center.Notes:- No complimentary breakfast, but there is a small snack shop in the lobby, room service or Postmates from a bunch of great breakfast places in the area (like we did haha)- Parking is Valet only, $42 a day- Deposit is $100 A DAY. Every night you stay is an extra $100 (refundable)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r489868546-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>489868546</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Do not stay here!</t>
+  </si>
+  <si>
+    <t>I booked 4 nights here in mid-March for a conference at the end of May to be within walking distance of the convention center, only to find upon check in that I was involuntarily bumped to the Loews Hollywood 6 miles away because 2 floors of the hotel were not complete. The hotel sent an email explaining this after close of business eastern time on the Friday of Memorial Day, so of course I didn't get it before I left for the trip. At 1st they offered only a $50 gift card and metro card, but they comped one night at Loews after I pointed out that this was not adequate given the inconvenience. I know they are new, but it is unacceptable to overbook and then bump me to a hotel so far away when I reserved well in advance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>I booked 4 nights here in mid-March for a conference at the end of May to be within walking distance of the convention center, only to find upon check in that I was involuntarily bumped to the Loews Hollywood 6 miles away because 2 floors of the hotel were not complete. The hotel sent an email explaining this after close of business eastern time on the Friday of Memorial Day, so of course I didn't get it before I left for the trip. At 1st they offered only a $50 gift card and metro card, but they comped one night at Loews after I pointed out that this was not adequate given the inconvenience. I know they are new, but it is unacceptable to overbook and then bump me to a hotel so far away when I reserved well in advance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r487805669-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>487805669</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>New hotel with severe growing pains!</t>
+  </si>
+  <si>
+    <t>Check-in was a nightmare--36 minutes in a very long line to move to the front of the line and get our key.  One other reviewer said the same thing.  Even if everyone descends at the same time, hotel professionals should know how to handle such situations.  Large wedding parties, anyone?  Conventions and conferences?  The staff was very friendly, apologetic, and responsive but as tired travelers, this is not a good first impression.  Decor does not signal Hollywood and LA, unless you mean Paris Hilton and Kim Kardashian.  A cinematic vibe could be had in a more tasteful yet energetic manner.  Same holds true for the room decor--a mishmash going nowhere in theme.  The bathroom is beautiful though, with interesting floor tile, marble, and photographic overlay on glass/acrylic.  No wastepaper basket in main bedroom area--only a teeny-tiny one in the bathroom.  And, very poor planning for the electric coffee maker--when we tried to slide it out on its drawer, the extension chord doesn't reach far enough to use it.  The curtain in the corner window--where you would get the nicest view, doesn't open all the way. Still, I will give them some time to improve the decor, kinks in amenities, and front desk service.  The employees are great!MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office  at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Check-in was a nightmare--36 minutes in a very long line to move to the front of the line and get our key.  One other reviewer said the same thing.  Even if everyone descends at the same time, hotel professionals should know how to handle such situations.  Large wedding parties, anyone?  Conventions and conferences?  The staff was very friendly, apologetic, and responsive but as tired travelers, this is not a good first impression.  Decor does not signal Hollywood and LA, unless you mean Paris Hilton and Kim Kardashian.  A cinematic vibe could be had in a more tasteful yet energetic manner.  Same holds true for the room decor--a mishmash going nowhere in theme.  The bathroom is beautiful though, with interesting floor tile, marble, and photographic overlay on glass/acrylic.  No wastepaper basket in main bedroom area--only a teeny-tiny one in the bathroom.  And, very poor planning for the electric coffee maker--when we tried to slide it out on its drawer, the extension chord doesn't reach far enough to use it.  The curtain in the corner window--where you would get the nicest view, doesn't open all the way. Still, I will give them some time to improve the decor, kinks in amenities, and front desk service.  The employees are great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r486454338-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>486454338</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel--service is severely lacking</t>
+  </si>
+  <si>
+    <t>Pros--
+-Hotel is new, so things are relatively nice:  firm beds, non carpeted floor, nice enough bathroom.
+-Nice that there is a pool, though it was pretty cold despite the blazing hot sun.
+Cons:
+- Service was SO bad, from start to finish.  We arrived to a long line for check in, and multiple people seemingly working behind the front desk,  but only two of whom were actually checking people in.  We had asked for a crib when booking, and it was not there upon arrival.  We called down to the front desk because the A/C unit was not working properly.  They promised to send someone up; no one ever came.  We called down to the front desk the next morning to ask housekeeping to bring an additional shampoo/conditioner.  Again, they promised to send someone; no one ever came.  We asked for late check out as we had a flight to catch out of LAX later and wanted to minimize waiting at the airport with two small kids.  They made us feel that we were getting a huge favor by letting us stay 1.5 hours after check out on a Sunday.  Then, get this:  They made it so that our keycards for the room expired so that, for the last 1.5 hours of our stay, we could not freely go in and out of our room.
+-The wall decorations are SUPER cheesy.  Think Planet Hollywood.
+-You can hear EVERY sound....Pros---Hotel is new, so things are relatively nice:  firm beds, non carpeted floor, nice enough bathroom.-Nice that there is a pool, though it was pretty cold despite the blazing hot sun.Cons:- Service was SO bad, from start to finish.  We arrived to a long line for check in, and multiple people seemingly working behind the front desk,  but only two of whom were actually checking people in.  We had asked for a crib when booking, and it was not there upon arrival.  We called down to the front desk because the A/C unit was not working properly.  They promised to send someone up; no one ever came.  We called down to the front desk the next morning to ask housekeeping to bring an additional shampoo/conditioner.  Again, they promised to send someone; no one ever came.  We asked for late check out as we had a flight to catch out of LAX later and wanted to minimize waiting at the airport with two small kids.  They made us feel that we were getting a huge favor by letting us stay 1.5 hours after check out on a Sunday.  Then, get this:  They made it so that our keycards for the room expired so that, for the last 1.5 hours of our stay, we could not freely go in and out of our room.-The wall decorations are SUPER cheesy.  Think Planet Hollywood.-You can hear EVERY sound.  We could hear vacuuming in the room above us around 10 p.m., water going through the building pipes all through the night, and other people coming and going all through the night.  Not a good night's sleep at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Pros--
+-Hotel is new, so things are relatively nice:  firm beds, non carpeted floor, nice enough bathroom.
+-Nice that there is a pool, though it was pretty cold despite the blazing hot sun.
+Cons:
+- Service was SO bad, from start to finish.  We arrived to a long line for check in, and multiple people seemingly working behind the front desk,  but only two of whom were actually checking people in.  We had asked for a crib when booking, and it was not there upon arrival.  We called down to the front desk because the A/C unit was not working properly.  They promised to send someone up; no one ever came.  We called down to the front desk the next morning to ask housekeeping to bring an additional shampoo/conditioner.  Again, they promised to send someone; no one ever came.  We asked for late check out as we had a flight to catch out of LAX later and wanted to minimize waiting at the airport with two small kids.  They made us feel that we were getting a huge favor by letting us stay 1.5 hours after check out on a Sunday.  Then, get this:  They made it so that our keycards for the room expired so that, for the last 1.5 hours of our stay, we could not freely go in and out of our room.
+-The wall decorations are SUPER cheesy.  Think Planet Hollywood.
+-You can hear EVERY sound....Pros---Hotel is new, so things are relatively nice:  firm beds, non carpeted floor, nice enough bathroom.-Nice that there is a pool, though it was pretty cold despite the blazing hot sun.Cons:- Service was SO bad, from start to finish.  We arrived to a long line for check in, and multiple people seemingly working behind the front desk,  but only two of whom were actually checking people in.  We had asked for a crib when booking, and it was not there upon arrival.  We called down to the front desk because the A/C unit was not working properly.  They promised to send someone up; no one ever came.  We called down to the front desk the next morning to ask housekeeping to bring an additional shampoo/conditioner.  Again, they promised to send someone; no one ever came.  We asked for late check out as we had a flight to catch out of LAX later and wanted to minimize waiting at the airport with two small kids.  They made us feel that we were getting a huge favor by letting us stay 1.5 hours after check out on a Sunday.  Then, get this:  They made it so that our keycards for the room expired so that, for the last 1.5 hours of our stay, we could not freely go in and out of our room.-The wall decorations are SUPER cheesy.  Think Planet Hollywood.-You can hear EVERY sound.  We could hear vacuuming in the room above us around 10 p.m., water going through the building pipes all through the night, and other people coming and going all through the night.  Not a good night's sleep at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r486017240-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>486017240</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Where do I begin?</t>
+  </si>
+  <si>
+    <t>I spent six nights at this new property, which as a HI tries to be trendy (e.g., black wall in the guest rooms). I tried to move after the second day, but nearby hotels were booked. I definitely would not stay at this property again.
+Where do I begin? First safety. The hotel is located across the street from the Salvation Army. Homeless people hang-out and sleep across the street.  I would never let my wife or daughters walk from this hotel to or from the convention center alone. 
+One evening, the fire alarm rang. I ran out of my room and raced down the six flights of steps. In the lobby, I was told that it was a false alarm “which sometimes happens”. I have stayed hundreds of nights in hotels around the world, and this was only the second time that I heard a fire alarm (the first time was an actual fire). I couldn’t help think of my elderly year old mom at the hotel in this situation. 
+The Indigo is not full service. There is not even a pretense of a concierge. Food options are limited.  There is a tiny self-service snack bar in the lobby selling $4 small bottles of Coke. 
+The room and bathroom were well sized, and the wi-fi worked fine. There was a mild unpleasant smell which one quickly gets used to, but always hits you when you walk into the room....I spent six nights at this new property, which as a HI tries to be trendy (e.g., black wall in the guest rooms). I tried to move after the second day, but nearby hotels were booked. I definitely would not stay at this property again.Where do I begin? First safety. The hotel is located across the street from the Salvation Army. Homeless people hang-out and sleep across the street.  I would never let my wife or daughters walk from this hotel to or from the convention center alone. One evening, the fire alarm rang. I ran out of my room and raced down the six flights of steps. In the lobby, I was told that it was a false alarm “which sometimes happens”. I have stayed hundreds of nights in hotels around the world, and this was only the second time that I heard a fire alarm (the first time was an actual fire). I couldn’t help think of my elderly year old mom at the hotel in this situation. The Indigo is not full service. There is not even a pretense of a concierge. Food options are limited.  There is a tiny self-service snack bar in the lobby selling $4 small bottles of Coke. The room and bathroom were well sized, and the wi-fi worked fine. There was a mild unpleasant smell which one quickly gets used to, but always hits you when you walk into the room. I complained about this, and a few days latter the Front Desk Manager called to tell me that he confirmed that there is no smell.  He needs extensive training.During the second day I needed to call the front desk THREE TIMES to have the room made up. The next day I needed to call ONLY ONCE, in the evening, to have the room made up. When I was told that no manager or assistant manager was present on the property, I emailed the hotel manager Raymond.vermolen@ihg.com and cc’ed top execs at IHG. Our housekeeping problem was quickly fixed. Half of the front desk staff were very helpful. The other half were usefulness: they could not answer routine questions such as where is the the ice machine on my floor?, can you please point to nearest metro stop for the train to Santa Monica?, can you please point to the closest supermarket?. I don’t trust such people with my safety.As I said above, I would not stay at this property again. There are many comparably priced alternatives.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director Of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>I spent six nights at this new property, which as a HI tries to be trendy (e.g., black wall in the guest rooms). I tried to move after the second day, but nearby hotels were booked. I definitely would not stay at this property again.
+Where do I begin? First safety. The hotel is located across the street from the Salvation Army. Homeless people hang-out and sleep across the street.  I would never let my wife or daughters walk from this hotel to or from the convention center alone. 
+One evening, the fire alarm rang. I ran out of my room and raced down the six flights of steps. In the lobby, I was told that it was a false alarm “which sometimes happens”. I have stayed hundreds of nights in hotels around the world, and this was only the second time that I heard a fire alarm (the first time was an actual fire). I couldn’t help think of my elderly year old mom at the hotel in this situation. 
+The Indigo is not full service. There is not even a pretense of a concierge. Food options are limited.  There is a tiny self-service snack bar in the lobby selling $4 small bottles of Coke. 
+The room and bathroom were well sized, and the wi-fi worked fine. There was a mild unpleasant smell which one quickly gets used to, but always hits you when you walk into the room....I spent six nights at this new property, which as a HI tries to be trendy (e.g., black wall in the guest rooms). I tried to move after the second day, but nearby hotels were booked. I definitely would not stay at this property again.Where do I begin? First safety. The hotel is located across the street from the Salvation Army. Homeless people hang-out and sleep across the street.  I would never let my wife or daughters walk from this hotel to or from the convention center alone. One evening, the fire alarm rang. I ran out of my room and raced down the six flights of steps. In the lobby, I was told that it was a false alarm “which sometimes happens”. I have stayed hundreds of nights in hotels around the world, and this was only the second time that I heard a fire alarm (the first time was an actual fire). I couldn’t help think of my elderly year old mom at the hotel in this situation. The Indigo is not full service. There is not even a pretense of a concierge. Food options are limited.  There is a tiny self-service snack bar in the lobby selling $4 small bottles of Coke. The room and bathroom were well sized, and the wi-fi worked fine. There was a mild unpleasant smell which one quickly gets used to, but always hits you when you walk into the room. I complained about this, and a few days latter the Front Desk Manager called to tell me that he confirmed that there is no smell.  He needs extensive training.During the second day I needed to call the front desk THREE TIMES to have the room made up. The next day I needed to call ONLY ONCE, in the evening, to have the room made up. When I was told that no manager or assistant manager was present on the property, I emailed the hotel manager Raymond.vermolen@ihg.com and cc’ed top execs at IHG. Our housekeeping problem was quickly fixed. Half of the front desk staff were very helpful. The other half were usefulness: they could not answer routine questions such as where is the the ice machine on my floor?, can you please point to nearest metro stop for the train to Santa Monica?, can you please point to the closest supermarket?. I don’t trust such people with my safety.As I said above, I would not stay at this property again. There are many comparably priced alternatives.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r484768627-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>484768627</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>New and nice!</t>
+  </si>
+  <si>
+    <t>Stayed at the Indigo for 5 nights and enjoyed the stay. Great location, close to everything and defiantly within walking distance to all of the action. The entire place is new and very clean, great staff and a few that they will weed out after being open awhile. We would defiantly stay here again if we are in this area of Los Angeles.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at the Indigo for 5 nights and enjoyed the stay. Great location, close to everything and defiantly within walking distance to all of the action. The entire place is new and very clean, great staff and a few that they will weed out after being open awhile. We would defiantly stay here again if we are in this area of Los Angeles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r484222193-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>484222193</t>
+  </si>
+  <si>
+    <t>05/14/2017</t>
+  </si>
+  <si>
+    <t>Downtown cool</t>
+  </si>
+  <si>
+    <t>We stayed at Hotel Indigo two nights.  It so recently opened (6 weeks ago) that the pool was not open until the second day and the place still had that "new car" smell.  The rooms are beautifully appointed with the traveler in mind.  
+The room had a small refrigerator/freezer that was easily filled with supplies from the Ralph's grocery store down the street. The coffee machine, safe, and refrigerator all fitting seamlessly into the dresser drawers.  The headboards had outlets and even a USB port for charging all our devices.  The bathroom was lovely with a "rain shower" head and a makeup mirror was available to pull out from the wall. 
+I did have the opportunity to work out in the gym.  All the equipment is new-towels, water and even disposable ear buds are provided.  
+Additionally, every staff member from the valet, to the front desk, to the bar, were gracious and kind and always went out of their way to make our stay exceptional.  
+The only reason the hotel received four stars instead of five is actually out of their control, but did impact our stay.  There is a tremendous amount of construction going on in downtown LA, specifically, a large tower is being built on the same street. So Francisco, usually a two way street was only one way traffic and another day completely closed a bit up the street.  This was a serious issue as Uber drivers,...We stayed at Hotel Indigo two nights.  It so recently opened (6 weeks ago) that the pool was not open until the second day and the place still had that "new car" smell.  The rooms are beautifully appointed with the traveler in mind.  The room had a small refrigerator/freezer that was easily filled with supplies from the Ralph's grocery store down the street. The coffee machine, safe, and refrigerator all fitting seamlessly into the dresser drawers.  The headboards had outlets and even a USB port for charging all our devices.  The bathroom was lovely with a "rain shower" head and a makeup mirror was available to pull out from the wall. I did have the opportunity to work out in the gym.  All the equipment is new-towels, water and even disposable ear buds are provided.  Additionally, every staff member from the valet, to the front desk, to the bar, were gracious and kind and always went out of their way to make our stay exceptional.  The only reason the hotel received four stars instead of five is actually out of their control, but did impact our stay.  There is a tremendous amount of construction going on in downtown LA, specifically, a large tower is being built on the same street. So Francisco, usually a two way street was only one way traffic and another day completely closed a bit up the street.  This was a serious issue as Uber drivers, and even we, really had a horrific time getting to and from the hotel. Again, not the hotel's issue, just noted it so people are forewarned. We had a wonderful stay otherwise and would really recommend staying at the Hotel Indigo.  PS be sure to eat at the Original Pantry down the block, a breakfast fare institution since 1924....cash only. MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at Hotel Indigo two nights.  It so recently opened (6 weeks ago) that the pool was not open until the second day and the place still had that "new car" smell.  The rooms are beautifully appointed with the traveler in mind.  
+The room had a small refrigerator/freezer that was easily filled with supplies from the Ralph's grocery store down the street. The coffee machine, safe, and refrigerator all fitting seamlessly into the dresser drawers.  The headboards had outlets and even a USB port for charging all our devices.  The bathroom was lovely with a "rain shower" head and a makeup mirror was available to pull out from the wall. 
+I did have the opportunity to work out in the gym.  All the equipment is new-towels, water and even disposable ear buds are provided.  
+Additionally, every staff member from the valet, to the front desk, to the bar, were gracious and kind and always went out of their way to make our stay exceptional.  
+The only reason the hotel received four stars instead of five is actually out of their control, but did impact our stay.  There is a tremendous amount of construction going on in downtown LA, specifically, a large tower is being built on the same street. So Francisco, usually a two way street was only one way traffic and another day completely closed a bit up the street.  This was a serious issue as Uber drivers,...We stayed at Hotel Indigo two nights.  It so recently opened (6 weeks ago) that the pool was not open until the second day and the place still had that "new car" smell.  The rooms are beautifully appointed with the traveler in mind.  The room had a small refrigerator/freezer that was easily filled with supplies from the Ralph's grocery store down the street. The coffee machine, safe, and refrigerator all fitting seamlessly into the dresser drawers.  The headboards had outlets and even a USB port for charging all our devices.  The bathroom was lovely with a "rain shower" head and a makeup mirror was available to pull out from the wall. I did have the opportunity to work out in the gym.  All the equipment is new-towels, water and even disposable ear buds are provided.  Additionally, every staff member from the valet, to the front desk, to the bar, were gracious and kind and always went out of their way to make our stay exceptional.  The only reason the hotel received four stars instead of five is actually out of their control, but did impact our stay.  There is a tremendous amount of construction going on in downtown LA, specifically, a large tower is being built on the same street. So Francisco, usually a two way street was only one way traffic and another day completely closed a bit up the street.  This was a serious issue as Uber drivers, and even we, really had a horrific time getting to and from the hotel. Again, not the hotel's issue, just noted it so people are forewarned. We had a wonderful stay otherwise and would really recommend staying at the Hotel Indigo.  PS be sure to eat at the Original Pantry down the block, a breakfast fare institution since 1924....cash only. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r482650227-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>482650227</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Chic</t>
+  </si>
+  <si>
+    <t>Very chic and trendy hotel. Staff very friendly and accommodating. Rooms are stylish. Bathroom is large. Beds are comfortable. This hotel recently opened, so there are a few glitches. My only issue was with housekeeping. My first night i went to sleep on what I assumed were clean sheets, woke up the next morning and the fitted sheet had come up a bit on the side where I slept revealing two very noticeable quarter size spots of blood. I didn't even pull up the rest of the fitted sheet because I was afraid of what I might find! I took a picture and showed the front desk who graciously apologized, because it was obvious that clean sheets (or what I thought) were thrown on top of a soiled mattress cover.  She had someone come change my bed immediately.  The the next day I returned to my room at 6:30pm that had not even been touched by housekeeping. So I asked the front desk for fresh towels, again they were very apologetic, and they did clean my room while I was at dinner. Following day I returned again to an uncleaned room, I had to sit in the lobby until 8:30 pm waiting on my room to be cleaned. So, all in all I would have given this hotel 5 stars  because the front staff was excellent, but because of poor housekeeping they get a 4. MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Very chic and trendy hotel. Staff very friendly and accommodating. Rooms are stylish. Bathroom is large. Beds are comfortable. This hotel recently opened, so there are a few glitches. My only issue was with housekeeping. My first night i went to sleep on what I assumed were clean sheets, woke up the next morning and the fitted sheet had come up a bit on the side where I slept revealing two very noticeable quarter size spots of blood. I didn't even pull up the rest of the fitted sheet because I was afraid of what I might find! I took a picture and showed the front desk who graciously apologized, because it was obvious that clean sheets (or what I thought) were thrown on top of a soiled mattress cover.  She had someone come change my bed immediately.  The the next day I returned to my room at 6:30pm that had not even been touched by housekeeping. So I asked the front desk for fresh towels, again they were very apologetic, and they did clean my room while I was at dinner. Following day I returned again to an uncleaned room, I had to sit in the lobby until 8:30 pm waiting on my room to be cleaned. So, all in all I would have given this hotel 5 stars  because the front staff was excellent, but because of poor housekeeping they get a 4. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r482483959-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>482483959</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Beautiful new Hotel</t>
+  </si>
+  <si>
+    <t>The Hotel has been open less than a month but you wouldn't know it. The staff was very friendly and welcoming and the service was excellent. We ate in the restaurant for breakfast and dinner and the food was superb. The lobby is beautifully decorated and always full. The bathrooms were gorgeous and the beds were so comfortable. I can't wait to go back!MoreShow less</t>
+  </si>
+  <si>
+    <t>The Hotel has been open less than a month but you wouldn't know it. The staff was very friendly and welcoming and the service was excellent. We ate in the restaurant for breakfast and dinner and the food was superb. The lobby is beautifully decorated and always full. The bathrooms were gorgeous and the beds were so comfortable. I can't wait to go back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r482314572-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>482314572</t>
+  </si>
+  <si>
+    <t>Wonderful new hotel in DTLA</t>
+  </si>
+  <si>
+    <t>Hotel is located in a real up and coming area just a block away from Staples Center and lots of restaurant and bars.  The hotel is beautifully designed and also has a great gym and outdoor pool.   The staff are truly wonderful and friendly.  I haven't stayed DTLA for many years but would stay here again for sure.   Rooms are very spacious and well appointed with USB and plugs literally everywhere which is a welcome change that you don't have to search for ever then use your own power cables and extensions.  Nice job! MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is located in a real up and coming area just a block away from Staples Center and lots of restaurant and bars.  The hotel is beautifully designed and also has a great gym and outdoor pool.   The staff are truly wonderful and friendly.  I haven't stayed DTLA for many years but would stay here again for sure.   Rooms are very spacious and well appointed with USB and plugs literally everywhere which is a welcome change that you don't have to search for ever then use your own power cables and extensions.  Nice job! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r480410731-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>480410731</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Visually Pleasing From Afar. You May Want to Stay After it's Soft Opening</t>
+  </si>
+  <si>
+    <t>As others have stated, we all paid full price for services that did not exist as advertised on the indigo website.  Cagey and just unprofessional.  The hotel is on the cusp of a  learning curve in all of its departments.  They opened too soon before they fixed the bugs and started booking guests so we get receive the experience of learning of the bad lighting, cold water, curtains that wouldn't open, strangers knocking at your door at odd times, etc.
+I would be staying at any of the other competitors, but thought, "Indigo might be fun with my friends and we can check the latest new spot in Downtown.
+Sorry, but I cannot send them to Indigo.
+Management hasn't prepared staff for Primetime. And discerning travelers.
+Don't know when they will be, either.  They lack that love; that passion for their jobs.
+There were little things, like lights that didn't work, my room key that kept having to be 
+re-keyed, cold room service, no salt and pepper, water.  My sea bass was less the size of a small deck of cards with 3, count 'em, 3 haricot verts, and 2 fingerling potatoes. It was quite a tiny plate, with butter brought up but no bread. $38. Yikes.
+There are 2 elevators on each floor and I mistakenly took the freight elevator, as there was no signage indicating otherwise.  I get in a padded, crappy elevator-oh well- it is going to...As others have stated, we all paid full price for services that did not exist as advertised on the indigo website.  Cagey and just unprofessional.  The hotel is on the cusp of a  learning curve in all of its departments.  They opened too soon before they fixed the bugs and started booking guests so we get receive the experience of learning of the bad lighting, cold water, curtains that wouldn't open, strangers knocking at your door at odd times, etc.I would be staying at any of the other competitors, but thought, "Indigo might be fun with my friends and we can check the latest new spot in Downtown.Sorry, but I cannot send them to Indigo.Management hasn't prepared staff for Primetime. And discerning travelers.Don't know when they will be, either.  They lack that love; that passion for their jobs.There were little things, like lights that didn't work, my room key that kept having to be re-keyed, cold room service, no salt and pepper, water.  My sea bass was less the size of a small deck of cards with 3, count 'em, 3 haricot verts, and 2 fingerling potatoes. It was quite a tiny plate, with butter brought up but no bread. $38. Yikes.There are 2 elevators on each floor and I mistakenly took the freight elevator, as there was no signage indicating otherwise.  I get in a padded, crappy elevator-oh well- it is going to get me to the lobby floor--so I took it.  Just another example of lack of management minding their p's and q's ensuring the guests have a superlative experience.I travel to Downtown LA all the time and just cannot recommend this hotel.  Nice façade.  The rest of the hotel was a let down.  All for $395 for my convention rate.I have a handful of excellent hotels that I would choose over this one.  Perhaps give the Indigo another year to get their act together-and properly train their staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office  at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>As others have stated, we all paid full price for services that did not exist as advertised on the indigo website.  Cagey and just unprofessional.  The hotel is on the cusp of a  learning curve in all of its departments.  They opened too soon before they fixed the bugs and started booking guests so we get receive the experience of learning of the bad lighting, cold water, curtains that wouldn't open, strangers knocking at your door at odd times, etc.
+I would be staying at any of the other competitors, but thought, "Indigo might be fun with my friends and we can check the latest new spot in Downtown.
+Sorry, but I cannot send them to Indigo.
+Management hasn't prepared staff for Primetime. And discerning travelers.
+Don't know when they will be, either.  They lack that love; that passion for their jobs.
+There were little things, like lights that didn't work, my room key that kept having to be 
+re-keyed, cold room service, no salt and pepper, water.  My sea bass was less the size of a small deck of cards with 3, count 'em, 3 haricot verts, and 2 fingerling potatoes. It was quite a tiny plate, with butter brought up but no bread. $38. Yikes.
+There are 2 elevators on each floor and I mistakenly took the freight elevator, as there was no signage indicating otherwise.  I get in a padded, crappy elevator-oh well- it is going to...As others have stated, we all paid full price for services that did not exist as advertised on the indigo website.  Cagey and just unprofessional.  The hotel is on the cusp of a  learning curve in all of its departments.  They opened too soon before they fixed the bugs and started booking guests so we get receive the experience of learning of the bad lighting, cold water, curtains that wouldn't open, strangers knocking at your door at odd times, etc.I would be staying at any of the other competitors, but thought, "Indigo might be fun with my friends and we can check the latest new spot in Downtown.Sorry, but I cannot send them to Indigo.Management hasn't prepared staff for Primetime. And discerning travelers.Don't know when they will be, either.  They lack that love; that passion for their jobs.There were little things, like lights that didn't work, my room key that kept having to be re-keyed, cold room service, no salt and pepper, water.  My sea bass was less the size of a small deck of cards with 3, count 'em, 3 haricot verts, and 2 fingerling potatoes. It was quite a tiny plate, with butter brought up but no bread. $38. Yikes.There are 2 elevators on each floor and I mistakenly took the freight elevator, as there was no signage indicating otherwise.  I get in a padded, crappy elevator-oh well- it is going to get me to the lobby floor--so I took it.  Just another example of lack of management minding their p's and q's ensuring the guests have a superlative experience.I travel to Downtown LA all the time and just cannot recommend this hotel.  Nice façade.  The rest of the hotel was a let down.  All for $395 for my convention rate.I have a handful of excellent hotels that I would choose over this one.  Perhaps give the Indigo another year to get their act together-and properly train their staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r479538538-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>479538538</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Amazing stay!</t>
+  </si>
+  <si>
+    <t>I stayed here with two of my good friends and I must say that it has been a most pleasant experience. From being greeted and checked in by Chei to the bellman escorting us to the room, it was top notch. The lobby was amazing, nice decorated with deep rich colors, I love the light fixtures on the ceiling. The restaurant was amazing! The food was really good and the wait staff was very friendly and attentive. We absolutely loved Jasmine! She has an amazing personality and recommended some really fun places to check out at night. Our room was very spacious with a lot of natural light. The bathroom was amazing too! Housekeeping did an amazing job of servicing the room daily with fresh towels and bath products. Overall, this hotel is  beautiful and can't wait to come back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here with two of my good friends and I must say that it has been a most pleasant experience. From being greeted and checked in by Chei to the bellman escorting us to the room, it was top notch. The lobby was amazing, nice decorated with deep rich colors, I love the light fixtures on the ceiling. The restaurant was amazing! The food was really good and the wait staff was very friendly and attentive. We absolutely loved Jasmine! She has an amazing personality and recommended some really fun places to check out at night. Our room was very spacious with a lot of natural light. The bathroom was amazing too! Housekeeping did an amazing job of servicing the room daily with fresh towels and bath products. Overall, this hotel is  beautiful and can't wait to come back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r479308931-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>479308931</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Great Staff!</t>
+  </si>
+  <si>
+    <t>We stayed here when a family member was in the hospital.  It is easy to get to and a nice location for walking around. The view is nice.  The staff were very friendly, kind, and helpful.  The decor is in a modern style but with a touch of the roaring 20's, which was fun.  The one downside we didn't like were no robes/slippers in the room and like others have reviewed the pool isn't open yet☹️.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded April 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here when a family member was in the hospital.  It is easy to get to and a nice location for walking around. The view is nice.  The staff were very friendly, kind, and helpful.  The decor is in a modern style but with a touch of the roaring 20's, which was fun.  The one downside we didn't like were no robes/slippers in the room and like others have reviewed the pool isn't open yet☹️.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r478390917-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>478390917</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>This will eventually be a great hotel</t>
+  </si>
+  <si>
+    <t>This hotel has yet to fully open! I was not aware of this until after I had checked in. The 18th floor lounge/bar as not completed, remains under construction, the pool was not open, nor was the gym. Went to the bar in the lobby, requested " 1 rock" with my drink and the bartender said he didn't have them as yet. I'll agree it is a beautiful hotel, but please let us know that you are not fully ready to have guest from out of town stay with you expecting to have all available services ready for the rates you charge.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office  at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>This hotel has yet to fully open! I was not aware of this until after I had checked in. The 18th floor lounge/bar as not completed, remains under construction, the pool was not open, nor was the gym. Went to the bar in the lobby, requested " 1 rock" with my drink and the bartender said he didn't have them as yet. I'll agree it is a beautiful hotel, but please let us know that you are not fully ready to have guest from out of town stay with you expecting to have all available services ready for the rates you charge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r476200866-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>476200866</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Outstanding Modern Hotel</t>
+  </si>
+  <si>
+    <t>Whether you enter through the main doors or the side, the staff at Hotel Indigo will descend upon you with a warm welcome.  From the main lobby, to the elevator and guest room, the accommodations are trendy and meet every needs of today's tech oriented traveler.  This hotel just opened so really, the choice to stay here is a no brainer!  For restaurant recommendations, seek out Tyler at the Front Desk; the man knows the ins and outs of the local food scene!  We highly recommend Hotel Indigo for all travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alfretz C, Assistant Director of Front Office at Hotel Indigo Los Angeles Downtown, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Whether you enter through the main doors or the side, the staff at Hotel Indigo will descend upon you with a warm welcome.  From the main lobby, to the elevator and guest room, the accommodations are trendy and meet every needs of today's tech oriented traveler.  This hotel just opened so really, the choice to stay here is a no brainer!  For restaurant recommendations, seek out Tyler at the Front Desk; the man knows the ins and outs of the local food scene!  We highly recommend Hotel Indigo for all travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r475174079-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>475174079</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Absolutely stunning experience!</t>
+  </si>
+  <si>
+    <t>From the moment we walked in, this gorgeous new hotel captivated us! The decor is stylish, trendy and modern. The coolest "bicycle wheel" lamps above the reception desk! The staff is so accommodating and friendly. We felt immediately at home. The room is perfect...down to the handwritten welcome note, along with three delicious mini pastries and San Pelligrino! The bed is so comfortable and the bathroom is divine... lovely walk-in shower. Views of downtown LA below are the tops. Thank you, Indigo! We will be back soon!</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3260,7333 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>95</v>
+      </c>
+      <c r="X10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>115</v>
+      </c>
+      <c r="X13" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>115</v>
+      </c>
+      <c r="X14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>140</v>
+      </c>
+      <c r="X15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>140</v>
+      </c>
+      <c r="X17" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>140</v>
+      </c>
+      <c r="X18" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>94</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>140</v>
+      </c>
+      <c r="X19" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>94</v>
+      </c>
+      <c r="O20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>173</v>
+      </c>
+      <c r="X20" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>173</v>
+      </c>
+      <c r="X21" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22" t="s">
+        <v>187</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>173</v>
+      </c>
+      <c r="X22" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>94</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>173</v>
+      </c>
+      <c r="X23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>94</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>200</v>
+      </c>
+      <c r="X24" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>94</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>200</v>
+      </c>
+      <c r="X25" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>214</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>200</v>
+      </c>
+      <c r="X26" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s">
+        <v>220</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>94</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>221</v>
+      </c>
+      <c r="X27" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s">
+        <v>228</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>94</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>221</v>
+      </c>
+      <c r="X28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>231</v>
+      </c>
+      <c r="J29" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L29" t="s">
+        <v>234</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>94</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>235</v>
+      </c>
+      <c r="X29" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>94</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>243</v>
+      </c>
+      <c r="X30" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>247</v>
+      </c>
+      <c r="J31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s">
+        <v>250</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>139</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>243</v>
+      </c>
+      <c r="X31" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>257</v>
+      </c>
+      <c r="O32" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>258</v>
+      </c>
+      <c r="X32" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>262</v>
+      </c>
+      <c r="J33" t="s">
+        <v>263</v>
+      </c>
+      <c r="K33" t="s">
+        <v>264</v>
+      </c>
+      <c r="L33" t="s">
+        <v>265</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>258</v>
+      </c>
+      <c r="X33" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>267</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>268</v>
+      </c>
+      <c r="J34" t="s">
+        <v>269</v>
+      </c>
+      <c r="K34" t="s">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s">
+        <v>271</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>214</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>258</v>
+      </c>
+      <c r="X34" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>274</v>
+      </c>
+      <c r="J35" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L35" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>214</v>
+      </c>
+      <c r="O35" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>278</v>
+      </c>
+      <c r="X35" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>282</v>
+      </c>
+      <c r="J36" t="s">
+        <v>283</v>
+      </c>
+      <c r="K36" t="s">
+        <v>284</v>
+      </c>
+      <c r="L36" t="s">
+        <v>285</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>214</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>278</v>
+      </c>
+      <c r="X36" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>288</v>
+      </c>
+      <c r="J37" t="s">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s">
+        <v>289</v>
+      </c>
+      <c r="L37" t="s">
+        <v>290</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>139</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>278</v>
+      </c>
+      <c r="X37" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>292</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>293</v>
+      </c>
+      <c r="J38" t="s">
+        <v>294</v>
+      </c>
+      <c r="K38" t="s">
+        <v>295</v>
+      </c>
+      <c r="L38" t="s">
+        <v>296</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>139</v>
+      </c>
+      <c r="O38" t="s">
+        <v>187</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>297</v>
+      </c>
+      <c r="X38" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>301</v>
+      </c>
+      <c r="J39" t="s">
+        <v>302</v>
+      </c>
+      <c r="K39" t="s">
+        <v>303</v>
+      </c>
+      <c r="L39" t="s">
+        <v>304</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>139</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>297</v>
+      </c>
+      <c r="X39" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>307</v>
+      </c>
+      <c r="J40" t="s">
+        <v>308</v>
+      </c>
+      <c r="K40" t="s">
+        <v>309</v>
+      </c>
+      <c r="L40" t="s">
+        <v>310</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>297</v>
+      </c>
+      <c r="X40" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>312</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>313</v>
+      </c>
+      <c r="J41" t="s">
+        <v>314</v>
+      </c>
+      <c r="K41" t="s">
+        <v>315</v>
+      </c>
+      <c r="L41" t="s">
+        <v>316</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>297</v>
+      </c>
+      <c r="X41" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>318</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>319</v>
+      </c>
+      <c r="J42" t="s">
+        <v>320</v>
+      </c>
+      <c r="K42" t="s">
+        <v>321</v>
+      </c>
+      <c r="L42" t="s">
+        <v>322</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>139</v>
+      </c>
+      <c r="O42" t="s">
+        <v>80</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>323</v>
+      </c>
+      <c r="X42" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>327</v>
+      </c>
+      <c r="J43" t="s">
+        <v>328</v>
+      </c>
+      <c r="K43" t="s">
+        <v>329</v>
+      </c>
+      <c r="L43" t="s">
+        <v>330</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>139</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>323</v>
+      </c>
+      <c r="X43" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>332</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>333</v>
+      </c>
+      <c r="J44" t="s">
+        <v>334</v>
+      </c>
+      <c r="K44" t="s">
+        <v>335</v>
+      </c>
+      <c r="L44" t="s">
+        <v>336</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>139</v>
+      </c>
+      <c r="O44" t="s">
+        <v>80</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>337</v>
+      </c>
+      <c r="X44" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>341</v>
+      </c>
+      <c r="J45" t="s">
+        <v>342</v>
+      </c>
+      <c r="K45" t="s">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s">
+        <v>344</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>139</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>337</v>
+      </c>
+      <c r="X45" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" t="s">
+        <v>348</v>
+      </c>
+      <c r="K46" t="s">
+        <v>349</v>
+      </c>
+      <c r="L46" t="s">
+        <v>350</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>351</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>352</v>
+      </c>
+      <c r="X46" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>355</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>356</v>
+      </c>
+      <c r="J47" t="s">
+        <v>357</v>
+      </c>
+      <c r="K47" t="s">
+        <v>358</v>
+      </c>
+      <c r="L47" t="s">
+        <v>359</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>139</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>360</v>
+      </c>
+      <c r="X47" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>363</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>364</v>
+      </c>
+      <c r="J48" t="s">
+        <v>365</v>
+      </c>
+      <c r="K48" t="s">
+        <v>366</v>
+      </c>
+      <c r="L48" t="s">
+        <v>367</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>139</v>
+      </c>
+      <c r="O48" t="s">
+        <v>187</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>360</v>
+      </c>
+      <c r="X48" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>369</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>370</v>
+      </c>
+      <c r="J49" t="s">
+        <v>371</v>
+      </c>
+      <c r="K49" t="s">
+        <v>372</v>
+      </c>
+      <c r="L49" t="s">
+        <v>373</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>139</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>360</v>
+      </c>
+      <c r="X49" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>376</v>
+      </c>
+      <c r="J50" t="s">
+        <v>377</v>
+      </c>
+      <c r="K50" t="s">
+        <v>378</v>
+      </c>
+      <c r="L50" t="s">
+        <v>379</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>351</v>
+      </c>
+      <c r="O50" t="s">
+        <v>80</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>380</v>
+      </c>
+      <c r="X50" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>383</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>384</v>
+      </c>
+      <c r="J51" t="s">
+        <v>385</v>
+      </c>
+      <c r="K51" t="s">
+        <v>386</v>
+      </c>
+      <c r="L51" t="s">
+        <v>387</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>351</v>
+      </c>
+      <c r="O51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>380</v>
+      </c>
+      <c r="X51" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>389</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>390</v>
+      </c>
+      <c r="J52" t="s">
+        <v>385</v>
+      </c>
+      <c r="K52" t="s">
+        <v>391</v>
+      </c>
+      <c r="L52" t="s">
+        <v>392</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>351</v>
+      </c>
+      <c r="O52" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>393</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>394</v>
+      </c>
+      <c r="J53" t="s">
+        <v>395</v>
+      </c>
+      <c r="K53" t="s">
+        <v>396</v>
+      </c>
+      <c r="L53" t="s">
+        <v>397</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>351</v>
+      </c>
+      <c r="O53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>398</v>
+      </c>
+      <c r="X53" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>401</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>402</v>
+      </c>
+      <c r="J54" t="s">
+        <v>395</v>
+      </c>
+      <c r="K54" t="s">
+        <v>403</v>
+      </c>
+      <c r="L54" t="s">
+        <v>404</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>351</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>398</v>
+      </c>
+      <c r="X54" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>406</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>407</v>
+      </c>
+      <c r="J55" t="s">
+        <v>408</v>
+      </c>
+      <c r="K55" t="s">
+        <v>409</v>
+      </c>
+      <c r="L55" t="s">
+        <v>410</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>351</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>398</v>
+      </c>
+      <c r="X55" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>412</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>413</v>
+      </c>
+      <c r="J56" t="s">
+        <v>414</v>
+      </c>
+      <c r="K56" t="s">
+        <v>415</v>
+      </c>
+      <c r="L56" t="s">
+        <v>416</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>257</v>
+      </c>
+      <c r="O56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>417</v>
+      </c>
+      <c r="X56" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>420</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>421</v>
+      </c>
+      <c r="J57" t="s">
+        <v>422</v>
+      </c>
+      <c r="K57" t="s">
+        <v>423</v>
+      </c>
+      <c r="L57" t="s">
+        <v>424</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>257</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>425</v>
+      </c>
+      <c r="X57" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>428</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>429</v>
+      </c>
+      <c r="J58" t="s">
+        <v>430</v>
+      </c>
+      <c r="K58" t="s">
+        <v>431</v>
+      </c>
+      <c r="L58" t="s">
+        <v>432</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>257</v>
+      </c>
+      <c r="O58" t="s">
+        <v>80</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>433</v>
+      </c>
+      <c r="X58" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>436</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>437</v>
+      </c>
+      <c r="J59" t="s">
+        <v>438</v>
+      </c>
+      <c r="K59" t="s">
+        <v>439</v>
+      </c>
+      <c r="L59" t="s">
+        <v>440</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>154</v>
+      </c>
+      <c r="O59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>433</v>
+      </c>
+      <c r="X59" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>442</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>443</v>
+      </c>
+      <c r="J60" t="s">
+        <v>438</v>
+      </c>
+      <c r="K60" t="s">
+        <v>444</v>
+      </c>
+      <c r="L60" t="s">
+        <v>445</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>446</v>
+      </c>
+      <c r="X60" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>449</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>450</v>
+      </c>
+      <c r="J61" t="s">
+        <v>451</v>
+      </c>
+      <c r="K61" t="s">
+        <v>452</v>
+      </c>
+      <c r="L61" t="s">
+        <v>453</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>257</v>
+      </c>
+      <c r="O61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>454</v>
+      </c>
+      <c r="X61" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>457</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>458</v>
+      </c>
+      <c r="J62" t="s">
+        <v>459</v>
+      </c>
+      <c r="K62" t="s">
+        <v>460</v>
+      </c>
+      <c r="L62" t="s">
+        <v>461</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>154</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>462</v>
+      </c>
+      <c r="X62" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>465</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>466</v>
+      </c>
+      <c r="J63" t="s">
+        <v>467</v>
+      </c>
+      <c r="K63" t="s">
+        <v>468</v>
+      </c>
+      <c r="L63" t="s">
+        <v>469</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>257</v>
+      </c>
+      <c r="O63" t="s">
+        <v>72</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>462</v>
+      </c>
+      <c r="X63" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>471</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>472</v>
+      </c>
+      <c r="J64" t="s">
+        <v>467</v>
+      </c>
+      <c r="K64" t="s">
+        <v>473</v>
+      </c>
+      <c r="L64" t="s">
+        <v>474</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>257</v>
+      </c>
+      <c r="O64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>462</v>
+      </c>
+      <c r="X64" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>476</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>477</v>
+      </c>
+      <c r="J65" t="s">
+        <v>478</v>
+      </c>
+      <c r="K65" t="s">
+        <v>479</v>
+      </c>
+      <c r="L65" t="s">
+        <v>480</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>154</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>481</v>
+      </c>
+      <c r="X65" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>484</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>485</v>
+      </c>
+      <c r="J66" t="s">
+        <v>478</v>
+      </c>
+      <c r="K66" t="s">
+        <v>486</v>
+      </c>
+      <c r="L66" t="s">
+        <v>487</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>154</v>
+      </c>
+      <c r="O66" t="s">
+        <v>72</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>481</v>
+      </c>
+      <c r="X66" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>489</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>490</v>
+      </c>
+      <c r="J67" t="s">
+        <v>478</v>
+      </c>
+      <c r="K67" t="s">
+        <v>491</v>
+      </c>
+      <c r="L67" t="s">
+        <v>492</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>154</v>
+      </c>
+      <c r="O67" t="s">
+        <v>80</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>481</v>
+      </c>
+      <c r="X67" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>494</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>495</v>
+      </c>
+      <c r="J68" t="s">
+        <v>496</v>
+      </c>
+      <c r="K68" t="s">
+        <v>497</v>
+      </c>
+      <c r="L68" t="s">
+        <v>498</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>499</v>
+      </c>
+      <c r="X68" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>502</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>503</v>
+      </c>
+      <c r="J69" t="s">
+        <v>504</v>
+      </c>
+      <c r="K69" t="s">
+        <v>505</v>
+      </c>
+      <c r="L69" t="s">
+        <v>506</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>507</v>
+      </c>
+      <c r="O69" t="s">
+        <v>72</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>508</v>
+      </c>
+      <c r="X69" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>510</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>511</v>
+      </c>
+      <c r="J70" t="s">
+        <v>512</v>
+      </c>
+      <c r="K70" t="s">
+        <v>513</v>
+      </c>
+      <c r="L70" t="s">
+        <v>514</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>507</v>
+      </c>
+      <c r="O70" t="s">
+        <v>72</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>508</v>
+      </c>
+      <c r="X70" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>516</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>517</v>
+      </c>
+      <c r="J71" t="s">
+        <v>518</v>
+      </c>
+      <c r="K71" t="s">
+        <v>519</v>
+      </c>
+      <c r="L71" t="s">
+        <v>520</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>507</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>522</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>523</v>
+      </c>
+      <c r="J72" t="s">
+        <v>524</v>
+      </c>
+      <c r="K72" t="s">
+        <v>525</v>
+      </c>
+      <c r="L72" t="s">
+        <v>526</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>527</v>
+      </c>
+      <c r="O72" t="s">
+        <v>187</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>528</v>
+      </c>
+      <c r="X72" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>531</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>532</v>
+      </c>
+      <c r="J73" t="s">
+        <v>533</v>
+      </c>
+      <c r="K73" t="s">
+        <v>534</v>
+      </c>
+      <c r="L73" t="s">
+        <v>535</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>527</v>
+      </c>
+      <c r="O73" t="s">
+        <v>61</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>536</v>
+      </c>
+      <c r="X73" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>539</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>540</v>
+      </c>
+      <c r="J74" t="s">
+        <v>541</v>
+      </c>
+      <c r="K74" t="s">
+        <v>542</v>
+      </c>
+      <c r="L74" t="s">
+        <v>543</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>527</v>
+      </c>
+      <c r="O74" t="s">
+        <v>72</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>544</v>
+      </c>
+      <c r="X74" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>547</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>548</v>
+      </c>
+      <c r="J75" t="s">
+        <v>541</v>
+      </c>
+      <c r="K75" t="s">
+        <v>549</v>
+      </c>
+      <c r="L75" t="s">
+        <v>550</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>544</v>
+      </c>
+      <c r="X75" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>552</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>553</v>
+      </c>
+      <c r="J76" t="s">
+        <v>541</v>
+      </c>
+      <c r="K76" t="s">
+        <v>554</v>
+      </c>
+      <c r="L76" t="s">
+        <v>555</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>556</v>
+      </c>
+      <c r="O76" t="s">
+        <v>61</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>557</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>558</v>
+      </c>
+      <c r="J77" t="s">
+        <v>559</v>
+      </c>
+      <c r="K77" t="s">
+        <v>560</v>
+      </c>
+      <c r="L77" t="s">
+        <v>561</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>527</v>
+      </c>
+      <c r="O77" t="s">
+        <v>61</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>562</v>
+      </c>
+      <c r="X77" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>565</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>566</v>
+      </c>
+      <c r="J78" t="s">
+        <v>567</v>
+      </c>
+      <c r="K78" t="s">
+        <v>568</v>
+      </c>
+      <c r="L78" t="s">
+        <v>569</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>556</v>
+      </c>
+      <c r="O78" t="s">
+        <v>61</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>570</v>
+      </c>
+      <c r="X78" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>573</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>574</v>
+      </c>
+      <c r="J79" t="s">
+        <v>575</v>
+      </c>
+      <c r="K79" t="s">
+        <v>576</v>
+      </c>
+      <c r="L79" t="s">
+        <v>577</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>578</v>
+      </c>
+      <c r="O79" t="s">
+        <v>72</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>579</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>580</v>
+      </c>
+      <c r="J80" t="s">
+        <v>581</v>
+      </c>
+      <c r="K80" t="s">
+        <v>582</v>
+      </c>
+      <c r="L80" t="s">
+        <v>583</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>556</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>584</v>
+      </c>
+      <c r="X80" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>587</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>588</v>
+      </c>
+      <c r="J81" t="s">
+        <v>589</v>
+      </c>
+      <c r="K81" t="s">
+        <v>590</v>
+      </c>
+      <c r="L81" t="s">
+        <v>591</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>556</v>
+      </c>
+      <c r="O81" t="s">
+        <v>187</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>592</v>
+      </c>
+      <c r="X81" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>595</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>596</v>
+      </c>
+      <c r="J82" t="s">
+        <v>589</v>
+      </c>
+      <c r="K82" t="s">
+        <v>597</v>
+      </c>
+      <c r="L82" t="s">
+        <v>598</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>556</v>
+      </c>
+      <c r="O82" t="s">
+        <v>61</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>592</v>
+      </c>
+      <c r="X82" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>600</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>601</v>
+      </c>
+      <c r="J83" t="s">
+        <v>602</v>
+      </c>
+      <c r="K83" t="s">
+        <v>603</v>
+      </c>
+      <c r="L83" t="s">
+        <v>604</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>556</v>
+      </c>
+      <c r="O83" t="s">
+        <v>61</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>592</v>
+      </c>
+      <c r="X83" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>606</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>607</v>
+      </c>
+      <c r="J84" t="s">
+        <v>608</v>
+      </c>
+      <c r="K84" t="s">
+        <v>609</v>
+      </c>
+      <c r="L84" t="s">
+        <v>610</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>556</v>
+      </c>
+      <c r="O84" t="s">
+        <v>80</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>611</v>
+      </c>
+      <c r="X84" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>614</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>615</v>
+      </c>
+      <c r="J85" t="s">
+        <v>616</v>
+      </c>
+      <c r="K85" t="s">
+        <v>617</v>
+      </c>
+      <c r="L85" t="s">
+        <v>618</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>556</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>619</v>
+      </c>
+      <c r="X85" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>622</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>623</v>
+      </c>
+      <c r="J86" t="s">
+        <v>624</v>
+      </c>
+      <c r="K86" t="s">
+        <v>625</v>
+      </c>
+      <c r="L86" t="s">
+        <v>626</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>556</v>
+      </c>
+      <c r="O86" t="s">
+        <v>61</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>627</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>628</v>
+      </c>
+      <c r="J87" t="s">
+        <v>629</v>
+      </c>
+      <c r="K87" t="s">
+        <v>630</v>
+      </c>
+      <c r="L87" t="s">
+        <v>631</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>556</v>
+      </c>
+      <c r="O87" t="s">
+        <v>187</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>632</v>
+      </c>
+      <c r="X87" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>635</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>636</v>
+      </c>
+      <c r="J88" t="s">
+        <v>637</v>
+      </c>
+      <c r="K88" t="s">
+        <v>638</v>
+      </c>
+      <c r="L88" t="s">
+        <v>639</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>556</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>640</v>
+      </c>
+      <c r="X88" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>643</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>644</v>
+      </c>
+      <c r="J89" t="s">
+        <v>645</v>
+      </c>
+      <c r="K89" t="s">
+        <v>646</v>
+      </c>
+      <c r="L89" t="s">
+        <v>647</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>556</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>648</v>
+      </c>
+      <c r="X89" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>651</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>652</v>
+      </c>
+      <c r="J90" t="s">
+        <v>653</v>
+      </c>
+      <c r="K90" t="s">
+        <v>654</v>
+      </c>
+      <c r="L90" t="s">
+        <v>655</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>578</v>
+      </c>
+      <c r="O90" t="s">
+        <v>187</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>656</v>
+      </c>
+      <c r="X90" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>659</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>660</v>
+      </c>
+      <c r="J91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K91" t="s">
+        <v>662</v>
+      </c>
+      <c r="L91" t="s">
+        <v>663</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>578</v>
+      </c>
+      <c r="O91" t="s">
+        <v>61</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>664</v>
+      </c>
+      <c r="X91" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>667</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>668</v>
+      </c>
+      <c r="J92" t="s">
+        <v>669</v>
+      </c>
+      <c r="K92" t="s">
+        <v>670</v>
+      </c>
+      <c r="L92" t="s">
+        <v>671</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>578</v>
+      </c>
+      <c r="O92" t="s">
+        <v>61</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>672</v>
+      </c>
+      <c r="X92" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>675</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>676</v>
+      </c>
+      <c r="J93" t="s">
+        <v>669</v>
+      </c>
+      <c r="K93" t="s">
+        <v>677</v>
+      </c>
+      <c r="L93" t="s">
+        <v>678</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>578</v>
+      </c>
+      <c r="O93" t="s">
+        <v>61</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>672</v>
+      </c>
+      <c r="X93" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>680</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>681</v>
+      </c>
+      <c r="J94" t="s">
+        <v>682</v>
+      </c>
+      <c r="K94" t="s">
+        <v>683</v>
+      </c>
+      <c r="L94" t="s">
+        <v>684</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>578</v>
+      </c>
+      <c r="O94" t="s">
+        <v>72</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>685</v>
+      </c>
+      <c r="X94" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>688</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>689</v>
+      </c>
+      <c r="J95" t="s">
+        <v>690</v>
+      </c>
+      <c r="K95" t="s">
+        <v>691</v>
+      </c>
+      <c r="L95" t="s">
+        <v>692</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>693</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>694</v>
+      </c>
+      <c r="X95" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>697</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>698</v>
+      </c>
+      <c r="J96" t="s">
+        <v>699</v>
+      </c>
+      <c r="K96" t="s">
+        <v>700</v>
+      </c>
+      <c r="L96" t="s">
+        <v>701</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>693</v>
+      </c>
+      <c r="O96" t="s">
+        <v>187</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>702</v>
+      </c>
+      <c r="X96" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>705</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>706</v>
+      </c>
+      <c r="J97" t="s">
+        <v>707</v>
+      </c>
+      <c r="K97" t="s">
+        <v>708</v>
+      </c>
+      <c r="L97" t="s">
+        <v>709</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>693</v>
+      </c>
+      <c r="O97" t="s">
+        <v>61</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>710</v>
+      </c>
+      <c r="X97" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>713</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>714</v>
+      </c>
+      <c r="J98" t="s">
+        <v>715</v>
+      </c>
+      <c r="K98" t="s">
+        <v>716</v>
+      </c>
+      <c r="L98" t="s">
+        <v>717</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>693</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>710</v>
+      </c>
+      <c r="X98" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>719</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>720</v>
+      </c>
+      <c r="J99" t="s">
+        <v>721</v>
+      </c>
+      <c r="K99" t="s">
+        <v>722</v>
+      </c>
+      <c r="L99" t="s">
+        <v>723</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>724</v>
+      </c>
+      <c r="O99" t="s">
+        <v>61</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>725</v>
+      </c>
+      <c r="X99" t="s">
+        <v>726</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>728</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>729</v>
+      </c>
+      <c r="J100" t="s">
+        <v>730</v>
+      </c>
+      <c r="K100" t="s">
+        <v>731</v>
+      </c>
+      <c r="L100" t="s">
+        <v>732</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>724</v>
+      </c>
+      <c r="O100" t="s">
+        <v>80</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>733</v>
+      </c>
+      <c r="X100" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>736</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>737</v>
+      </c>
+      <c r="J101" t="s">
+        <v>738</v>
+      </c>
+      <c r="K101" t="s">
+        <v>739</v>
+      </c>
+      <c r="L101" t="s">
+        <v>740</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>741</v>
+      </c>
+      <c r="O101" t="s">
+        <v>61</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>742</v>
+      </c>
+      <c r="X101" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>744</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>745</v>
+      </c>
+      <c r="J102" t="s">
+        <v>746</v>
+      </c>
+      <c r="K102" t="s">
+        <v>747</v>
+      </c>
+      <c r="L102" t="s">
+        <v>748</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>724</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>749</v>
+      </c>
+      <c r="X102" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>752</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>753</v>
+      </c>
+      <c r="J103" t="s">
+        <v>754</v>
+      </c>
+      <c r="K103" t="s">
+        <v>755</v>
+      </c>
+      <c r="L103" t="s">
+        <v>756</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>724</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>757</v>
+      </c>
+      <c r="X103" t="s">
+        <v>758</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>760</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>761</v>
+      </c>
+      <c r="J104" t="s">
+        <v>762</v>
+      </c>
+      <c r="K104" t="s">
+        <v>763</v>
+      </c>
+      <c r="L104" t="s">
+        <v>764</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>724</v>
+      </c>
+      <c r="O104" t="s">
+        <v>61</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>765</v>
+      </c>
+      <c r="X104" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>768</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>769</v>
+      </c>
+      <c r="J105" t="s">
+        <v>770</v>
+      </c>
+      <c r="K105" t="s">
+        <v>771</v>
+      </c>
+      <c r="L105" t="s">
+        <v>772</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>741</v>
+      </c>
+      <c r="O105" t="s">
+        <v>72</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="s"/>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>773</v>
+      </c>
+      <c r="X105" t="s">
+        <v>774</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>776</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>777</v>
+      </c>
+      <c r="J106" t="s">
+        <v>778</v>
+      </c>
+      <c r="K106" t="s">
+        <v>779</v>
+      </c>
+      <c r="L106" t="s">
+        <v>780</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>781</v>
+      </c>
+      <c r="X106" t="s">
+        <v>782</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>784</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>785</v>
+      </c>
+      <c r="J107" t="s">
+        <v>786</v>
+      </c>
+      <c r="K107" t="s">
+        <v>787</v>
+      </c>
+      <c r="L107" t="s">
+        <v>788</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>741</v>
+      </c>
+      <c r="O107" t="s">
+        <v>61</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="n">
+        <v>2</v>
+      </c>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>789</v>
+      </c>
+      <c r="X107" t="s">
+        <v>782</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>791</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>792</v>
+      </c>
+      <c r="J108" t="s">
+        <v>793</v>
+      </c>
+      <c r="K108" t="s">
+        <v>794</v>
+      </c>
+      <c r="L108" t="s">
+        <v>795</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>741</v>
+      </c>
+      <c r="O108" t="s">
+        <v>61</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>796</v>
+      </c>
+      <c r="X108" t="s">
+        <v>797</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>799</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>800</v>
+      </c>
+      <c r="J109" t="s">
+        <v>801</v>
+      </c>
+      <c r="K109" t="s">
+        <v>802</v>
+      </c>
+      <c r="L109" t="s">
+        <v>803</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>741</v>
+      </c>
+      <c r="O109" t="s">
+        <v>72</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="s"/>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>804</v>
+      </c>
+      <c r="X109" t="s">
+        <v>805</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>807</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>808</v>
+      </c>
+      <c r="J110" t="s">
+        <v>809</v>
+      </c>
+      <c r="K110" t="s">
+        <v>810</v>
+      </c>
+      <c r="L110" t="s">
+        <v>811</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>741</v>
+      </c>
+      <c r="O110" t="s">
+        <v>61</v>
+      </c>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>812</v>
+      </c>
+      <c r="X110" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>815</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>816</v>
+      </c>
+      <c r="J111" t="s">
+        <v>817</v>
+      </c>
+      <c r="K111" t="s">
+        <v>818</v>
+      </c>
+      <c r="L111" t="s">
+        <v>819</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>741</v>
+      </c>
+      <c r="O111" t="s">
+        <v>61</v>
+      </c>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="s"/>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>812</v>
+      </c>
+      <c r="X111" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>821</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>822</v>
+      </c>
+      <c r="J112" t="s">
+        <v>817</v>
+      </c>
+      <c r="K112" t="s">
+        <v>823</v>
+      </c>
+      <c r="L112" t="s">
+        <v>824</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>741</v>
+      </c>
+      <c r="O112" t="s">
+        <v>61</v>
+      </c>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>812</v>
+      </c>
+      <c r="X112" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>826</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>827</v>
+      </c>
+      <c r="J113" t="s">
+        <v>828</v>
+      </c>
+      <c r="K113" t="s">
+        <v>829</v>
+      </c>
+      <c r="L113" t="s">
+        <v>830</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="s">
+        <v>831</v>
+      </c>
+      <c r="O113" t="s">
+        <v>61</v>
+      </c>
+      <c r="P113" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="s"/>
+      <c r="S113" t="s"/>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>2</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>832</v>
+      </c>
+      <c r="X113" t="s">
+        <v>833</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>835</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>836</v>
+      </c>
+      <c r="J114" t="s">
+        <v>837</v>
+      </c>
+      <c r="K114" t="s">
+        <v>838</v>
+      </c>
+      <c r="L114" t="s">
+        <v>839</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>831</v>
+      </c>
+      <c r="O114" t="s">
+        <v>80</v>
+      </c>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="s"/>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s">
+        <v>840</v>
+      </c>
+      <c r="X114" t="s">
+        <v>841</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>843</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>844</v>
+      </c>
+      <c r="J115" t="s">
+        <v>845</v>
+      </c>
+      <c r="K115" t="s">
+        <v>846</v>
+      </c>
+      <c r="L115" t="s">
+        <v>847</v>
+      </c>
+      <c r="M115" t="n">
+        <v>4</v>
+      </c>
+      <c r="N115" t="s">
+        <v>831</v>
+      </c>
+      <c r="O115" t="s">
+        <v>72</v>
+      </c>
+      <c r="P115" t="s"/>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s"/>
+      <c r="U115" t="s"/>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>848</v>
+      </c>
+      <c r="X115" t="s">
+        <v>849</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>851</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>852</v>
+      </c>
+      <c r="J116" t="s">
+        <v>853</v>
+      </c>
+      <c r="K116" t="s">
+        <v>854</v>
+      </c>
+      <c r="L116" t="s">
+        <v>855</v>
+      </c>
+      <c r="M116" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" t="s">
+        <v>831</v>
+      </c>
+      <c r="O116" t="s">
+        <v>61</v>
+      </c>
+      <c r="P116" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q116" t="s"/>
+      <c r="R116" t="n">
+        <v>4</v>
+      </c>
+      <c r="S116" t="s"/>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>3</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s">
+        <v>856</v>
+      </c>
+      <c r="X116" t="s">
+        <v>857</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>859</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>860</v>
+      </c>
+      <c r="J117" t="s">
+        <v>861</v>
+      </c>
+      <c r="K117" t="s">
+        <v>862</v>
+      </c>
+      <c r="L117" t="s">
+        <v>863</v>
+      </c>
+      <c r="M117" t="n">
+        <v>5</v>
+      </c>
+      <c r="N117" t="s">
+        <v>831</v>
+      </c>
+      <c r="O117" t="s">
+        <v>72</v>
+      </c>
+      <c r="P117" t="s"/>
+      <c r="Q117" t="n">
+        <v>5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>5</v>
+      </c>
+      <c r="S117" t="s"/>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>5</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s">
+        <v>864</v>
+      </c>
+      <c r="X117" t="s">
+        <v>865</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>64627</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>867</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>868</v>
+      </c>
+      <c r="J118" t="s">
+        <v>869</v>
+      </c>
+      <c r="K118" t="s">
+        <v>870</v>
+      </c>
+      <c r="L118" t="s">
+        <v>871</v>
+      </c>
+      <c r="M118" t="n">
+        <v>5</v>
+      </c>
+      <c r="N118" t="s">
+        <v>831</v>
+      </c>
+      <c r="O118" t="s">
+        <v>53</v>
+      </c>
+      <c r="P118" t="s"/>
+      <c r="Q118" t="s"/>
+      <c r="R118" t="s"/>
+      <c r="S118" t="s"/>
+      <c r="T118" t="s"/>
+      <c r="U118" t="s"/>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>871</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_410.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_410.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="987">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Hwi G</t>
+  </si>
+  <si>
     <t>07/04/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>When checked into hotel, the hotel receptionist, Jordon, was very friendly and helpful. Gave good suggestions (ie parking, etc) and have me a free upgrade. The hotel is really beautiful and great location. I will recommend the hotel to anybody. I would totally come back.More</t>
   </si>
   <si>
+    <t>ks c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r591569694-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -205,6 +211,9 @@
   </si>
   <si>
     <t>This downtown hotel is bright and clean, my room had wood floors and bathroom had a window that opened.  I asked for a quiet room and my room faced the inside streets and was relatively quiet.  The AC is a bit loud, but I liked the big bathroom windows because it brought in a lot of light.   Walls are very thin, I could here the guest in room above and next to me walk around, as well as the sounds from the corridor.Overall the hotel's theme seems to be 'young and hip'More</t>
+  </si>
+  <si>
+    <t>TravelDan2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r591536448-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
@@ -230,6 +239,9 @@
 Location: Convenient to most of downtown LA but the immediate surroundings are dreary--it's a 10 minute,...Hotel Indigo LA Downtown is fairly new and has some clever design touches, but overall I found it disappointing and would not recommend it given the many choices in the area. Service was slow and not particularly friendly.Room: The standard room was smallish, average size for a downtown hotel--nicely designed but certainly nothing special. Higher floor rooms facing northwest would have nice views, all other rooms just face nearby buildings. The room was rather noisy, with some street noise and surprisingly even noise from the room above. Amenities: The pool is okay but very small, with no spa. The fitness center was good. The top-floor lounge had nice views while the lobby was small and congested. Annoyingly, an event closed the outdoor patio and most of the pool the entire time I was there-- no notice or consideration given to guests. I think that happens often at this hotel. Service: Below average. When I checked in the front desk agent initially claimed I could only get a low-floor, disabled access room--unless I paid an upgrade fee. (Of course, when I refused this, another room magically became available.) I wasn't offered any choice of room location or view, even when I inquired. In general staff was unfriendly, never greeting guests. Used room service dishes remained in the hallway the entire time I was there. Location: Convenient to most of downtown LA but the immediate surroundings are dreary--it's a 10 minute, somewhat isolated walk to LA Live/Staples Center or the heart of downtown.More</t>
   </si>
   <si>
+    <t>twinklestar821</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r591496686-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -254,6 +266,9 @@
     <t>Very fancy hotel with beautiful art deco. Excellent location as it is close to the highway. However, the room cleaning and maintenance was quite disgusting, with reused mats, a broken coffee machine, a small dead insect and various hairs on the floor, and a lack of refilled bath gels.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r591486679-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -278,6 +293,9 @@
     <t>The room Wow us as we enter! It’s so hollywood style and super conveniently located with supermarket and eatery within walking distant! However if you drive, parking fee in the hotel is USD46 daily, you can find cheaper carpark nearby within walking distant too.More</t>
   </si>
   <si>
+    <t>jamiechystudios</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r591351735-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -293,6 +311,9 @@
     <t>I had a wonderful time staying at the Hotel Indigo last week, everything was luxury and the staff made you feel like family. I was impressed by the artistic detail put into every part of the experience!More</t>
   </si>
   <si>
+    <t>noahmacfaden</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r590289022-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -320,6 +341,9 @@
     <t>We stayed in the hotel for 3 nights while attending a 2 day event in the conference rooms on the 3rd floor, and it was so convienient. The rooms are super hip, reminiscent of Vegas, with great views of downtown Los Angeles. The only parking option is valet, and we were in and out a lot- but our Valet, Rios, was super cool, and made everything super easy. We’d be back.More</t>
   </si>
   <si>
+    <t>Michael P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r589815778-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -338,6 +362,9 @@
     <t>Our stay at the Hotel Indigo was fantastic. When we checked in we were greeted with a complementary upgrade (perhaps because it was a Monday night), nevertheless the room was amazing. Spacious, comfortable, and very modern. I'd highly recommend this hotel to anyone visiting LA! More</t>
   </si>
   <si>
+    <t>Lee W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r589481714-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -356,6 +383,9 @@
     <t>Hotel Indigo is conveniently located just a short walk from LA Live, making it ideal for attending conferences or nearby events. The hotel feels very modern and new - the rooms are very clean, well decorated and comfortable. The pool and gym and great, and the bar and restaurant are also very good. The only negative was that during our stay, there was only one team member at reception which meant for 10 minute waits each time we had a delivery or query.More</t>
   </si>
   <si>
+    <t>t0kra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r588217132-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -395,6 +425,9 @@
     <t>As first time visitors to LA we were very nervous about where to stay. Couldn’t have been happier than we were with this hotel. All the staff were friendly and always made a point to greet us. The rooms were squeaky clean and the decor was so impressive. We always felt safe as well. There is plenty to do within walking distance and even a Target a few blocks away. The train is also within walking distance and is a great cheap way to commute. More</t>
   </si>
   <si>
+    <t>reggeeburd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r588155407-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -410,6 +443,9 @@
     <t>Loved the attention to detail.  Staff was courteous and helpful.  Decor was welcoming and comfortable.The hotel is centrally located to many restaurants and of course, the Staples Center.  Highly recommended!!More</t>
   </si>
   <si>
+    <t>dobeautifulthingz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r587425933-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -428,6 +464,9 @@
     <t>The rooms were beautiful, extremely quiet and the bed was super comfortable!  The restaurant had great food and the bar area was fun.  The customer service was excellent throughout the entire hotel. The pool area was beautiful as well!More</t>
   </si>
   <si>
+    <t>Marie F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r587226582-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -455,6 +494,9 @@
     <t>I stayed here for 4 nights and had a very positive experience. The facilities are very new and clean. The front desk staff was very accommodating with suggestions and assistance. It was nice to have a bar and restaurant downstairs with super cool decor. I was traveling with children and grateful there were some more kid-friendly options to eat.  We also enjoyed the pool and outdoor areas on the rooftop. It was easy to get around downtown and environs and walkable to markets and shopping. Would definitely stay again!More</t>
   </si>
   <si>
+    <t>christyiamluv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r587213175-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -473,6 +515,9 @@
     <t>I reserved my booking through booking.com where I paid for lodging and breakfast for 3. Upon checkin I was told that the reservation only included breakfast for 2 despite my confirmation and proof of booking. The host at guest services continued by telling me that nothing could be done about it, so I contacted booking.com and they assured me that the matter would be resolved. This is not the way I envisioned the start of my vacation. So, as we made our way to our room upon inspection we noticed the room was not cleaned at all. The floors were dirty with stains and dried substances but the worst of it was a used bandaid hanging from the air conditioning unit. I went back down to the front desk where I was promptly placed in a different room. All this happen within the first few hours of my stay made for a very exhausting and frustrating experience; not to mention being in my third trimester of pregnancy.  To Booking.com's  credit the matter involving the breakfast passes was taken care of and honored. The next day, however, I noticed that I was being overcharged for my stay. I went back to the front desk with a copy of my reservation, after making me wait several minutes before acknowledging me, Shai, the desk attendant finally offered her assistance. She gave me a hand written explanation of the charges, even after I requested...I reserved my booking through booking.com where I paid for lodging and breakfast for 3. Upon checkin I was told that the reservation only included breakfast for 2 despite my confirmation and proof of booking. The host at guest services continued by telling me that nothing could be done about it, so I contacted booking.com and they assured me that the matter would be resolved. This is not the way I envisioned the start of my vacation. So, as we made our way to our room upon inspection we noticed the room was not cleaned at all. The floors were dirty with stains and dried substances but the worst of it was a used bandaid hanging from the air conditioning unit. I went back down to the front desk where I was promptly placed in a different room. All this happen within the first few hours of my stay made for a very exhausting and frustrating experience; not to mention being in my third trimester of pregnancy.  To Booking.com's  credit the matter involving the breakfast passes was taken care of and honored. The next day, however, I noticed that I was being overcharged for my stay. I went back to the front desk with a copy of my reservation, after making me wait several minutes before acknowledging me, Shai, the desk attendant finally offered her assistance. She gave me a hand written explanation of the charges, even after I requested a formal print out of all charges. How is that acceptable? I again had to spend a considerable part of my vacation trying to right wrongs that were not my own. I again called booking.com and they assured my that the matter would be handled which is was but this caused me a lot of undue stress and hassle only for them to take $40 off the my bill. I would not recommend this place to any one else. Horrible and unwarranted experience!!! I will say that the rest of the service staff were excellent and pleasant. My advice is to think twice about booking here or not at all! I read the reviews before my stay and was impressed so it's hard not to think I was given the worst intentionally!More</t>
   </si>
   <si>
+    <t>Zenzar123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r586440081-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -494,6 +539,9 @@
     <t>We had a 2 night stay, and out room was modern furnishing and comfortable. A maor plus is that the hotel is within walking distance to LA Live for evening dining options with plenty of restaurants and bars, which we enjoyed. Staples Center is also located here should there be an event on.The staff are friendly and helpful. One minus is that parking is via valet and very expensive per night, but this may be typical for LA. The hotel is close to freeway which makes driving easy. The hotel is in a business area, but still OK for tourists to use. Also, Skyspace LA is located nearby for great sunset views, plus the nearby intercontinental hotel is worth a visit for drink - the bar is on a high floor offering great views.More</t>
   </si>
   <si>
+    <t>Amir Saman M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r586310042-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -512,6 +560,9 @@
     <t>I spent four nights in a room at the 16th floor. Overall, I would recommend staying here if you need access to downtown LA (walking distance to many restaurants, museums and shopping centers), don't want to spend a lot for a fancy hotel and still want the comfort of a nice hotel. The price is not high for what you get. My room was clean and well organized/designed and I don't have any complaints about the bathroom. However, there were a few things I didn't like about my stay:- The service (mainly room service) needs improvement: I asked for dental floss twice and after about an hour, someone brought me a toothbrush and a toothpaste.- You can hear the hallway noise in your room, especially during the night.More</t>
   </si>
   <si>
+    <t>spilcher26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r585861626-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -530,6 +581,9 @@
     <t>We walked into the hotel to check in at 3:30 pm and the lobby was completely full of people that had already checked in and were waiting for their rooms. After standing in a painfully slow line we were told that "We are running a tight ship and your room is not ready. Can you check back in an hour?" We were then handed a token for the "inconvenience"  a buy one get one free drink in their upstairs bar. I later found out that they give the tokens to everyone that checks in, it's their way of promoting the bar. We had dinner plans at 6:00 pm and because of the inconvenience we had no time to rest before dinner after a long drive in from Vegas. We paid for a room that was supposed to be ready at 3:00 pm not 4:45 pm. Aside from this the room was nice, the gym was awesome and the pool was nice. We did not order room service but the menu was one of the best selections that I have seen in LA. Thankfully we wake up early because the next morning...Saturday morning on Memorial weekend at 7:30 am just down the street from the hotel there is road construction, repaving the road complete with cars and trucks honking, jack hammers and all the other loud noises that come from construction occurring, We were on the 7th floor and the sound...We walked into the hotel to check in at 3:30 pm and the lobby was completely full of people that had already checked in and were waiting for their rooms. After standing in a painfully slow line we were told that "We are running a tight ship and your room is not ready. Can you check back in an hour?" We were then handed a token for the "inconvenience"  a buy one get one free drink in their upstairs bar. I later found out that they give the tokens to everyone that checks in, it's their way of promoting the bar. We had dinner plans at 6:00 pm and because of the inconvenience we had no time to rest before dinner after a long drive in from Vegas. We paid for a room that was supposed to be ready at 3:00 pm not 4:45 pm. Aside from this the room was nice, the gym was awesome and the pool was nice. We did not order room service but the menu was one of the best selections that I have seen in LA. Thankfully we wake up early because the next morning...Saturday morning on Memorial weekend at 7:30 am just down the street from the hotel there is road construction, repaving the road complete with cars and trucks honking, jack hammers and all the other loud noises that come from construction occurring, We were on the 7th floor and the sound carried up to our room as if we were on the 1st floor. I felt bad for the guys next door that partied the night before who told us they wanted to sleep in. It is a very hip, attractive hotel but for the money you are paying I felt it was completely unacceptable for the room not to be ready and I feel we should have all been comped for the time we had to wait. I will not stay at Indigo again.More</t>
   </si>
   <si>
+    <t>Tanya E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r584727248-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -554,6 +608,9 @@
     <t>Had an amazing stay at the gorgeous Hotel Indigo LA Downtown.  Staff were so friendly and welcoming.  Chris Salas, one of the breakfast servers, deserves a special shoutout for being exceptionally friendly, knowledgable about the area and for doing such a great British accent!More</t>
   </si>
   <si>
+    <t>quinterojules</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r584462115-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -572,6 +629,9 @@
     <t>Cool new hotel in downtown LA near LA Live. Lots of restaurants and bars in walking distance. Room was obviously new and very modern with Keurig machine. Fantastic view of LA from the room and I liked the super comfy bed. My friend got a decent rate from Priceline. The bar and restaurant on the 18th floor have the most amazing views in LA, you must check it out at night. Friendly staff - Catherine the Manager is extremely professional and Javie is the downtown LA guru! He gave me a map and recommended some great restaurant nearby the hotel. I was also given a discount token and free access to pool area, weather did not permit me to dip in the pool but looks gorgeous. I will definitely come back soon, hopefully I can get same rate that my friend paid for our room.More</t>
   </si>
   <si>
+    <t>Brian D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r584216443-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -593,6 +653,9 @@
     <t>Hotel is very nice and also the people there, the location is good, even though there is construction going on next to the building, but didn't take too much time to find the hotel. Juan Bellman gave me a very good tour, the equipment is very nice! the view of the pool is fantastic. I will be there next time!More</t>
   </si>
   <si>
+    <t>eric334334</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r583097199-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -611,6 +674,9 @@
     <t>The hotel is very nice. Every floor has a different theme. The reason I rated it a 2 was because of valet. If I knew valet was $46 a day then I would not have booked this hotel. On Saturday May 26 when we arrived back at the hotel, the valet staff took their time coming to our car. We sat there almost a minute before they stopped talking and came to assist. The younger guys during the day are always fast. The two older guys at night, not so much.More</t>
   </si>
   <si>
+    <t>AndrewRodney</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r582462388-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -635,6 +701,9 @@
     <t>New, very nice and clean, great staff. Close to convention center. Had one dinner and three breakfast's in the hotel, all excellent. Very clean and quiet on 10th floor. Big rooms, very comfortable bed.More</t>
   </si>
   <si>
+    <t>Camille A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r582098330-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -653,6 +722,9 @@
     <t>Completely enjoyed our experience at Hotel Indigo! Our room was modern, clean and incredibly comfortable. We had a corner room with the greatest views of downtown that reminded you just how close you were to great entertainment, restaurants, and bars. Susan, who helped check us into our room, was so attentive to us and even called to make sure everything was up to par once we settled into the room. She, along with every other employee we interacted with during our stay, was super warm and welcoming and made our visit so great. We hope to be back soon!More</t>
   </si>
   <si>
+    <t>JohnroFlorida</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r580728954-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -674,6 +746,9 @@
     <t>Totally loved this hotel. Went to a game at Staples Center and it was nice to be so close to the arena and LA Live.  Newer hotel with an old Hollywood look. Even though Hollywood was a short train ride away we felt like with the decor we were right in the middle of Old Hollywood. Finally the hotel staff was always helpful and knowledgeable of the area. More</t>
   </si>
   <si>
+    <t>Leah O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r579621754-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -698,6 +773,9 @@
     <t>My daughter and I stayed here when we came to town for Dragcon at the Los Angeles Convention Center. It is within walking distance and a pleasant walk with much to see and do along the way. We got to the hotel earlier than check in time which is 3 pm. I had called and they said they could keep our luggage until we checked in. When we got to the desk they instead checked us in early. What a nice surprise!  The hotel is very uniquely decorated with tons to look at. Every elevator is different. We were on the 13th floor and the view is fabulous. The room is very comfortable. It has a small frig and a small safe. The bed was super comfortable with really nice pillows. With the kerig machine they offered tea along with coffee which is great for me. Our room was very clean. We hadn’t eaten all day so we had late lunch early dinner at the hotel restaurant and it was fabulous. Lots of vegetarian options. The only small thing I wish the hotel offered would be bottled water for purchase in out room. Oh there is free WiFi and a USB port on both sides of the bed. Very cool and convenient. More</t>
   </si>
   <si>
+    <t>pj_singapore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r579091099-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -714,6 +792,9 @@
   </si>
   <si>
     <t>I have stayed at other Hotel Indigo hotels many times. Came to Indigo Los Angeles for conference. The location is superb and all staff I encountered were attentive from arrival to departure. The rooms was handsomely decorated and lobby was well designed. I loved the breakfast bar and lobby music.More</t>
+  </si>
+  <si>
+    <t>Calvin W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r578567562-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
@@ -748,6 +829,9 @@
 The worst part is actually the room itself which looks amazing but seems to be poorly constructed. I don't think I've ever stayed in a hotel where there was more random rattling and popping noises coming from the wall. If you like sleeping quietly through the night, this hotel is not for you. The AC is horrible as well. They brag about the low dB level for the unit, but unfortunately 1) it's not very efficient at heating/cooling and 2) it's poorly mounted so while the AC is quiet, you can...Pretty disappointing hotel which I can't recommend to anyone. The staff here is generally poor-mannered and not at the level of service one would expect for a hotel charging $250+ per night. The experience with the staff was disappointing from start to finish- pulled up at around 11PM to check-in and no one came to help with luggage, offer assistance, or bother to open the door even though there were plenty of people standing around- our room was noisy and the staff was initially unhelpful and unwilling to move us to a quieter location. quite rude as well- no service either as I was leaving and carrying my luggage. Had to open my own door which makes me sound like a diva, but if you have 3 people standing around and you see me with both hands occupied, do your job and offer me some hospitality.The worst part is actually the room itself which looks amazing but seems to be poorly constructed. I don't think I've ever stayed in a hotel where there was more random rattling and popping noises coming from the wall. If you like sleeping quietly through the night, this hotel is not for you. The AC is horrible as well. They brag about the low dB level for the unit, but unfortunately 1) it's not very efficient at heating/cooling and 2) it's poorly mounted so while the AC is quiet, you can hear the vibrations from the mounts. Again you need to choose whether you want to be at a comfortable temperature or be constantly disturbed by vibrations.More</t>
   </si>
   <si>
+    <t>MLEEUNDERWOOD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r577659050-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -776,6 +860,9 @@
 Lastly, there is no coffee maker in the room, which i found very odd.  Additionally, there is no coffee in the lobby.  The only place to get coffee is at the bar or the restaurant.  I asked the bar tender for a coffee as i was checking out that morning.  He gave me the coffee and then I walked away.  He signaled me back to "pay the check."  It was $3.00 plus dollars for a tiny cup of coffee.  I was quite impressed that the hotel has the gal to charge guests $3 for what should otherwise be free coffee...I really wanted to give this a hotel a 4 or 5 rating because the staff is very friendly, the rooms are very nice, and the location is good, but here's why i couldnt bring myself to do so:  When i first checked in, i was given a room overlooking the outside pool area with music thumping at 4:00 pm on a rainy 60 degree day with not a person in sight.  The music was so loud that i immediately asked for a different room.  The rooms all have special air conditioner units that are very high-tech and new, but complicated to operate via the remote control you're given.  I couldnt tell if the a/c was supposed to be constantly on, but it was.  I even went on the internet to try and find an owners manual, to no avail.  Lastly, there is no coffee maker in the room, which i found very odd.  Additionally, there is no coffee in the lobby.  The only place to get coffee is at the bar or the restaurant.  I asked the bar tender for a coffee as i was checking out that morning.  He gave me the coffee and then I walked away.  He signaled me back to "pay the check."  It was $3.00 plus dollars for a tiny cup of coffee.  I was quite impressed that the hotel has the gal to charge guests $3 for what should otherwise be free coffee in a $250 per night hotel.More</t>
   </si>
   <si>
+    <t>Travelaroundtheworkd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r577271104-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -794,6 +881,9 @@
     <t>I stayed here during Herbalife. After traveling over 10 hours from Asia, I was really tired and just wanted to get into my room. Christine, the manager at the front desk, was very helpful. The check-in process was very smooth. She made sure that I was satisfied with everything my room. She explained every amenities offered in the hotel since this was my first time staying at the Hotel Indigo LA Downtown. The room was amazing especially with the view. However, one thing I was a little bit disappointed was the breakfast options. I feel like there was not much options for Chinese Travelers. Overall, great stay. Highly recommended!!!More</t>
   </si>
   <si>
+    <t>thesarahbella</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r573843526-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -821,6 +911,9 @@
     <t>I was initially very excited for my stay at the Hotel Indigo. I had read nothing but good reviews, the location looked good, and the hotel itself looked beautiful. I would like to warn potential guests that there is something being ignored here. Once we checked in and got into our room, a member of our group took a very unpleasant shower. The shower head setting were irrelevant because the holes were so clogged up that it functioned only as a jet. We informed the hotel staff and they went to change the head while we were out for lunch. We had no idea the permanent jet setting was a blessing in disguise. For the rest of our stay we had water pressure equal to a light rain. The temperature regulator in the shower was also broken. The water was either ice cold or hot enough to burn your skin. The staff does not seem to have mastered communication. Our room only had 2 water glasses and we had four guests in the room. The cleaning staff never took our dirty glasses to replace them each day. We, on multiple occasions, called guest services to ask for more glasses. Each occasion required a minimum of three calls to the desk and often a walk down there to finally get someone to bring us glasses. I was truly astonished at the amount of time we had to wait for such a...I was initially very excited for my stay at the Hotel Indigo. I had read nothing but good reviews, the location looked good, and the hotel itself looked beautiful. I would like to warn potential guests that there is something being ignored here. Once we checked in and got into our room, a member of our group took a very unpleasant shower. The shower head setting were irrelevant because the holes were so clogged up that it functioned only as a jet. We informed the hotel staff and they went to change the head while we were out for lunch. We had no idea the permanent jet setting was a blessing in disguise. For the rest of our stay we had water pressure equal to a light rain. The temperature regulator in the shower was also broken. The water was either ice cold or hot enough to burn your skin. The staff does not seem to have mastered communication. Our room only had 2 water glasses and we had four guests in the room. The cleaning staff never took our dirty glasses to replace them each day. We, on multiple occasions, called guest services to ask for more glasses. Each occasion required a minimum of three calls to the desk and often a walk down there to finally get someone to bring us glasses. I was truly astonished at the amount of time we had to wait for such a simple request. My biggest issue is with the valet situation. It costs $42 + tax to valet your car there overnight. Something I find unreasonable to begin with. They valet staff and hotel staff failed to inform us at any point that we would be charged this fee automatically. Upon check out, I was given the invoice, showing we had racked up a $346 valet charge over he course of our 7 night stay. When we expressed our disappointment to the hotel and valet staff, they didn’t seem to care at all. They just said “okay” in response to anything until we walked away. Then, no one helped us load our suitcases into the vehicle or assisted us in any way as we got ready to leave. More</t>
   </si>
   <si>
+    <t>NitinDawar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r573584944-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -839,6 +932,9 @@
     <t>1.) The staff is very sniffy and 2.) The staff is unknown about the hospitality.3.) Property is not comfort.4.) Need to improvement of the staff quality.5.) Front desk staff is not known to treat with the guests.6.) Room service staff is unknown about the own hotel policies.More</t>
   </si>
   <si>
+    <t>Monica B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r573270251-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -855,6 +951,9 @@
   </si>
   <si>
     <t>Depending where your business obligations are, this is a great choice. Only you will know if the hotel is in walking distance to your meetings. This location was perfect for my needs. There are some food opportunities in walking distance, including a Whole Foods, just a few blocks away.More</t>
+  </si>
+  <si>
+    <t>Gabriel L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r571351286-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
@@ -887,6 +986,9 @@
 Front Desk: when I checkout I found that they have charged me 7 days of valet parking which I have only used on the first day, and I told the front desk guy he was rude and keep shaking his leg and ask me to go outside and talk to the valet counter myself, I was very pissed off that he didn’t ask and need me to ask by myself. Eventually I managed to ask him to take care of it but end up he calculated the wrong parking fee again, and the 3rd time they finally calculate it...My family of 3 members stayed here for a week, the hotel is nice and very convenient to go to all locations. But the service was poor, Room Service: We have 3 people and all they gave us was just 2 sets of everything, when we call and ask them to give one more set they have missed it for two times and when they finally remember it they gave me almost 20 hair conditioner, shampoo and body wash, very unprofessional and trying to short me. Secondary, the room service will never tidy up our iron, slippers and towels, iron with the wire all spread out, they didn’t tidy it up for us, slippers was same location and everywhere on the floor, and towels was messy. One time I thought the room was not done yet but I didn’t ask eventually. Front Desk: when I checkout I found that they have charged me 7 days of valet parking which I have only used on the first day, and I told the front desk guy he was rude and keep shaking his leg and ask me to go outside and talk to the valet counter myself, I was very pissed off that he didn’t ask and need me to ask by myself. Eventually I managed to ask him to take care of it but end up he calculated the wrong parking fee again, and the 3rd time they finally calculate it right. I advice you guys to check your bill when you checkout. Valet Parking: They were just standing there and see my whole family moving the luggage by ourselves and didn’t offer any help, I never seen this kind of bad service before. Overall experience it was good in terms of the environment and structure. But the service was the worst I ever have for all hotels I have ever lived. Those staffs need to train better and more professional. It’s not a cheap hotel anyway, customers should not deserve these attitude. More</t>
   </si>
   <si>
+    <t>Niesha F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r571151597-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -905,6 +1007,9 @@
     <t>I have to admit this hotel was great! Super nice and clean, the room was so cool and the hotel staff was professional. We stayed here for two nights on a Hotwire deal to go to Universal Studios with three little excited kids. Everyone was friendly, everyone had smiles and they went out of their way to help us. Ruben specifically went out of his way to help us load up all of our bags, ( we had a lot) organize and make it easier for travel on a road trip! He was awesome and we are so thankful for the customer service! See you next time and Ruben thank you so much!!!More</t>
   </si>
   <si>
+    <t>emkada84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r571051734-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -920,6 +1025,9 @@
     <t>Stayed here for 3 nights for a business trip in LA. Was upgraded on arrival and the room was fantastic - very spacious with a great view of the pool. Breakfast was good as were the gym facilities. Would definitely stay here again if needing to be in Downtown LA. My only complaint was check-out. As some others have stated, check-out too much, much longer than I would expect at any hotel. I waited over 20 minutes in line despite multiple people working behind the desk.More</t>
   </si>
   <si>
+    <t>courtney k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r569788291-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -944,6 +1052,9 @@
     <t>Kyle at the front desk gives amazing customer service! He always has a smile on and is more than willing to accommodate requests. Thank you Kyle! Beautiful hotel. Great views. The Cobb salad, burger, and steak are all very good. Beautiful lobby. Cool bar. More</t>
   </si>
   <si>
+    <t>Christopher W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r569488645-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -962,6 +1073,9 @@
     <t>We chose this due to the proximity of the Staples Center and weren't disappointed. Beautiful hotel that left us with smiles on our face. People are very friendly and helpful to our needs. Great restaurants near by. Definitely recommend this to friends, family and anyone that would ask. If we are ever in LA again, this will be our base again.More</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r568985483-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -980,6 +1094,9 @@
     <t>Chai and Kyle made this experience and stay enjoyable during my travel to LA for the marathon weekend. Both went well above and beyond to ensure I was taken care of during my stay at the Indigo LA. The service and amenities here are great. Enjoyed my visit and am now a loyal guest at their properties.More</t>
   </si>
   <si>
+    <t>Walker B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r568786353-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -998,6 +1115,9 @@
     <t>I visited for a night and was swiftly taken care of by the valet. Juan at the front desk made sure my room had water, snacks, and helped with my luggage. Exceptional service! I look forward to staying here again More</t>
   </si>
   <si>
+    <t>HansBriese</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r567335614-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1022,6 +1142,9 @@
     <t>Brilliant staff!When booking this hotel last week Kyle, the charismatic and definitely enthusiastic front desk reception made a booking simple and enjoyable. Though I made the reservation for a friend, he treated me as if I was a guest,Staff and the location are both world class.The indigo Hotel is new and fabulous.I highly recommend anyone to stay here!And if you’re fortunate enough to meet Kyle I’m sure you’ll have a great experience too.Hans.More</t>
   </si>
   <si>
+    <t>Fredshon Caesar C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r567141603-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1040,6 +1163,9 @@
     <t>Kyle is the one helping us. His really helpful, welcoming and making us comfortable. This place is really amazing. We had a long day and he make our stay wonderful, giving us a really great view and he also helped us for dinner restaurant. If you looking for a wonderful and helpful staff, great location come to hotel Indigo. And ask for kyle, who have my word!! he will help you out. Thank you..More</t>
   </si>
   <si>
+    <t>laurenprioreschi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r566658416-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1064,6 +1190,9 @@
     <t>I booked this room through a third party site using a "pay what you feel" option.  I loved the location and hipster vibe of the hotel (if you're going to LA why not go all the way).  Definetly worth staying here for the selfies alone! (hey when in Rome, OK)!However, what really made this an experience worth reviewing was the service provided by Javie at the front desk   He went above and beyond really making me feel like an invited guest not just a reservation.  People are what can change experiences from "just like any other" to "something to write home about"  if you take Javie out of Hotel Indigo it would just be another nameless overpriced experience.More</t>
   </si>
   <si>
+    <t>Megan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r566522344-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1082,6 +1211,9 @@
     <t>I was in town on business for one night and was lucky enough to stay at Hotel Indigo while I was there. I was able to check in a bit early, and the concierge was very friendly. There was a conference in the hotel as well, but they did not interfere with my stay at all.My room was on the 7th floor and had a great view of downtown. It was a great size, and the bathroom was gorgeous! I felt very comfortable, and was able to work during the afternoon on very reliable wifi. Was not bothered at all by other guests and slept well overall.The hotel is in a great location, walking distance to several convenience stores, restaurants and bars, and great pick up location for rideshare services.More</t>
   </si>
   <si>
+    <t>Rosquete</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r565927152-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1109,6 +1241,9 @@
     <t>4* Hotel Indigo999 FranciscoLos AngelesConvenient location; close to Staples CenterEarly 20’s/Hollywood retro motif that has been modernizedFriendly hotel staffBoutique roomsMinus: Hated the showers that had weird showerhead, swivel cord that was a pain to adjust. Caused water on bathroom floor.More</t>
   </si>
   <si>
+    <t>AiredaleTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r564657651-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1133,6 +1268,9 @@
     <t>I am torn, writing this review.  The physical plant and rooms in this hotel are very good to excellent.  But, the service was mediocre at best.  So, let's start with the building and the room.  The lobby is chic and upscale - a great place for a cup of coffee in the morning or a cocktail in the evening.  The location of the hotel is perfect if you're exploring or conducting business in downtown Los Angeles.  And the rooms are perfect - very nice for the price point.  We stayed in a corner room on the 13th floor with spectacular views on two sides.  I highly recommend upgrading to a corner room.  The bed was very comfortable, the toiletries - Jonathan Adler Champagne - were very nice (scent/quality).  A few picky items . . . the shower water temperature was never hot enough - not even when you turned the lever to the hottest level.  And, the sofa in the room was very uncomfortable.  It looked nice - but, it was hard and uncomfortable - even with pillows.  Now, on to the service.  From the front desk to the bar area - there are problems.  The front desk staff were unwelcoming and unfriendly.  I saw this not only with my arrival - but, each time that I walked through the lobby and watched them interact with other guests (over a 48 hour period).  The room service was abysmal.  We tried...I am torn, writing this review.  The physical plant and rooms in this hotel are very good to excellent.  But, the service was mediocre at best.  So, let's start with the building and the room.  The lobby is chic and upscale - a great place for a cup of coffee in the morning or a cocktail in the evening.  The location of the hotel is perfect if you're exploring or conducting business in downtown Los Angeles.  And the rooms are perfect - very nice for the price point.  We stayed in a corner room on the 13th floor with spectacular views on two sides.  I highly recommend upgrading to a corner room.  The bed was very comfortable, the toiletries - Jonathan Adler Champagne - were very nice (scent/quality).  A few picky items . . . the shower water temperature was never hot enough - not even when you turned the lever to the hottest level.  And, the sofa in the room was very uncomfortable.  It looked nice - but, it was hard and uncomfortable - even with pillows.  Now, on to the service.  From the front desk to the bar area - there are problems.  The front desk staff were unwelcoming and unfriendly.  I saw this not only with my arrival - but, each time that I walked through the lobby and watched them interact with other guests (over a 48 hour period).  The room service was abysmal.  We tried to order room service twice.  Both times, the operator said that it would be 30 minutes.  Both times, we waited for more than an hour and then canceled the service.  The hotel needs to fix this issue.  Either be truthful with guests and tell us that it will be 1 hour - or, actually arrive somewhere close to 30 minutes after we place our orders.  The bartenders were unfriendly and acted as if we were inconveniencing them when we placed orders and spent money at the bar!  I will say - one exception to the consistently poor service - the one valet who was very friendly and efficient when he retrieved our car on our last morning.  One final comment - the fitness center looked nice enough - but all of the treadmills this weekend were inoperable except for one.  We called this to the attention of the attendant and he told us that it has "been this way" and management is not repairing the inoperable equipment.  My last comment - I had a similar experience up the street at the Hotel Intercontinental last year.  Interesting - that hotel and the Indigo are both owned by the same company.  Maybe they should listen to guests and improve their customer service.  My next stay downtown will be at the Ritz or JW Marriott.  Those locations know how to treat their guests.More</t>
   </si>
   <si>
+    <t>67DTW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r564455934-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1151,6 +1289,9 @@
     <t>The Hotel Indigo is a recently opened property in downtown LA ... located close to LA LIVE and the Staples Center.  Easy access is afforded from the 110 / Habor Freeway exiting to 9th Street and the hotel is right there on your left side on Francisco Street.    The hotel staff were friendly and professional.  Room was clean and functional.  Only one warming to guests ... you may want to opt out of getting a room assigned on the 17th floor ... do to its proximity to the lounge on 18 and the weekend DJ thumping out music until 2am might be considered counterproductive to your sleeping before the music ceases.    All in all , the stay has been pleasant , staff has been helpful &amp; kind.  I’d stay at the property again when visiting downtown Los Angeles.More</t>
   </si>
   <si>
+    <t>Tedi J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r564006311-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1169,6 +1310,9 @@
     <t>The reviews did not match up for this DTLA property. With a location next to the freeway off-ramp you will venture away from this destination for food and fun. There is construction across the street and the lobby is small and just meh. The hallways are dark and gloomy like being in the Disney Tower of Terror. The room is clean and somewhat trendy. The bed is comfy, but the pillows are horrible and the bath towels are super small and therefore deemed useless. Bath products are dolled out in small quantities and there are no cotton balls or q-tips. One saving grace is the view! Good job on that and the window that lets fresh air in!Another place next time!More</t>
   </si>
   <si>
+    <t>Alexiacobelli</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r563007392-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1193,6 +1337,9 @@
     <t>I was in town with my wife and daughter, couple of days of relaxation. The property is beautiful and located centrally downtown. Service was spot on and check in staff simply perfect. My room had a gorgeous view, and everything in it was new and super chic. I would def recommend this, and i will gladly stay here on my next visit. The gent at the front desk was awesome( Jamie), good work.More</t>
   </si>
   <si>
+    <t>mscarolynrose</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r562844415-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1211,6 +1358,9 @@
     <t>I needed a hotel as I came to LA for some medical appointments at USC. The staff was all very helpful. The hotel and room was modern and clean. My dog was welcomed and doted on my the valet attendants. I will book with Hotel Indigo again when I return to LA in a couple of months.More</t>
   </si>
   <si>
+    <t>Tamara P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r562798913-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1223,6 +1373,9 @@
     <t>I stayed here a few weeks ago and fell in love.  They are discreetly located in walking distance from Staples Center.  I was upgraded to a suite by the manager.  I loved the decor, staff and all the cool things nearby.  Really beautiful and well-worth the money.I will highly recommend this to all of my out-of-towners!  LOVE!</t>
   </si>
   <si>
+    <t>Lesego R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r560756152-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1247,6 +1400,9 @@
     <t>Beautiful hotel centrally located. Stunning rooms with minimal yet capturing deco pieces and fabulous wall paper. Comfortable beds too. Professional and friendly staff from warm welcome at reception. The restaurant has a great menu and the food is just amazing. I would definitely recommend it. More</t>
   </si>
   <si>
+    <t>Kiki D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r560711718-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1262,6 +1418,9 @@
     <t>The location of this hotel is awesome- it is walking distance to Staples Center! If you upgrade to a higher floor you can get an awesome view of the city and Staples Center (we were on the 9th floor). It was also a short and cheap Uber ride to Hollywood &amp; Universal City as well! They have a stunning 18th floor bar/lounge which was perfect for an evening drink before going out on the town.The hotel was gorgeously decorated inside. Modern, new, quirky and had one of a kind decor &amp; design!  The room and bathroom were huge and the beds very comfy. I am also a very light sleeper and noticed the windows were quite sound proof for being in a busy city. One tip about the hotel parking: The valet is expensive but there is a self parking lot across the street that you can park at for $10 per 24 hours, I believe, but they only down side is that there are no in a out privileges so once you leave you will have to pay another $10 to get back into the lot.More</t>
   </si>
   <si>
+    <t>Luis R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r560346767-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1280,6 +1439,9 @@
     <t>Greatly located in the heart of downtown Los Angeles; the design is awesome, service is excellent and the brand is lovelly. Very close to the convention center, staples center and the fig and seven livestyle center. More</t>
   </si>
   <si>
+    <t>AMW1224</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r557922026-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1302,6 +1464,9 @@
   </si>
   <si>
     <t>I stayed at Hotel Indigo last week during a work trip and I loved it! I was super impressed by the rooms - cleanliness, decor, comfort, and amenities (soaps, etc.) Room was a nice size and I will definitely stay here again when visiting DTLA.More</t>
+  </si>
+  <si>
+    <t>NorCalSurferDuuude23</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r557661181-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
@@ -1338,6 +1503,9 @@
 We did stop by the 18th floor bar, great views but not much time to...What a great place!! I have been travelling a lot lately on business, often ending up in Los Angeles!! Never heard of this hotel but gave it a shot!! Great valet, immediately available and welcoming (kinda pricey parking $42/day) but who doesn't charge those rates these days??  Anyway, they told us the cost, no surprise at check out!!We arrived early, yet no problem!  The man at the desk had a room ready for us--I don't remember his name but something with a J--Latino gentleman, friendly and welcoming as well!!  Cool lobby, nothing like it that we have stayed at.  Dropped off our luggage, room 1107?? Great room, great view, great bath amenities, champagne something by Jonathan Adler??  Wife loved it!! First stop: Lobby bar where Julian a young man welcomed us, he was busy with another guest at the bar and immediately apologized for the delay (which was no delay).  He shared how he loves the hotel and company that he works for!! Such a pleasant guy!!  Had a few drinks, and a Julian Special, raspberry drink: On Point!  Julian recommended places to visit and explore while in LA but did not have much time on this trip.Lobby/Bell hop gentlemen were very attentive, I had some computer work to catch up on, they had me set up in the lobby to work away!! We did stop by the 18th floor bar, great views but not much time to enjoy, explored the pool, heated and great to have to our selves for a while.  This was a short trip but definitley want to return REAL SOON!!More</t>
   </si>
   <si>
+    <t>TauniaR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r556943728-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1364,6 +1532,9 @@
 When we entered the hotel, there were three people at the front desk and no one acknowledged our friends to even make eye contact or welcome them to the hotel.  We went to the bar for drinks, and even though the bartender was very nice, he forgot our drinks until we reminded him - and that happened twice.  We were 4 of only 6 in the bar at the time.  At breakfast the next morning, we stood at the hostess desk for 5 or more minutes before anyone appeared.  We were seated and I asked for coffee and water, but I got coffee and juice.  I ordered off the menu rather than getting the buffet and it took over 30 minutes to get bacon and eggs and that only happened after we went back to the kitchen because none of the waiters came by to even check on us.  Again, we were 4 of less than a dozen people...My husband and I stayed here one night with another couple when we were going to a concert at Microsoft Theater.  From the moment we walked through the door, I was disappointed purely from a customer service standpoint.  The hotel itself was beautiful, but it’s all downhill from there.  The women’s bathroom in the lobby smelled horrible - like something had died there.  I used that bathroom three different times and it was the same each time on two different days.  When we entered the hotel, there were three people at the front desk and no one acknowledged our friends to even make eye contact or welcome them to the hotel.  We went to the bar for drinks, and even though the bartender was very nice, he forgot our drinks until we reminded him - and that happened twice.  We were 4 of only 6 in the bar at the time.  At breakfast the next morning, we stood at the hostess desk for 5 or more minutes before anyone appeared.  We were seated and I asked for coffee and water, but I got coffee and juice.  I ordered off the menu rather than getting the buffet and it took over 30 minutes to get bacon and eggs and that only happened after we went back to the kitchen because none of the waiters came by to even check on us.  Again, we were 4 of less than a dozen people there.  Our friends came downstairs after us, and one of them ordered a side of fruit.  Same thing happened and she was then charged for a buffet which she didn’t eat.  Customer service training and management is desperately needed.  Nice people, but poorly trained, poorly supervised and in need of immediate management if this place is going to survive.More</t>
   </si>
   <si>
+    <t>Slrms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r555565930-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1382,6 +1553,9 @@
     <t>In mid December Hotel Indigo hosted 2 events for my sons wedding. A Friday night Rehearsal sit down dinner for 65 people with a set menu and the most delicious dinner and a Sunday Brunch in the Metropole Kitchen which was wonderful too Each and every step of the way the people I worked with we're extremely helpful cooperative and helped to make this a most memorable eventOla was fantastic in helping suggesting and organizing everything making sure that each detail was taken care of. She was very easy to work withJessica and her team with Zac organized a fantastic Rehearsal dinner . Nothing was too much for them including last minute montage arrangements!The Hotel staff were wonderful checking us in and distributing our welcome packages as guests checked in including Ruben. We chose Hotel Indigo as the Hotel for all our guests to stay for the wedding. Evertybody loved staying there and it's proximity to so many downtown places to see and enjoy. Thank you to all the staff and employees who made our wedding weekend so memorable ! We look forward to returning to stay again in the near future and defin ately highly recommend it for events and accommodationMore</t>
   </si>
   <si>
+    <t>qbancncer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r555392980-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1403,6 +1577,9 @@
     <t>Some friends and I were attending a sponsored pool party event on their pool and deck and we booked a room for the night. The room was cute and the beds were very comfortable. Love the farm-style door to the bathroom and the glass shower. This was a fun stay and I would definitely come back.More</t>
   </si>
   <si>
+    <t>Kenneth W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r555282821-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1427,6 +1604,9 @@
     <t>Brand New Indigo is a perfect spot for business or pleasure . The price point was better than I expected and the lobby , room and 18th floor bar we’re all well appointed and upper tier. I chuckle to myself that only in LA would I see Gerard Butler walking the Red Carpet a few blocks from this hotel to actually watching Khalid filming a music video at Hotel Indigo ! After dinner options at either Wolfgang Pucks at the Ritz or any of the other great dining at LA Live it’s a must to journey up to the 18th floor to have a night cap at Hotel Indigo. The living room type layout with Staples Center and LA Live at your feet made for a great spot to enjoy a drink ! Book this hotel before the rates escalate and the word gets out !More</t>
   </si>
   <si>
+    <t>VeronicaR67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r551383536-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1451,6 +1631,9 @@
     <t>After travelling for five weeks we spent our last three days at the Indigo before back home.Generally the stay was ok. Location is good, close to the Staples centre, restaurants and metro. Areas of improvement include the breakfast set up and coffee service. Never got a hot coffee and the breakfast is a compromised set up. A 350 room hotel and that tiny restaurant are always going to struggle at breakfast. The rooms are ok but water pressure in the showers was terrible, seems to be a common issue.Staff were pretty good all around.More</t>
   </si>
   <si>
+    <t>john c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r550778130-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1469,6 +1652,9 @@
     <t>Horrible service.   Water pressure in rooms terrible.  Food room service minor league (cold or just no delivery).  Pitiful experience.  Management does not show enough interest to help cure problems.   Never giving this IMG Ambassador program another opportunity. More</t>
   </si>
   <si>
+    <t>Ronal24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r550776470-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1484,6 +1670,9 @@
     <t>We booked a package deal for the Rose Bowl with many people staying at the hotel. They were clearly not prepared for the number of guests despite knowing a big group reserved. Check in took an hour and even though several hundred guests were booked for the Rose Bowl they didn’t anticipate a crowd for dinner after the game and only had one waitress at the restaurant. Took 1.5 hours to get our food. More</t>
   </si>
   <si>
+    <t>Titembe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r549825248-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1508,6 +1697,9 @@
     <t>I read reviews and had a subdued view but I was pleasantly surprised by the staff and the room. Check in staff at 8PM on 12/27/17 went above and beyond anything I expected. She asked how I was I said "exhausted" (wife hates how honest I can be sometimes).  Front desk person offered a late checkout without me even mentioning it.  Thank goodness. I even signed up for the rewards program. We were on the 18th floor, no noise from rooms above.  We loved the room so much that we didn't want to leave. Typical room, yes but it's the little things that stood out. Like motion sensor ambient lighting whenever we got out of bed, or the bathroom sliding door that had a coushioned close feature so you couldn't slam it.  Or maybe the fantastic rain style shower heads with handheld capability. Or maybe the soft-close toilet. Or the USB charge ports at the head of the bed. Gripes are few: comedy central was spotty on the TV and I hit my shin on the bedfrane 3 times. But don't let that ruin it for you. I am clumsy. View was OK but we loved it. More</t>
   </si>
   <si>
+    <t>Kaypers M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r549759531-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1523,6 +1715,9 @@
     <t>Wow!  What a beautiful hotel this is.  Our room was on the 18th floor overlooking the Staples Center.   We came for the basketball and couldn’t have been happier with the location, literally a 2 minute stroll away.  The interior decor of this hotel is so carefully thought out - rooms and public areas are just beautiful.  Great value for money with a la carte breakfast included for the 4 of us in the restaurant.Our room had 2 big Queen size beds, huge bathroom, fantastic coffee pod machine, super quite air conditioner, window that opened, floorboards, Johnathan Adler amenities.The pool area was great, the pool was warm there was ping-pong, foosballl, hacky sack, and a fire pit.The ‘Social’ bar on level 18 was fun with incredible views of LA.Love this hotel, will be recommending it to everyone - thanks for a great stay.  A special shout out to Alfretz on the front desk for going over and above to sort my IHG membership out.Negatives - hotel still feels very new and perhaps lacks a little soul.  Bathroom could do with a ‘daylight’ lighting option - but that’s all!More</t>
   </si>
   <si>
+    <t>Lauren D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r549747835-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1538,6 +1733,9 @@
     <t>This hotel is sooo beautiful and the location is perfect! So many things are within walking distance so it makes it easy to try new restaurants and bars, Our favorite part was Ruben! He helped us bring our bags up and was so accommodating and genuinely wanted us to enjoy our stay! Definitely will be staying here again!More</t>
   </si>
   <si>
+    <t>Mary C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r543231889-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1562,6 +1760,9 @@
     <t>I normally stay in hotels outside of the busy city of Los Angeles but since my business trip had me working in the downtown area this Hotel was a warm welcoming surprise. The nearby restaurants galore, shopping, and many close things to venture to was a wonderful surprise. The hotel itself has a fresh &amp; modern feel about it. It was great to use many of their amenities and literally stay in after a long day at the office!!! I thoroughly enjoyed my stay &amp; will be back on my next trip to Los Angeles, CA.More</t>
   </si>
   <si>
+    <t>BoLaterveer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r543022904-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1584,6 +1785,9 @@
   </si>
   <si>
     <t>We recently stayed at the Indigo Los Angeles Downtown Hotel for a long weekend. The location of the hotel was excellent, right in the middle of downtown within easy walking distance of LA Live, the Staples Center and other downtown attractions. The hotel was very clean, the staff was very friendly and accommodating. Overall a great experience. I can highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>LamerDeJoy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r542753607-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
@@ -1620,6 +1824,9 @@
 -Front office / reception are cold. They never have smile. I knew you are chic boutique hotel but nothing wrong if you smile and non verbal language mean you smile not only lips but eyes if it 's from inside. (Only one front office guy...I like :- New, I gave them 6 stars for the room with the superb bed. (2 queen sizes) The shower room is huge than I can imagine for business hotel . - Great location in downtown , my last night stay I found my luggage broken and I ran to nearest Target alone at 10.40pm , it may dark and look scary but I was completely safe.- Lovely Breakfast ; our room package include 30$ credit  / person for  a la carte or buffet (25$ each)- After 24 hours of 2 flights include 7 hours transit we arrive hotel around 11.30am , I really appreciated front office allow us to check in 12.30pm however the guy who check in for us  seem unfriendly he not informs us about breakfast or hotel amenities- Bellman “Nelson” and young doorman seem to be the most friendly with great service .- We have only 3 nights in LA and not have much time for shopping , we order something online and arrive hotel a couple days before check in. I appreciated Mr.Alfrez for this courier arrangement we got them  What hotel can improve?-Front office / reception are cold. They never have smile. I knew you are chic boutique hotel but nothing wrong if you smile and non verbal language mean you smile not only lips but eyes if it 's from inside. (Only one front office guy I met on Sunday morning seem friendly and he is kind enough to print map of nearest FedEx.)-I was informed by waiter at the restaurant that room package include choice of breakfast either 30$ per person credit or buffet . We took a la cart twice but on the check out day ,we took buffet becoz it’s 6.30 am and driver was already there waiting to take us to airport by 7am. What I got when I back home is . They charge me buffet for 2. I send mail and still wait for answer of this issue, hope it's just misunderstood.-Bar on 18 Social is small but lovely , bartender is cold and very arrogant. I almost give up to order and back to room. We regret that we are unable to see the pool I think it must be a lovely spot. Our room is 0616 view is not bad .More</t>
   </si>
   <si>
+    <t>lolo_pastouche</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r538308860-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1638,6 +1845,9 @@
     <t>I'm surprised to see this Hotel ranked so low on TA.This is a new IHG property, centrally located in Downtown. The property is beautiful and found the service to be impeccable, even better than many Intercontinental properties I have stayed that.There was a long check-in line when I arrived at 3:30 PM. I believe it was the GM who apologized to everyone in line and handed out bottled waters.I found all staff members from valet to check-in clerks to be very friendly and inviting.As a Platinum member, I was upgraded to a King Corner Suite on the 15th floor. The room was very spacious and well distribuited, with amazing views.The bar area on the lobby was surprisinly good with great appetizers. I tried the beef weelington sliders and foie gras wontons and were excellent for a light snack.There are also multiple restaurants and a coffee shop within a few blocks. Overall a great hotel and will stay again.More</t>
   </si>
   <si>
+    <t>nycguy1234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r536768958-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1665,6 +1875,9 @@
     <t>Had package delivered to front desk —told 3 times nothing arrived. Finally brought down tracking number from UPS and someone actually looked and found package. MOST IMPORTANTLY, LOUD dance party in pool area until 1:30 a.m. If you have any desire to sleep before then while visiting Los Angeles, pick another hotel.More</t>
   </si>
   <si>
+    <t>Shelly J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r535968340-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1689,6 +1902,9 @@
     <t>I stayed here for a work conference. Checked in room dirty, called, cleaned, room still dirty, light bulb burnt out in rest room, too dark, called cleaned, still dirty no bulb. Finally 3rd day of 5 day stay cleaned. No offer to compensate except a brownie, fruit and water left in room. Manager won’t return call!!! More</t>
   </si>
   <si>
+    <t>Apert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r533586581-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1713,6 +1929,9 @@
     <t>The room was new spacious clean and comfortable. We stayed in a double queen room. The beds were so comfy with comfy comforters and 4 pillows each. The water pressure in the shower was amazing and got warm fast. We stayed here 4 nights here and the only complaint I had was the price of the valet. I felt it was too expensive. There is cheaper parking nearby but we didn't have my husband with us and I didn't feel safe dragging the kids by myself.We also ate buffet breakfast Saturday am and it was very good and had some bar bites one night also good.More</t>
   </si>
   <si>
+    <t>aloha_ak_2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r533468950-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1728,6 +1947,9 @@
     <t>We went to a LA Lakers game and stayed for one night. Friendly staff, very clean and spacious rooms. Stylish bar. We loved it and would return anytime. If you don't want to pay the valet parking, there is more affordable parking lots very close to the hotel. More</t>
   </si>
   <si>
+    <t>Moira T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r533427851-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1743,6 +1965,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Marco Antonio N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r531541401-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1767,6 +1992,9 @@
     <t>Hotel location is very good.Rooms not the best but confortables and clean , I mean if you are paying 300USD at least you expect above normal.Parking is 46 USD night, you can leave your car 1 block away in a parking lot for 10 USD.Food is taste average but expensive. E.g. buffet for breakfast with eggs, french toasts, some bread and cereals 27 USD.Social lounge is great. Amaizing view!Service is more than great, all the personel is awesome.More</t>
   </si>
   <si>
+    <t>rtaves2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r531217162-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1791,6 +2019,9 @@
     <t>Very nice room, it was clean and set up well.  We had really good food during our meetings.  The staff was very attentive. Seemed like all of our attendees enjoyed themselves and we got great feedback from the group.  Overall great experience!!More</t>
   </si>
   <si>
+    <t>JWLP51</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r530898076-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1809,6 +2040,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>lizzydizzy21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r529150298-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1833,6 +2067,9 @@
     <t>This hotel is absolutely fantastic from the room to the service and the location breath taking views the room was fabulous the service at breakfast was excellent the staff were super.Would highly recommend this hotel if you want class then this is the hotel for youMore</t>
   </si>
   <si>
+    <t>slosie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r528389333-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1857,6 +2094,9 @@
     <t>I booked this hotel because of its location and was not disappointed. This hotel is within a couple blocks of LA Live, a block from the Pantry, and a 10 minute walk to the 7th Street Metro stop. The hotel itself is nice and the staff is friendly. The room was quiet and I appreciated that the window in the room could open for fresh air. The Jonathan Adler toiletries were great. The bed was very comfortable. I would definitely stay here again.  The hotel was busy when I was there and the reception desk was always crowded with people waiting to check-in every time I passed it. I did have to wait about 10 minutes to check-in, but I wasn't in a hurry so it was okay.   Just a few notes: the room I was in did not have carpet, which may or may not be true for all the rooms. Had I known I would have brought slippers with me. Not a big deal though. Also there wasn't a do not disturb sign in my room or a room service menu. Not sure if this is the case with all the rooms though.More</t>
   </si>
   <si>
+    <t>Ross G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r528287254-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1872,6 +2112,9 @@
     <t>I stayed and had meetings here recently and from arrival to departure the experience was top-notch. First of all it is a very cool and unique hotel and the attention to detail and design create a great atmosphere. The sleeping room was great, meeting space was conducive to a productive program, and the restaurant did not disappoint. Perhaps most importantly the service was excellent all around. Very friendly and knowledgeable staff.  I would highly recommend the Hotel Indigo for business or pleasure if you are looking to stay in downtown L.A.More</t>
   </si>
   <si>
+    <t>Adam F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r528149205-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1890,6 +2133,9 @@
     <t>I was greeted at arrival by Nelson who took excellent care in leading me thru the check-in and up to my room.  The hotel is full of natural light and the meeting rooms are perfectly located when coming from my guest room.  I had a caesar salad with bacon for lunch in the restaurant which was very good and the bread was served with crafted butter flavors which was unique and hit the spot.  Thank you, will be back!!More</t>
   </si>
   <si>
+    <t>bjohnson21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r527885711-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1914,6 +2160,9 @@
     <t>I was very excited to stay at this new hotel. My expectations were definitely met once we arrived. I did not meet one single employee that had anything less than a smile while offering great service and recommendations.  We reserved 2 rooms for our girls trip. We arrived a little early and opted to pay the $45 early check in fee for one of the rooms to get changed for the day ahead. I never knew this was an option but it was definitely appreciated. Our room was beautiful and had a great 10th floor view of the Staples Center as well as LA Live. 2 minor issues with the room was the clicking of the air conditioner throughout the night which made it a little difficult to sleep and the water pressure of the shower was like taking a bath with a power washer. It was literally painful. Our friends in the other suite did not have the same water issue so I think it was unique to our room. I did mention this upon checking out so I'm sure it has been resolved by now. All in all a wonderful stay and I will most definitely return.More</t>
   </si>
   <si>
+    <t>tapatia86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r526411045-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1938,6 +2187,9 @@
     <t>First the valet parking service is so great. Tony was really helpful and had great customer service he was great ask for Tony in valet. The rooms are amazing as well the food they have there is amazing as well More</t>
   </si>
   <si>
+    <t>Darlene G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r524744755-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1953,6 +2205,9 @@
     <t xml:space="preserve">It's a great place! Conveniently located with easy access to restaurants and the downtown scene. Although no guarantee for pet free rooms, I was grateful to experience the newness of fresh smells and clean furniture. Staff was fantastic. Jordan, the bellhop, was attentive, organized and efficient. </t>
   </si>
   <si>
+    <t>safergus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r523185746-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1975,6 +2230,9 @@
   </si>
   <si>
     <t>Very nice hotel Downtown, within easy walking distance of the Staples Center. The staff are very friendly &amp; helpful. The rooms are very comfortable, although it was a bit of a struggle to keep the temperature constant.Overall, highly recommended for a Downtown location.More</t>
+  </si>
+  <si>
+    <t>Nathan H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r522112174-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
@@ -2005,6 +2263,9 @@
 One of my new favourite hotels. The only negatives for me were A) the coffee (worst I'd had in LA; I expected a decent barista style coffee but what I received was terrible - same for my partner). B) the staff - some were amazing, including the receptionist at check in who was super nice and helpful. Others were complete opposite - one of the bar staff looked like she wanted to be anywhere else other than work and one of the receptionists was really unhelpful when I asked for local recommendations - she had an attitude and didn't...I visit LA regularly however I usually always stay in Santa Monica or Hollywood and this was my first time staying in downtown LA in over a decade! First things first, the location is super - downtown LA has transformed and it's obvious money is being invested on it! The hotel is close to all the major transport links and a short walk from the vibrant bars and restaurants DTLA had to offer.The hotel itself is stunning - beautiful building, perfectly decorated and still manages to keep that unique Indigo feel to it which is what makes Hotel Indigo my personal favourite IHG brand. The reception and bar are welcoming and the restaurant serves up a fantastic breakfast. The rooms are spacious and comfortable and the bar up on the 18th floor is definitely somewhere to visit for a cocktail! One of my new favourite hotels. The only negatives for me were A) the coffee (worst I'd had in LA; I expected a decent barista style coffee but what I received was terrible - same for my partner). B) the staff - some were amazing, including the receptionist at check in who was super nice and helpful. Others were complete opposite - one of the bar staff looked like she wanted to be anywhere else other than work and one of the receptionists was really unhelpful when I asked for local recommendations - she had an attitude and didn't want to help.So all in all pretty perfect!More</t>
   </si>
   <si>
+    <t>SusieNG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r521568546-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2031,6 +2292,9 @@
 Now this is where things begin to turn fuzzy...the front desk staff seemed peppy and genuinely happy to be there; however, I ended up checking in with a seemingly irritated front desk female clerk.  She was only concerned with getting through the check-in process as fast as she could, wasn't very friendly, and failed to mention any further information standard to a check-in process (i.e how much deposit/ incidentals were, valet parking costs, etc.) She was also careless and seemed annoyed that I had reserved the room using a Travelzoo voucher and actually ended up giving us drink vouchers with the word "SAMPLE" written on the back.  When I went to go redeem them at the bar Social 18, one of the bartenders made me feel like a criminal for even having them.  He told me he couldn't redeem them because the word sample was on the back and asked which room I was staying in.  Still...I had heard so many great reviews on this hotel from many friends who've stayed here previously, plus based on all the stellar reviews- I thought this has definitely got to be where I need to spend my Labor Day weekend!  The valet staff was very friendly and on point, and as soon as I walked into the lobby, was blown away at how gorgeous it was! Beautiful decor, bar, and restaurant which was located far right inside the same level as lobby.  Now this is where things begin to turn fuzzy...the front desk staff seemed peppy and genuinely happy to be there; however, I ended up checking in with a seemingly irritated front desk female clerk.  She was only concerned with getting through the check-in process as fast as she could, wasn't very friendly, and failed to mention any further information standard to a check-in process (i.e how much deposit/ incidentals were, valet parking costs, etc.) She was also careless and seemed annoyed that I had reserved the room using a Travelzoo voucher and actually ended up giving us drink vouchers with the word "SAMPLE" written on the back.  When I went to go redeem them at the bar Social 18, one of the bartenders made me feel like a criminal for even having them.  He told me he couldn't redeem them because the word sample was on the back and asked which room I was staying in.  Still not satisfied, I had to wait while he called the front desk downstairs to check and verify.  That process took long and during that time, I even told him that the girl that checked me in and whom gave me the vouchers was working downstairs still at that time, and he could verify directly with her as needed.  This inconvenience was really upsetting to me since it was HER responsibility to do her job correctly.  Additionally, she gave me a room right next to the elevator and one which faced the empty tower in the process of being built without informing me of the location.  If given the choice, I would have asked for an alternate room. The next day, I got an evil eye from that same bartender but downstairs at the lobby bar.  Seriously, was this even necessary? Everyone else that I had the pleasure of interacting with at the front desk was beyond polite, helpful, and amazing, and it's a shame really that this girl doesn't know basics, and is a weak link to everyone else.About the food in the hotel restaurant, Metropole, is stellar- although service can be slow.  The food is so delicious, it's worth the wait though!  The pool is also amazing, clean, and there are fun games including corn hole that you can play too!  The valet and bellhop staff are also delightful, and overall I recommend this chic hotel.  Definitely reminds me of the Cosmo and SLS in Vegas.  Modern, hip, and sleek.  It's a rather new hotel though, so some of the staff needs to get retrained on their customer service.  Those little kinks definitely put a damper on what otherwise would have been a stellar stay.More</t>
   </si>
   <si>
+    <t>Kenneth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r515647695-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2055,6 +2319,9 @@
     <t>Arrived in style and the valet service is neat and respectful shout out to victor Perez , he hooked me up about the city and the top floor the 18th the new lounge is amazing city views 360   Hotel is beautiful and very clean , housekeeping is phenomenal and the pool on 4th floor perfect will definitely come back here hands down More</t>
   </si>
   <si>
+    <t>Liam M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r514052961-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2079,6 +2346,9 @@
     <t>This is an incredible property. Everything from the room to the valet was dialed in at a 10. Special mention to Robert on the 18th floor lounge - one of the best bartenders I have ever come across. Valet is a little expensive and rate hunting is a little apparent as the property is only 4 months old. More</t>
   </si>
   <si>
+    <t>wolffski</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r510172060-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2101,6 +2371,9 @@
   </si>
   <si>
     <t>New hotel, clean, large room, staff is learning and tries hard. No desk and no comfortable chair to work at in the room but otherwise a comfortable stay. I've stayed closer to LA Live before and it's too noisy--this place was very quiet.More</t>
+  </si>
+  <si>
+    <t>nikkidlovely</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r509946242-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
@@ -2146,6 +2419,9 @@
   </si>
   <si>
     <t>My family and I were very happy with how clean and comfortable our room was but we were especially thrilled with the valet department's excellent service. The entire department's staff was very kind and accommodating. Our truck exceeded the parking garage's height limit but they assured us that they would take good care of it outside of the garage (which they did!). Thank you so much Victor Perez, Michael, Raul Cienfuegos, Claudia and Adam. You bunch made our stay in Los Angeles great! More</t>
+  </si>
+  <si>
+    <t>jennifer s</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r505331872-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
@@ -2183,6 +2459,9 @@
 Conveniently located...We were pleasantly surprised at the comfort level of Hotel Indigo's accommodations because we got such a great price...enjoy it while you can because I have a feeling prices will soar once they finish construction on the new luxury condos across the driveway.Excellent staff from the valet to the desk to the housekeeping.  Special shout out to Tyler at the front desk, whose charm, speed and professionalism set the tone for our stay.  The decor throughout the hotel is "playful" modern - quite trendy.  The brick pattern wallpaper, elevator graphics and kaleidoscope rugs in the halls are testimony to this playful, almost garish, trendiness. The lobby is quite pretty and has a nice bar that was popular during our stay.We had a lovely corner room (1021) with floor to ceiling windows on two sides - urban living at its best.  The rooms are large and loft-like.   The bed was the type you don't want to get out of and struggle to exit as you remind yourself there are other things to do than sleep all day!  The bathroom is a little dark for doing make-up, but has a magnifying mirror.  The walk-in shower is huge.  One complaint would be that our shower leaked incessantly - it wasted a lot of water.  It also made a lot of noise with the running - such that we had to keep the bathroom door shut to cancel the noise.Conveniently located within easy access of all major DTLA areas...special bonus: The 24 hour Original Pantry, an LA landmark, is located only one block away.If you've read this far, here's my tip:  park in the garage kitty corner across from the hotel towards Figueroa, I think it's called Joe's.  We paid $10 a night there...no in/out, but valet is $42/night!More</t>
   </si>
   <si>
+    <t>clayton15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r503562333-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2207,6 +2486,9 @@
     <t>This hotel is beautiful! It is decorated I. The most cool and vintage glam style. The atmosphere makes it feel rich and swanky. I loved the stay here and the bedding and room. The room was large and very comfortable.More</t>
   </si>
   <si>
+    <t>Michael K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r503006012-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2231,6 +2513,9 @@
     <t>I am Spire Royal Ambassador.  Highest level that can be achieved in the hotel chain. Property is great.  Staff are ... well... not well trained, unfriendly, unengaging and trust me... I average 150 days a year in this chain of hotels for the last 15 years.  It is a pity... a true pity that such a wonderful property can be marred by such a simple thing to fix through proper service training for their staff.   Shame on you.More</t>
   </si>
   <si>
+    <t>RolandoMarin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r500326029-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2247,6 +2532,9 @@
   </si>
   <si>
     <t>On our date night, after dinner and drinks at 71Above, my wife and I ended up booking a room here last minute.  No bags, just us, and a desire to live by the moment.  We did a blind 4 stars Hotwire booking and figured since it was Thursday, we'd end up at a nice place no matter what.  Hotel Indigo was an unfamiliar name so we wondered where our Lyft driver was taking us.  As soon as we saw the drive way, high-rises, lights and chic bar/restaurant visible from the valet area, we were stoked (and I never use that word).  It only got better.  The room was on a high floor near their high-floor bar/lounge (I forget the name) and the room was spectacular with an amazing view and chic furnishings.  The bed was huge and comfy.  After a night of fun and some rest, we were ready to leave but the cool house music coming from the loby bar area just kept us there.  We ended up at their restaurant had a really good breakfast then called a night...at 10AM.  We are definitely going back to their bar and hopefully stay there again, though we live just 8 miles away.More</t>
+  </si>
+  <si>
+    <t>collector</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r499276019-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
@@ -2276,6 +2564,9 @@
   <si>
     <t>LOUD MUSIC EVERYWHERE!! This was not good music, but  blaring techno music and it was everywhere. It was in the lobby, the bar, the gym,  the restaurant one could not escape. Even when I was working out, I had my own earbuds on and still could hear the music.  I complained the entire two weeks, did no good. I was told that  someone named Kevin said he knew how to open a restaurant/bar and loud music was it. Everyone complained, you could not carry on a conversation, therefore people talked louder and louder. Too bad.  I complained to the front desk, they did not seem to care.  Then on top of the horrible music was the extrememly strong smell of marijuana coming into my room for two days. Contacted the front desk and they sent someone up and said yes it is marijuana and it is coming from somewhere. Now it was not coming from outside, I was on the 16th floor! My sister and I both had headaches for two days.  Rules against smoking were posted, guess people did not think that applied to marijuana.  It was that way for two days! HEADACHES!  Great Bed and linens! 
 With the exception of Alfred at the front desk, who by the way was great, the other staff memebers at the front desk were not at all professional or nice. This is a beautiful new hotel, and certain individuals were great, but....LOUD MUSIC EVERYWHERE!! This was not good music, but  blaring techno music and it was everywhere. It was in the lobby, the bar, the gym,  the restaurant one could not escape. Even when I was working out, I had my own earbuds on and still could hear the music.  I complained the entire two weeks, did no good. I was told that  someone named Kevin said he knew how to open a restaurant/bar and loud music was it. Everyone complained, you could not carry on a conversation, therefore people talked louder and louder. Too bad.  I complained to the front desk, they did not seem to care.  Then on top of the horrible music was the extrememly strong smell of marijuana coming into my room for two days. Contacted the front desk and they sent someone up and said yes it is marijuana and it is coming from somewhere. Now it was not coming from outside, I was on the 16th floor! My sister and I both had headaches for two days.  Rules against smoking were posted, guess people did not think that applied to marijuana.  It was that way for two days! HEADACHES!  Great Bed and linens! With the exception of Alfred at the front desk, who by the way was great, the other staff memebers at the front desk were not at all professional or nice. This is a beautiful new hotel, and certain individuals were great, but. Only someone under 30 should ever stay there. No shower caps, no q-tips, things that one expects in a hotel. The room was beautiful and housekeepers were great.  Louis, Jasmine and Chris were great  and Alfred was I think the only adult, they were great things about this hotel. All were friendly and yet professional.  The hotel needs to get hire more employees like Alfred, Louis, Jasmine and Chris.More</t>
+  </si>
+  <si>
+    <t>GatewayDestination</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r498623107-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
@@ -2312,6 +2603,9 @@
 Housekeeping - Everywhere...First walk in, the lobby is on the smaller side for a Downtown LA hotel but was very unique and clean.  From the shelves filled with an assortment of hats and what seemed to be a chandelier made from bike spokes, the decor was reminiscent of what you'd see in a Madonna-esque music video.  Similar decor in the rooms coupled with the cleanliness gave the room a crisp feeling; especially with the awesome over-sized bathrooms.  One thing to note was that in our room was a picture...of the back of a woman looking into a compact mirror with the eyes looking at you.  This picture was posted on the glass between the shower and the toilet so that she's looking at you when you're most exposed.Operations of the hotel were okay as some elements were lacking but other positions were functioning great.  Valet - Attendants don't approach you so you must park, grab keys, exit vehicle, wait for them to finish conversing and let them know you want to valet your car.  Retrieving the car? Same thing.Front Desk - While I don't run the hotel, it was troubling to see only one front desk agent...in a downtown hotel...next to LA Live...during a soldout convention.  Both the morning and evening associates were very friendly though.Bar 1st floor- A little bit slower on the service side but prices were at what was expected for the area.  Housekeeping - Everywhere we went in the hotel, the cleanliness was on point.  Even when asking for amenities such as pillows, blankets, and toothbrushes they were very quick.Last bit to note was the shower.  Very large but didn't come with shampoo/conditioner/lotion.  In addition, the water pressure was very poor.  It got to a point where if you held the wand at an angle of 30 degrees or more the water would just trickle down your arm instead of spraying forward.It's a newer hotel so hopefully it'll learn from these growing pains but at ~$380/night, I'd wait for a slower season to visit this hotel.More</t>
   </si>
   <si>
+    <t>tracycloherty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r497268290-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2336,6 +2630,9 @@
     <t>I stay in the downtown area frequently for business but this is the first time I stayed here - in fact, it had just opened. It was very clean and i loved the modern decor. There was only one dining option but I had breakfast and lunch and both the food and service was very good. It was a quieter option than the other, larger hotels we usually stay at but still only a short walk to LA Live and the price was MUCH cheaper than some of the more well-known properties. i would definitely recommend this hotel and would stay there again.More</t>
   </si>
   <si>
+    <t>NilsLDK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r494550928-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2360,6 +2657,9 @@
     <t>We stayed at Hotel Indigo Los Angeles Downtown for 2 nights.The hotel is located downtown LA next to LA live and in walking distance to shops and restaurants. There ia s lot of construction undergoing in the neighborhood. There was great service in the reception. The hotel is brand new. We really like the hotel and its decor. The room was ok, it was clean and the wifi worked fine.The hotel has its own small pool. We used it every afternoon, and it was really peaceful.We used vallet parking, which is really expensive - dont do that. You can park just across the street for only USD 15 per day.It is a great hotel - I can easily come backMore</t>
   </si>
   <si>
+    <t>Alana S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r493544488-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2384,6 +2684,9 @@
     <t>The hotel is fairly new and everything is modern. It's not as tall as the other hotels in the area, but you still get a good view of the surrounding area. We were on the 13th floor and could see all of L. A. Live. When we got here, the shower head was clogged and sprayed all over the place but we managed to fix it ourselves. Staff were friendly in general and it's walking distance to L. A. Live, Staples Center, and the L. A. Convention Center.Notes:- No complimentary breakfast, but there is a small snack shop in the lobby, room service or Postmates from a bunch of great breakfast places in the area (like we did haha)- Parking is Valet only, $42 a day- Deposit is $100 A DAY. Every night you stay is an extra $100 (refundable)More</t>
   </si>
   <si>
+    <t>Krittika O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r489868546-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2408,6 +2711,9 @@
     <t>I booked 4 nights here in mid-March for a conference at the end of May to be within walking distance of the convention center, only to find upon check in that I was involuntarily bumped to the Loews Hollywood 6 miles away because 2 floors of the hotel were not complete. The hotel sent an email explaining this after close of business eastern time on the Friday of Memorial Day, so of course I didn't get it before I left for the trip. At 1st they offered only a $50 gift card and metro card, but they comped one night at Loews after I pointed out that this was not adequate given the inconvenience. I know they are new, but it is unacceptable to overbook and then bump me to a hotel so far away when I reserved well in advance.More</t>
   </si>
   <si>
+    <t>Carmelites</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r487805669-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2430,6 +2736,9 @@
   </si>
   <si>
     <t>Check-in was a nightmare--36 minutes in a very long line to move to the front of the line and get our key.  One other reviewer said the same thing.  Even if everyone descends at the same time, hotel professionals should know how to handle such situations.  Large wedding parties, anyone?  Conventions and conferences?  The staff was very friendly, apologetic, and responsive but as tired travelers, this is not a good first impression.  Decor does not signal Hollywood and LA, unless you mean Paris Hilton and Kim Kardashian.  A cinematic vibe could be had in a more tasteful yet energetic manner.  Same holds true for the room decor--a mishmash going nowhere in theme.  The bathroom is beautiful though, with interesting floor tile, marble, and photographic overlay on glass/acrylic.  No wastepaper basket in main bedroom area--only a teeny-tiny one in the bathroom.  And, very poor planning for the electric coffee maker--when we tried to slide it out on its drawer, the extension chord doesn't reach far enough to use it.  The curtain in the corner window--where you would get the nicest view, doesn't open all the way. Still, I will give them some time to improve the decor, kinks in amenities, and front desk service.  The employees are great!More</t>
+  </si>
+  <si>
+    <t>reinhardtk</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r486454338-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
@@ -2468,6 +2777,9 @@
 -You can hear EVERY sound....Pros---Hotel is new, so things are relatively nice:  firm beds, non carpeted floor, nice enough bathroom.-Nice that there is a pool, though it was pretty cold despite the blazing hot sun.Cons:- Service was SO bad, from start to finish.  We arrived to a long line for check in, and multiple people seemingly working behind the front desk,  but only two of whom were actually checking people in.  We had asked for a crib when booking, and it was not there upon arrival.  We called down to the front desk because the A/C unit was not working properly.  They promised to send someone up; no one ever came.  We called down to the front desk the next morning to ask housekeeping to bring an additional shampoo/conditioner.  Again, they promised to send someone; no one ever came.  We asked for late check out as we had a flight to catch out of LAX later and wanted to minimize waiting at the airport with two small kids.  They made us feel that we were getting a huge favor by letting us stay 1.5 hours after check out on a Sunday.  Then, get this:  They made it so that our keycards for the room expired so that, for the last 1.5 hours of our stay, we could not freely go in and out of our room.-The wall decorations are SUPER cheesy.  Think Planet Hollywood.-You can hear EVERY sound.  We could hear vacuuming in the room above us around 10 p.m., water going through the building pipes all through the night, and other people coming and going all through the night.  Not a good night's sleep at all.More</t>
   </si>
   <si>
+    <t>Soccer D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r486017240-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2497,6 +2809,9 @@
 The room and bathroom were well sized, and the wi-fi worked fine. There was a mild unpleasant smell which one quickly gets used to, but always hits you when you walk into the room....I spent six nights at this new property, which as a HI tries to be trendy (e.g., black wall in the guest rooms). I tried to move after the second day, but nearby hotels were booked. I definitely would not stay at this property again.Where do I begin? First safety. The hotel is located across the street from the Salvation Army. Homeless people hang-out and sleep across the street.  I would never let my wife or daughters walk from this hotel to or from the convention center alone. One evening, the fire alarm rang. I ran out of my room and raced down the six flights of steps. In the lobby, I was told that it was a false alarm “which sometimes happens”. I have stayed hundreds of nights in hotels around the world, and this was only the second time that I heard a fire alarm (the first time was an actual fire). I couldn’t help think of my elderly year old mom at the hotel in this situation. The Indigo is not full service. There is not even a pretense of a concierge. Food options are limited.  There is a tiny self-service snack bar in the lobby selling $4 small bottles of Coke. The room and bathroom were well sized, and the wi-fi worked fine. There was a mild unpleasant smell which one quickly gets used to, but always hits you when you walk into the room. I complained about this, and a few days latter the Front Desk Manager called to tell me that he confirmed that there is no smell.  He needs extensive training.During the second day I needed to call the front desk THREE TIMES to have the room made up. The next day I needed to call ONLY ONCE, in the evening, to have the room made up. When I was told that no manager or assistant manager was present on the property, I emailed the hotel manager Raymond.vermolen@ihg.com and cc’ed top execs at IHG. Our housekeeping problem was quickly fixed. Half of the front desk staff were very helpful. The other half were usefulness: they could not answer routine questions such as where is the the ice machine on my floor?, can you please point to nearest metro stop for the train to Santa Monica?, can you please point to the closest supermarket?. I don’t trust such people with my safety.As I said above, I would not stay at this property again. There are many comparably priced alternatives.More</t>
   </si>
   <si>
+    <t>Ahems</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r484768627-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2519,6 +2834,9 @@
   </si>
   <si>
     <t>Stayed at the Indigo for 5 nights and enjoyed the stay. Great location, close to everything and defiantly within walking distance to all of the action. The entire place is new and very clean, great staff and a few that they will weed out after being open awhile. We would defiantly stay here again if we are in this area of Los Angeles.More</t>
+  </si>
+  <si>
+    <t>Lisa L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r484222193-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
@@ -2553,6 +2871,9 @@
 The only reason the hotel received four stars instead of five is actually out of their control, but did impact our stay.  There is a tremendous amount of construction going on in downtown LA, specifically, a large tower is being built on the same street. So Francisco, usually a two way street was only one way traffic and another day completely closed a bit up the street.  This was a serious issue as Uber drivers,...We stayed at Hotel Indigo two nights.  It so recently opened (6 weeks ago) that the pool was not open until the second day and the place still had that "new car" smell.  The rooms are beautifully appointed with the traveler in mind.  The room had a small refrigerator/freezer that was easily filled with supplies from the Ralph's grocery store down the street. The coffee machine, safe, and refrigerator all fitting seamlessly into the dresser drawers.  The headboards had outlets and even a USB port for charging all our devices.  The bathroom was lovely with a "rain shower" head and a makeup mirror was available to pull out from the wall. I did have the opportunity to work out in the gym.  All the equipment is new-towels, water and even disposable ear buds are provided.  Additionally, every staff member from the valet, to the front desk, to the bar, were gracious and kind and always went out of their way to make our stay exceptional.  The only reason the hotel received four stars instead of five is actually out of their control, but did impact our stay.  There is a tremendous amount of construction going on in downtown LA, specifically, a large tower is being built on the same street. So Francisco, usually a two way street was only one way traffic and another day completely closed a bit up the street.  This was a serious issue as Uber drivers, and even we, really had a horrific time getting to and from the hotel. Again, not the hotel's issue, just noted it so people are forewarned. We had a wonderful stay otherwise and would really recommend staying at the Hotel Indigo.  PS be sure to eat at the Original Pantry down the block, a breakfast fare institution since 1924....cash only. More</t>
   </si>
   <si>
+    <t>MyAkitaBear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r482650227-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2577,6 +2898,9 @@
     <t>Very chic and trendy hotel. Staff very friendly and accommodating. Rooms are stylish. Bathroom is large. Beds are comfortable. This hotel recently opened, so there are a few glitches. My only issue was with housekeeping. My first night i went to sleep on what I assumed were clean sheets, woke up the next morning and the fitted sheet had come up a bit on the side where I slept revealing two very noticeable quarter size spots of blood. I didn't even pull up the rest of the fitted sheet because I was afraid of what I might find! I took a picture and showed the front desk who graciously apologized, because it was obvious that clean sheets (or what I thought) were thrown on top of a soiled mattress cover.  She had someone come change my bed immediately.  The the next day I returned to my room at 6:30pm that had not even been touched by housekeeping. So I asked the front desk for fresh towels, again they were very apologetic, and they did clean my room while I was at dinner. Following day I returned again to an uncleaned room, I had to sit in the lobby until 8:30 pm waiting on my room to be cleaned. So, all in all I would have given this hotel 5 stars  because the front staff was excellent, but because of poor housekeeping they get a 4. More</t>
   </si>
   <si>
+    <t>Janet R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r482483959-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2595,6 +2919,9 @@
     <t>The Hotel has been open less than a month but you wouldn't know it. The staff was very friendly and welcoming and the service was excellent. We ate in the restaurant for breakfast and dinner and the food was superb. The lobby is beautifully decorated and always full. The bathrooms were gorgeous and the beds were so comfortable. I can't wait to go back!More</t>
   </si>
   <si>
+    <t>Peter C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r482314572-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2608,6 +2935,9 @@
   </si>
   <si>
     <t>Hotel is located in a real up and coming area just a block away from Staples Center and lots of restaurant and bars.  The hotel is beautifully designed and also has a great gym and outdoor pool.   The staff are truly wonderful and friendly.  I haven't stayed DTLA for many years but would stay here again for sure.   Rooms are very spacious and well appointed with USB and plugs literally everywhere which is a welcome change that you don't have to search for ever then use your own power cables and extensions.  Nice job! More</t>
+  </si>
+  <si>
+    <t>Elaine197</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r480410731-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
@@ -2651,6 +2981,9 @@
 There are 2 elevators on each floor and I mistakenly took the freight elevator, as there was no signage indicating otherwise.  I get in a padded, crappy elevator-oh well- it is going to...As others have stated, we all paid full price for services that did not exist as advertised on the indigo website.  Cagey and just unprofessional.  The hotel is on the cusp of a  learning curve in all of its departments.  They opened too soon before they fixed the bugs and started booking guests so we get receive the experience of learning of the bad lighting, cold water, curtains that wouldn't open, strangers knocking at your door at odd times, etc.I would be staying at any of the other competitors, but thought, "Indigo might be fun with my friends and we can check the latest new spot in Downtown.Sorry, but I cannot send them to Indigo.Management hasn't prepared staff for Primetime. And discerning travelers.Don't know when they will be, either.  They lack that love; that passion for their jobs.There were little things, like lights that didn't work, my room key that kept having to be re-keyed, cold room service, no salt and pepper, water.  My sea bass was less the size of a small deck of cards with 3, count 'em, 3 haricot verts, and 2 fingerling potatoes. It was quite a tiny plate, with butter brought up but no bread. $38. Yikes.There are 2 elevators on each floor and I mistakenly took the freight elevator, as there was no signage indicating otherwise.  I get in a padded, crappy elevator-oh well- it is going to get me to the lobby floor--so I took it.  Just another example of lack of management minding their p's and q's ensuring the guests have a superlative experience.I travel to Downtown LA all the time and just cannot recommend this hotel.  Nice façade.  The rest of the hotel was a let down.  All for $395 for my convention rate.I have a handful of excellent hotels that I would choose over this one.  Perhaps give the Indigo another year to get their act together-and properly train their staff.More</t>
   </si>
   <si>
+    <t>DavidLopez_SEV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r479538538-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2675,6 +3008,9 @@
     <t>I stayed here with two of my good friends and I must say that it has been a most pleasant experience. From being greeted and checked in by Chei to the bellman escorting us to the room, it was top notch. The lobby was amazing, nice decorated with deep rich colors, I love the light fixtures on the ceiling. The restaurant was amazing! The food was really good and the wait staff was very friendly and attentive. We absolutely loved Jasmine! She has an amazing personality and recommended some really fun places to check out at night. Our room was very spacious with a lot of natural light. The bathroom was amazing too! Housekeeping did an amazing job of servicing the room daily with fresh towels and bath products. Overall, this hotel is  beautiful and can't wait to come back!More</t>
   </si>
   <si>
+    <t>FawnW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r479308931-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2699,6 +3035,9 @@
     <t>We stayed here when a family member was in the hospital.  It is easy to get to and a nice location for walking around. The view is nice.  The staff were very friendly, kind, and helpful.  The decor is in a modern style but with a touch of the roaring 20's, which was fun.  The one downside we didn't like were no robes/slippers in the room and like others have reviewed the pool isn't open yet☹️.More</t>
   </si>
   <si>
+    <t>Steve L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r478390917-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2723,6 +3062,9 @@
     <t>This hotel has yet to fully open! I was not aware of this until after I had checked in. The 18th floor lounge/bar as not completed, remains under construction, the pool was not open, nor was the gym. Went to the bar in the lobby, requested " 1 rock" with my drink and the bartender said he didn't have them as yet. I'll agree it is a beautiful hotel, but please let us know that you are not fully ready to have guest from out of town stay with you expecting to have all available services ready for the rates you charge.More</t>
   </si>
   <si>
+    <t>Mark P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r476200866-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2745,6 +3087,9 @@
   </si>
   <si>
     <t>Whether you enter through the main doors or the side, the staff at Hotel Indigo will descend upon you with a warm welcome.  From the main lobby, to the elevator and guest room, the accommodations are trendy and meet every needs of today's tech oriented traveler.  This hotel just opened so really, the choice to stay here is a no brainer!  For restaurant recommendations, seek out Tyler at the Front Desk; the man knows the ins and outs of the local food scene!  We highly recommend Hotel Indigo for all travelers.More</t>
+  </si>
+  <si>
+    <t>L P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d8552209-r475174079-Hotel_Indigo_Los_Angeles_Downtown-Los_Angeles_California.html</t>
@@ -3264,43 +3609,47 @@
       <c r="A2" t="n">
         <v>64627</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>195857</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3312,56 +3661,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64627</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>195858</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3379,56 +3732,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64627</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>195859</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3444,56 +3801,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64627</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>195860</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3505,56 +3866,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64627</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3566,56 +3931,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64627</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>195861</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3627,56 +3996,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64627</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>195862</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3688,56 +4061,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64627</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>9065</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3749,56 +4126,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="X9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64627</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>22022</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3810,56 +4191,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="X10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64627</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>195863</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3875,56 +4260,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="X11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64627</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3936,56 +4325,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="X12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64627</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>195864</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3997,56 +4390,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="X13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64627</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>195865</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -4058,56 +4455,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="X14" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64627</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>195866</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -4125,56 +4526,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64627</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>195867</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4186,56 +4591,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="X16" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64627</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>195868</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -4253,56 +4662,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X17" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64627</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>195869</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -4318,56 +4731,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X18" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64627</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>195870</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4383,56 +4800,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X19" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64627</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>40487</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4450,56 +4871,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="X20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="Y20" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64627</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>195871</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4511,56 +4936,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="X21" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64627</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>1399</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O22" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4576,56 +5005,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="X22" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="Y22" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64627</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>195872</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4637,56 +5070,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="X23" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64627</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>195873</v>
+      </c>
+      <c r="C24" t="s">
+        <v>216</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="K24" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4704,56 +5141,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="X24" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="Y24" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64627</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>195874</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4769,56 +5210,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="X25" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="Y25" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64627</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>195875</v>
+      </c>
+      <c r="C26" t="s">
+        <v>232</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="J26" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4830,56 +5275,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="X26" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="Y26" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64627</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>195876</v>
+      </c>
+      <c r="C27" t="s">
+        <v>240</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="J27" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4891,56 +5340,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="X27" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="Y27" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64627</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>195877</v>
+      </c>
+      <c r="C28" t="s">
+        <v>249</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="J28" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4952,56 +5405,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="X28" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="Y28" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64627</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>25433</v>
+      </c>
+      <c r="C29" t="s">
+        <v>256</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="J29" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -5019,56 +5476,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="X29" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="Y29" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64627</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>93330</v>
+      </c>
+      <c r="C30" t="s">
+        <v>265</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="J30" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -5086,56 +5547,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="X30" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="Y30" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64627</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>195878</v>
+      </c>
+      <c r="C31" t="s">
+        <v>274</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="J31" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="K31" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5147,56 +5612,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="X31" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="Y31" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64627</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>195879</v>
+      </c>
+      <c r="C32" t="s">
+        <v>281</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="J32" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="K32" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="O32" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5208,47 +5677,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="X32" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="Y32" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64627</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>195880</v>
+      </c>
+      <c r="C33" t="s">
+        <v>291</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="J33" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="K33" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
@@ -5265,56 +5738,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="X33" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="Y33" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64627</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>7587</v>
+      </c>
+      <c r="C34" t="s">
+        <v>298</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="J34" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="K34" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5326,56 +5803,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="X34" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="Y34" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64627</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>195881</v>
+      </c>
+      <c r="C35" t="s">
+        <v>305</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="J35" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="K35" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5387,56 +5868,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="X35" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Y35" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64627</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>195882</v>
+      </c>
+      <c r="C36" t="s">
+        <v>314</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="J36" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="K36" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5448,56 +5933,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="X36" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Y36" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64627</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>195883</v>
+      </c>
+      <c r="C37" t="s">
+        <v>321</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="K37" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -5515,56 +6004,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="X37" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Y37" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64627</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>195884</v>
+      </c>
+      <c r="C38" t="s">
+        <v>327</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="J38" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="K38" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O38" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5576,56 +6069,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="X38" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="Y38" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64627</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>15828</v>
+      </c>
+      <c r="C39" t="s">
+        <v>336</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="J39" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="K39" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5637,56 +6134,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="X39" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="Y39" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64627</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>967</v>
+      </c>
+      <c r="C40" t="s">
+        <v>343</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="J40" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="K40" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O40" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5698,47 +6199,51 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="X40" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="Y40" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64627</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>195885</v>
+      </c>
+      <c r="C41" t="s">
+        <v>350</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="J41" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="K41" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="L41" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
@@ -5755,56 +6260,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="X41" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="Y41" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64627</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>195886</v>
+      </c>
+      <c r="C42" t="s">
+        <v>357</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="J42" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="K42" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O42" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5816,56 +6325,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="X42" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="Y42" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64627</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>195887</v>
+      </c>
+      <c r="C43" t="s">
+        <v>366</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="J43" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="K43" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="L43" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5877,56 +6390,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="X43" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="Y43" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64627</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>195888</v>
+      </c>
+      <c r="C44" t="s">
+        <v>373</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="K44" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O44" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5942,56 +6459,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="X44" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="Y44" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64627</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>45155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>382</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="J45" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="K45" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="L45" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -6009,56 +6530,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="X45" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="Y45" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64627</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>195889</v>
+      </c>
+      <c r="C46" t="s">
+        <v>389</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="J46" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="K46" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="L46" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="O46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -6076,56 +6601,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="X46" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="Y46" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64627</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>195890</v>
+      </c>
+      <c r="C47" t="s">
+        <v>399</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="J47" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="K47" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="L47" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -6143,56 +6672,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="X47" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="Y47" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64627</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>195891</v>
+      </c>
+      <c r="C48" t="s">
+        <v>408</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="J48" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="K48" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="L48" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O48" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -6204,56 +6737,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="X48" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="Y48" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64627</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>195892</v>
+      </c>
+      <c r="C49" t="s">
+        <v>415</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="J49" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="K49" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="L49" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6265,56 +6802,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="X49" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="Y49" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>64627</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>195893</v>
+      </c>
+      <c r="C50" t="s">
+        <v>422</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="J50" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="K50" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="L50" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="O50" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6332,56 +6873,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="X50" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="Y50" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>64627</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>195894</v>
+      </c>
+      <c r="C51" t="s">
+        <v>431</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="J51" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="K51" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="L51" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="O51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -6399,56 +6944,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="X51" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="Y51" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>64627</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>195895</v>
+      </c>
+      <c r="C52" t="s">
+        <v>438</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J52" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="K52" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="L52" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="O52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6468,50 +7017,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>64627</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>23257</v>
+      </c>
+      <c r="C53" t="s">
+        <v>443</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="J53" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="K53" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="L53" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="O53" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6523,56 +7076,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="X53" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="Y53" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>64627</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>195896</v>
+      </c>
+      <c r="C54" t="s">
+        <v>452</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="J54" t="s">
+        <v>446</v>
+      </c>
+      <c r="K54" t="s">
+        <v>455</v>
+      </c>
+      <c r="L54" t="s">
+        <v>456</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
         <v>395</v>
       </c>
-      <c r="K54" t="s">
-        <v>403</v>
-      </c>
-      <c r="L54" t="s">
-        <v>404</v>
-      </c>
-      <c r="M54" t="n">
-        <v>5</v>
-      </c>
-      <c r="N54" t="s">
-        <v>351</v>
-      </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -6590,56 +7147,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="X54" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="Y54" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>64627</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>25284</v>
+      </c>
+      <c r="C55" t="s">
+        <v>458</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="J55" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="K55" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="L55" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="O55" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6651,56 +7212,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="X55" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="Y55" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>64627</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>195897</v>
+      </c>
+      <c r="C56" t="s">
+        <v>465</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="J56" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="K56" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="L56" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="O56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6718,56 +7283,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="X56" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="Y56" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>64627</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>195898</v>
+      </c>
+      <c r="C57" t="s">
+        <v>474</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="J57" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="K57" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="L57" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6783,56 +7352,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="X57" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="Y57" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>64627</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>195899</v>
+      </c>
+      <c r="C58" t="s">
+        <v>483</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="J58" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="K58" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="L58" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="O58" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6844,56 +7417,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="X58" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="Y58" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>64627</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>195900</v>
+      </c>
+      <c r="C59" t="s">
+        <v>492</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="J59" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="K59" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="L59" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="O59" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6905,47 +7482,51 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="X59" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="Y59" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>64627</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>195901</v>
+      </c>
+      <c r="C60" t="s">
+        <v>499</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="J60" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="K60" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="L60" t="s">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
@@ -6962,56 +7543,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="X60" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="Y60" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>64627</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>9024</v>
+      </c>
+      <c r="C61" t="s">
+        <v>507</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="J61" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="K61" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="L61" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="O61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -7023,56 +7608,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="X61" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="Y61" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>64627</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>195902</v>
+      </c>
+      <c r="C62" t="s">
+        <v>516</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="J62" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="K62" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="L62" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -7084,56 +7673,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="X62" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="Y62" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>64627</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>63418</v>
+      </c>
+      <c r="C63" t="s">
+        <v>525</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="J63" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="K63" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="L63" t="s">
-        <v>469</v>
+        <v>530</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="O63" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -7145,56 +7738,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="X63" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="Y63" t="s">
-        <v>470</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>64627</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>195903</v>
+      </c>
+      <c r="C64" t="s">
+        <v>532</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="J64" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="K64" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="L64" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="O64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7206,56 +7803,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="X64" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="Y64" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64627</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>195904</v>
+      </c>
+      <c r="C65" t="s">
+        <v>538</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="J65" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="K65" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="L65" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7267,56 +7868,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="X65" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="Y65" t="s">
-        <v>483</v>
+        <v>546</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>64627</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>195905</v>
+      </c>
+      <c r="C66" t="s">
+        <v>547</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="J66" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="K66" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="L66" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="O66" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7328,56 +7933,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="X66" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="Y66" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>64627</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>15217</v>
+      </c>
+      <c r="C67" t="s">
+        <v>553</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="J67" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="K67" t="s">
-        <v>491</v>
+        <v>556</v>
       </c>
       <c r="L67" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="O67" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="n">
@@ -7395,47 +8004,51 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="X67" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="Y67" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>64627</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>7527</v>
+      </c>
+      <c r="C68" t="s">
+        <v>559</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>494</v>
+        <v>560</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>495</v>
+        <v>561</v>
       </c>
       <c r="J68" t="s">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="K68" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="L68" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
@@ -7452,56 +8065,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="X68" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="Y68" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>64627</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>195906</v>
+      </c>
+      <c r="C69" t="s">
+        <v>568</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>502</v>
+        <v>569</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>503</v>
+        <v>570</v>
       </c>
       <c r="J69" t="s">
-        <v>504</v>
+        <v>571</v>
       </c>
       <c r="K69" t="s">
-        <v>505</v>
+        <v>572</v>
       </c>
       <c r="L69" t="s">
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="O69" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7517,56 +8134,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="X69" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="Y69" t="s">
-        <v>509</v>
+        <v>576</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>64627</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>195907</v>
+      </c>
+      <c r="C70" t="s">
+        <v>577</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>510</v>
+        <v>578</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>511</v>
+        <v>579</v>
       </c>
       <c r="J70" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="K70" t="s">
-        <v>513</v>
+        <v>581</v>
       </c>
       <c r="L70" t="s">
-        <v>514</v>
+        <v>582</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="O70" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7582,56 +8203,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="X70" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="Y70" t="s">
-        <v>515</v>
+        <v>583</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>64627</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>195908</v>
+      </c>
+      <c r="C71" t="s">
+        <v>584</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>516</v>
+        <v>585</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>517</v>
+        <v>586</v>
       </c>
       <c r="J71" t="s">
-        <v>518</v>
+        <v>587</v>
       </c>
       <c r="K71" t="s">
-        <v>519</v>
+        <v>588</v>
       </c>
       <c r="L71" t="s">
-        <v>520</v>
+        <v>589</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7645,50 +8270,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>521</v>
+        <v>590</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>64627</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>195909</v>
+      </c>
+      <c r="C72" t="s">
+        <v>591</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>522</v>
+        <v>592</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>523</v>
+        <v>593</v>
       </c>
       <c r="J72" t="s">
-        <v>524</v>
+        <v>594</v>
       </c>
       <c r="K72" t="s">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="L72" t="s">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
       <c r="O72" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7700,56 +8329,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>528</v>
+        <v>598</v>
       </c>
       <c r="X72" t="s">
-        <v>529</v>
+        <v>599</v>
       </c>
       <c r="Y72" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>64627</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>195910</v>
+      </c>
+      <c r="C73" t="s">
+        <v>601</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>532</v>
+        <v>603</v>
       </c>
       <c r="J73" t="s">
-        <v>533</v>
+        <v>604</v>
       </c>
       <c r="K73" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
       <c r="L73" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
       <c r="O73" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7761,56 +8394,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="X73" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="Y73" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>64627</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>111963</v>
+      </c>
+      <c r="C74" t="s">
+        <v>610</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>539</v>
+        <v>611</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="J74" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="K74" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
       <c r="L74" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
       <c r="O74" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7822,47 +8459,51 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="X74" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="Y74" t="s">
-        <v>546</v>
+        <v>618</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>64627</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>195911</v>
+      </c>
+      <c r="C75" t="s">
+        <v>619</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>547</v>
+        <v>620</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>548</v>
+        <v>621</v>
       </c>
       <c r="J75" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="K75" t="s">
-        <v>549</v>
+        <v>622</v>
       </c>
       <c r="L75" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
@@ -7879,56 +8520,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="X75" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="Y75" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>64627</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>195912</v>
+      </c>
+      <c r="C76" t="s">
+        <v>625</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>552</v>
+        <v>626</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>553</v>
+        <v>627</v>
       </c>
       <c r="J76" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="K76" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="L76" t="s">
-        <v>555</v>
+        <v>629</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="O76" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7942,50 +8587,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>555</v>
+        <v>629</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>64627</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>195913</v>
+      </c>
+      <c r="C77" t="s">
+        <v>631</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>557</v>
+        <v>632</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
       <c r="J77" t="s">
-        <v>559</v>
+        <v>634</v>
       </c>
       <c r="K77" t="s">
-        <v>560</v>
+        <v>635</v>
       </c>
       <c r="L77" t="s">
-        <v>561</v>
+        <v>636</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
       <c r="O77" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -7997,56 +8646,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>562</v>
+        <v>637</v>
       </c>
       <c r="X77" t="s">
-        <v>563</v>
+        <v>638</v>
       </c>
       <c r="Y77" t="s">
-        <v>564</v>
+        <v>639</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>64627</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>195914</v>
+      </c>
+      <c r="C78" t="s">
+        <v>640</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>566</v>
+        <v>642</v>
       </c>
       <c r="J78" t="s">
-        <v>567</v>
+        <v>643</v>
       </c>
       <c r="K78" t="s">
-        <v>568</v>
+        <v>644</v>
       </c>
       <c r="L78" t="s">
-        <v>569</v>
+        <v>645</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="O78" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -8062,56 +8715,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="X78" t="s">
-        <v>571</v>
+        <v>647</v>
       </c>
       <c r="Y78" t="s">
-        <v>572</v>
+        <v>648</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>64627</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>195915</v>
+      </c>
+      <c r="C79" t="s">
+        <v>649</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="J79" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="K79" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="L79" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="O79" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -8125,50 +8782,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>64627</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>195916</v>
+      </c>
+      <c r="C80" t="s">
+        <v>656</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>579</v>
+        <v>657</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="J80" t="s">
-        <v>581</v>
+        <v>659</v>
       </c>
       <c r="K80" t="s">
-        <v>582</v>
+        <v>660</v>
       </c>
       <c r="L80" t="s">
-        <v>583</v>
+        <v>661</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
@@ -8180,56 +8841,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>584</v>
+        <v>662</v>
       </c>
       <c r="X80" t="s">
-        <v>585</v>
+        <v>663</v>
       </c>
       <c r="Y80" t="s">
-        <v>586</v>
+        <v>664</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>64627</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>195917</v>
+      </c>
+      <c r="C81" t="s">
+        <v>665</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>587</v>
+        <v>666</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>588</v>
+        <v>667</v>
       </c>
       <c r="J81" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="K81" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="L81" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="O81" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="n">
@@ -8247,56 +8912,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="X81" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="Y81" t="s">
-        <v>594</v>
+        <v>673</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>64627</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>51752</v>
+      </c>
+      <c r="C82" t="s">
+        <v>674</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>595</v>
+        <v>675</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>596</v>
+        <v>676</v>
       </c>
       <c r="J82" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="K82" t="s">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="L82" t="s">
-        <v>598</v>
+        <v>678</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="O82" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8314,56 +8983,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="X82" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="Y82" t="s">
-        <v>599</v>
+        <v>679</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>64627</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>195918</v>
+      </c>
+      <c r="C83" t="s">
+        <v>680</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>600</v>
+        <v>681</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>601</v>
+        <v>682</v>
       </c>
       <c r="J83" t="s">
-        <v>602</v>
+        <v>683</v>
       </c>
       <c r="K83" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="L83" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="O83" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -8381,56 +9054,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="X83" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="Y83" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>64627</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>195919</v>
+      </c>
+      <c r="C84" t="s">
+        <v>687</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>606</v>
+        <v>688</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>607</v>
+        <v>689</v>
       </c>
       <c r="J84" t="s">
-        <v>608</v>
+        <v>690</v>
       </c>
       <c r="K84" t="s">
-        <v>609</v>
+        <v>691</v>
       </c>
       <c r="L84" t="s">
-        <v>610</v>
+        <v>692</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="O84" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8448,56 +9125,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="X84" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="Y84" t="s">
-        <v>613</v>
+        <v>695</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>64627</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>195920</v>
+      </c>
+      <c r="C85" t="s">
+        <v>696</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>614</v>
+        <v>697</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>615</v>
+        <v>698</v>
       </c>
       <c r="J85" t="s">
-        <v>616</v>
+        <v>699</v>
       </c>
       <c r="K85" t="s">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="L85" t="s">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8509,56 +9190,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>619</v>
+        <v>702</v>
       </c>
       <c r="X85" t="s">
-        <v>620</v>
+        <v>703</v>
       </c>
       <c r="Y85" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>64627</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>108199</v>
+      </c>
+      <c r="C86" t="s">
+        <v>705</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="J86" t="s">
-        <v>624</v>
+        <v>708</v>
       </c>
       <c r="K86" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="L86" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="O86" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8572,50 +9257,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>64627</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>195921</v>
+      </c>
+      <c r="C87" t="s">
+        <v>711</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>627</v>
+        <v>712</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>628</v>
+        <v>713</v>
       </c>
       <c r="J87" t="s">
-        <v>629</v>
+        <v>714</v>
       </c>
       <c r="K87" t="s">
-        <v>630</v>
+        <v>715</v>
       </c>
       <c r="L87" t="s">
-        <v>631</v>
+        <v>716</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="O87" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="s"/>
@@ -8627,56 +9316,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
       <c r="X87" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="Y87" t="s">
-        <v>634</v>
+        <v>719</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>64627</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>4527</v>
+      </c>
+      <c r="C88" t="s">
+        <v>720</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>635</v>
+        <v>721</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>636</v>
+        <v>722</v>
       </c>
       <c r="J88" t="s">
-        <v>637</v>
+        <v>723</v>
       </c>
       <c r="K88" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
       <c r="L88" t="s">
-        <v>639</v>
+        <v>725</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s"/>
@@ -8688,56 +9381,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>640</v>
+        <v>726</v>
       </c>
       <c r="X88" t="s">
-        <v>641</v>
+        <v>727</v>
       </c>
       <c r="Y88" t="s">
-        <v>642</v>
+        <v>728</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>64627</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>195922</v>
+      </c>
+      <c r="C89" t="s">
+        <v>729</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>643</v>
+        <v>730</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>644</v>
+        <v>731</v>
       </c>
       <c r="J89" t="s">
-        <v>645</v>
+        <v>732</v>
       </c>
       <c r="K89" t="s">
-        <v>646</v>
+        <v>733</v>
       </c>
       <c r="L89" t="s">
-        <v>647</v>
+        <v>734</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8755,56 +9452,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>648</v>
+        <v>735</v>
       </c>
       <c r="X89" t="s">
-        <v>649</v>
+        <v>736</v>
       </c>
       <c r="Y89" t="s">
-        <v>650</v>
+        <v>737</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>64627</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>10015</v>
+      </c>
+      <c r="C90" t="s">
+        <v>738</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>651</v>
+        <v>739</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="J90" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="K90" t="s">
-        <v>654</v>
+        <v>742</v>
       </c>
       <c r="L90" t="s">
+        <v>743</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
         <v>655</v>
       </c>
-      <c r="M90" t="n">
-        <v>5</v>
-      </c>
-      <c r="N90" t="s">
-        <v>578</v>
-      </c>
       <c r="O90" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="s"/>
@@ -8816,56 +9517,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>656</v>
+        <v>744</v>
       </c>
       <c r="X90" t="s">
-        <v>657</v>
+        <v>745</v>
       </c>
       <c r="Y90" t="s">
-        <v>658</v>
+        <v>746</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>64627</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>106253</v>
+      </c>
+      <c r="C91" t="s">
+        <v>747</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>659</v>
+        <v>748</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>660</v>
+        <v>749</v>
       </c>
       <c r="J91" t="s">
-        <v>661</v>
+        <v>750</v>
       </c>
       <c r="K91" t="s">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="L91" t="s">
-        <v>663</v>
+        <v>752</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="O91" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="s"/>
@@ -8877,56 +9582,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>664</v>
+        <v>753</v>
       </c>
       <c r="X91" t="s">
-        <v>665</v>
+        <v>754</v>
       </c>
       <c r="Y91" t="s">
-        <v>666</v>
+        <v>755</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>64627</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>195923</v>
+      </c>
+      <c r="C92" t="s">
+        <v>756</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>667</v>
+        <v>757</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>668</v>
+        <v>758</v>
       </c>
       <c r="J92" t="s">
-        <v>669</v>
+        <v>759</v>
       </c>
       <c r="K92" t="s">
-        <v>670</v>
+        <v>760</v>
       </c>
       <c r="L92" t="s">
-        <v>671</v>
+        <v>761</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="O92" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P92" t="s"/>
       <c r="Q92" t="s"/>
@@ -8938,56 +9647,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>672</v>
+        <v>762</v>
       </c>
       <c r="X92" t="s">
-        <v>673</v>
+        <v>763</v>
       </c>
       <c r="Y92" t="s">
-        <v>674</v>
+        <v>764</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>64627</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>195924</v>
+      </c>
+      <c r="C93" t="s">
+        <v>765</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>675</v>
+        <v>766</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>676</v>
+        <v>767</v>
       </c>
       <c r="J93" t="s">
-        <v>669</v>
+        <v>759</v>
       </c>
       <c r="K93" t="s">
-        <v>677</v>
+        <v>768</v>
       </c>
       <c r="L93" t="s">
-        <v>678</v>
+        <v>769</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="O93" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="n">
@@ -9003,56 +9716,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>672</v>
+        <v>762</v>
       </c>
       <c r="X93" t="s">
-        <v>673</v>
+        <v>763</v>
       </c>
       <c r="Y93" t="s">
-        <v>679</v>
+        <v>770</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>64627</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>80</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>680</v>
+        <v>771</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>681</v>
+        <v>772</v>
       </c>
       <c r="J94" t="s">
-        <v>682</v>
+        <v>773</v>
       </c>
       <c r="K94" t="s">
-        <v>683</v>
+        <v>774</v>
       </c>
       <c r="L94" t="s">
-        <v>684</v>
+        <v>775</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="O94" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P94" t="s"/>
       <c r="Q94" t="s"/>
@@ -9064,56 +9781,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>685</v>
+        <v>776</v>
       </c>
       <c r="X94" t="s">
-        <v>686</v>
+        <v>777</v>
       </c>
       <c r="Y94" t="s">
-        <v>687</v>
+        <v>778</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>64627</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>149182</v>
+      </c>
+      <c r="C95" t="s">
+        <v>779</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>688</v>
+        <v>780</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>689</v>
+        <v>781</v>
       </c>
       <c r="J95" t="s">
-        <v>690</v>
+        <v>782</v>
       </c>
       <c r="K95" t="s">
-        <v>691</v>
+        <v>783</v>
       </c>
       <c r="L95" t="s">
-        <v>692</v>
+        <v>784</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>693</v>
+        <v>785</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="s"/>
@@ -9125,56 +9846,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
       <c r="X95" t="s">
-        <v>695</v>
+        <v>787</v>
       </c>
       <c r="Y95" t="s">
-        <v>696</v>
+        <v>788</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>64627</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>195925</v>
+      </c>
+      <c r="C96" t="s">
+        <v>789</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>697</v>
+        <v>790</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>698</v>
+        <v>791</v>
       </c>
       <c r="J96" t="s">
-        <v>699</v>
+        <v>792</v>
       </c>
       <c r="K96" t="s">
-        <v>700</v>
+        <v>793</v>
       </c>
       <c r="L96" t="s">
-        <v>701</v>
+        <v>794</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>693</v>
+        <v>785</v>
       </c>
       <c r="O96" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="P96" t="s"/>
       <c r="Q96" t="s"/>
@@ -9186,56 +9911,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>702</v>
+        <v>795</v>
       </c>
       <c r="X96" t="s">
-        <v>703</v>
+        <v>796</v>
       </c>
       <c r="Y96" t="s">
-        <v>704</v>
+        <v>797</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>64627</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>11920</v>
+      </c>
+      <c r="C97" t="s">
+        <v>798</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>705</v>
+        <v>799</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>706</v>
+        <v>800</v>
       </c>
       <c r="J97" t="s">
-        <v>707</v>
+        <v>801</v>
       </c>
       <c r="K97" t="s">
-        <v>708</v>
+        <v>802</v>
       </c>
       <c r="L97" t="s">
-        <v>709</v>
+        <v>803</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>693</v>
+        <v>785</v>
       </c>
       <c r="O97" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P97" t="s"/>
       <c r="Q97" t="s"/>
@@ -9247,56 +9976,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>710</v>
+        <v>804</v>
       </c>
       <c r="X97" t="s">
-        <v>711</v>
+        <v>805</v>
       </c>
       <c r="Y97" t="s">
-        <v>712</v>
+        <v>806</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>64627</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>195926</v>
+      </c>
+      <c r="C98" t="s">
+        <v>807</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>713</v>
+        <v>808</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>714</v>
+        <v>809</v>
       </c>
       <c r="J98" t="s">
-        <v>715</v>
+        <v>810</v>
       </c>
       <c r="K98" t="s">
-        <v>716</v>
+        <v>811</v>
       </c>
       <c r="L98" t="s">
-        <v>717</v>
+        <v>812</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>693</v>
+        <v>785</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9314,56 +10047,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>710</v>
+        <v>804</v>
       </c>
       <c r="X98" t="s">
-        <v>711</v>
+        <v>805</v>
       </c>
       <c r="Y98" t="s">
-        <v>718</v>
+        <v>813</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>64627</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>195927</v>
+      </c>
+      <c r="C99" t="s">
+        <v>814</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>719</v>
+        <v>815</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>720</v>
+        <v>816</v>
       </c>
       <c r="J99" t="s">
-        <v>721</v>
+        <v>817</v>
       </c>
       <c r="K99" t="s">
-        <v>722</v>
+        <v>818</v>
       </c>
       <c r="L99" t="s">
-        <v>723</v>
+        <v>819</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>724</v>
+        <v>820</v>
       </c>
       <c r="O99" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P99" t="s"/>
       <c r="Q99" t="n">
@@ -9379,56 +10116,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>725</v>
+        <v>821</v>
       </c>
       <c r="X99" t="s">
-        <v>726</v>
+        <v>822</v>
       </c>
       <c r="Y99" t="s">
-        <v>727</v>
+        <v>823</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>64627</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>19800</v>
+      </c>
+      <c r="C100" t="s">
+        <v>824</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>728</v>
+        <v>825</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>729</v>
+        <v>826</v>
       </c>
       <c r="J100" t="s">
-        <v>730</v>
+        <v>827</v>
       </c>
       <c r="K100" t="s">
-        <v>731</v>
+        <v>828</v>
       </c>
       <c r="L100" t="s">
-        <v>732</v>
+        <v>829</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>724</v>
+        <v>820</v>
       </c>
       <c r="O100" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P100" t="s"/>
       <c r="Q100" t="s"/>
@@ -9446,56 +10187,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>733</v>
+        <v>830</v>
       </c>
       <c r="X100" t="s">
-        <v>734</v>
+        <v>831</v>
       </c>
       <c r="Y100" t="s">
-        <v>735</v>
+        <v>832</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>64627</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>195928</v>
+      </c>
+      <c r="C101" t="s">
+        <v>833</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>736</v>
+        <v>834</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>737</v>
+        <v>835</v>
       </c>
       <c r="J101" t="s">
-        <v>738</v>
+        <v>836</v>
       </c>
       <c r="K101" t="s">
-        <v>739</v>
+        <v>837</v>
       </c>
       <c r="L101" t="s">
-        <v>740</v>
+        <v>838</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="O101" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9513,56 +10258,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>742</v>
+        <v>840</v>
       </c>
       <c r="X101" t="s">
-        <v>734</v>
+        <v>831</v>
       </c>
       <c r="Y101" t="s">
-        <v>743</v>
+        <v>841</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>64627</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>195929</v>
+      </c>
+      <c r="C102" t="s">
+        <v>842</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>744</v>
+        <v>843</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>745</v>
+        <v>844</v>
       </c>
       <c r="J102" t="s">
-        <v>746</v>
+        <v>845</v>
       </c>
       <c r="K102" t="s">
-        <v>747</v>
+        <v>846</v>
       </c>
       <c r="L102" t="s">
-        <v>748</v>
+        <v>847</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>724</v>
+        <v>820</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="s"/>
       <c r="Q102" t="n">
@@ -9578,56 +10327,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>749</v>
+        <v>848</v>
       </c>
       <c r="X102" t="s">
-        <v>750</v>
+        <v>849</v>
       </c>
       <c r="Y102" t="s">
-        <v>751</v>
+        <v>850</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>64627</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>195930</v>
+      </c>
+      <c r="C103" t="s">
+        <v>851</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>752</v>
+        <v>852</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>753</v>
+        <v>853</v>
       </c>
       <c r="J103" t="s">
-        <v>754</v>
+        <v>854</v>
       </c>
       <c r="K103" t="s">
-        <v>755</v>
+        <v>855</v>
       </c>
       <c r="L103" t="s">
-        <v>756</v>
+        <v>856</v>
       </c>
       <c r="M103" t="n">
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>724</v>
+        <v>820</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="s"/>
       <c r="Q103" t="s"/>
@@ -9639,56 +10392,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>757</v>
+        <v>857</v>
       </c>
       <c r="X103" t="s">
-        <v>758</v>
+        <v>858</v>
       </c>
       <c r="Y103" t="s">
-        <v>759</v>
+        <v>859</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>64627</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>195931</v>
+      </c>
+      <c r="C104" t="s">
+        <v>860</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>760</v>
+        <v>861</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>761</v>
+        <v>862</v>
       </c>
       <c r="J104" t="s">
-        <v>762</v>
+        <v>863</v>
       </c>
       <c r="K104" t="s">
-        <v>763</v>
+        <v>864</v>
       </c>
       <c r="L104" t="s">
-        <v>764</v>
+        <v>865</v>
       </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
       <c r="N104" t="s">
-        <v>724</v>
+        <v>820</v>
       </c>
       <c r="O104" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P104" t="s"/>
       <c r="Q104" t="s"/>
@@ -9700,56 +10457,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>765</v>
+        <v>866</v>
       </c>
       <c r="X104" t="s">
-        <v>766</v>
+        <v>867</v>
       </c>
       <c r="Y104" t="s">
-        <v>767</v>
+        <v>868</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>64627</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>195932</v>
+      </c>
+      <c r="C105" t="s">
+        <v>869</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>768</v>
+        <v>870</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>769</v>
+        <v>871</v>
       </c>
       <c r="J105" t="s">
-        <v>770</v>
+        <v>872</v>
       </c>
       <c r="K105" t="s">
-        <v>771</v>
+        <v>873</v>
       </c>
       <c r="L105" t="s">
-        <v>772</v>
+        <v>874</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="O105" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P105" t="s"/>
       <c r="Q105" t="n">
@@ -9767,47 +10528,51 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>773</v>
+        <v>875</v>
       </c>
       <c r="X105" t="s">
-        <v>774</v>
+        <v>876</v>
       </c>
       <c r="Y105" t="s">
-        <v>775</v>
+        <v>877</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>64627</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>195933</v>
+      </c>
+      <c r="C106" t="s">
+        <v>878</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>776</v>
+        <v>879</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>777</v>
+        <v>880</v>
       </c>
       <c r="J106" t="s">
-        <v>778</v>
+        <v>881</v>
       </c>
       <c r="K106" t="s">
-        <v>779</v>
+        <v>882</v>
       </c>
       <c r="L106" t="s">
-        <v>780</v>
+        <v>883</v>
       </c>
       <c r="M106" t="n">
         <v>3</v>
@@ -9824,56 +10589,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>781</v>
+        <v>884</v>
       </c>
       <c r="X106" t="s">
-        <v>782</v>
+        <v>885</v>
       </c>
       <c r="Y106" t="s">
-        <v>783</v>
+        <v>886</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>64627</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>47133</v>
+      </c>
+      <c r="C107" t="s">
+        <v>887</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>784</v>
+        <v>888</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>785</v>
+        <v>889</v>
       </c>
       <c r="J107" t="s">
-        <v>786</v>
+        <v>890</v>
       </c>
       <c r="K107" t="s">
-        <v>787</v>
+        <v>891</v>
       </c>
       <c r="L107" t="s">
-        <v>788</v>
+        <v>892</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
       <c r="N107" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="O107" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P107" t="n">
         <v>1</v>
@@ -9891,56 +10660,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>789</v>
+        <v>893</v>
       </c>
       <c r="X107" t="s">
-        <v>782</v>
+        <v>885</v>
       </c>
       <c r="Y107" t="s">
-        <v>790</v>
+        <v>894</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>64627</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>195934</v>
+      </c>
+      <c r="C108" t="s">
+        <v>895</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>791</v>
+        <v>896</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>792</v>
+        <v>897</v>
       </c>
       <c r="J108" t="s">
-        <v>793</v>
+        <v>898</v>
       </c>
       <c r="K108" t="s">
-        <v>794</v>
+        <v>899</v>
       </c>
       <c r="L108" t="s">
-        <v>795</v>
+        <v>900</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="O108" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -9956,56 +10729,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>796</v>
+        <v>901</v>
       </c>
       <c r="X108" t="s">
-        <v>797</v>
+        <v>902</v>
       </c>
       <c r="Y108" t="s">
-        <v>798</v>
+        <v>903</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>64627</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>88</v>
+      </c>
+      <c r="C109" t="s">
+        <v>904</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>799</v>
+        <v>905</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>800</v>
+        <v>906</v>
       </c>
       <c r="J109" t="s">
-        <v>801</v>
+        <v>907</v>
       </c>
       <c r="K109" t="s">
-        <v>802</v>
+        <v>908</v>
       </c>
       <c r="L109" t="s">
-        <v>803</v>
+        <v>909</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="O109" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P109" t="s"/>
       <c r="Q109" t="s"/>
@@ -10017,56 +10794,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>804</v>
+        <v>910</v>
       </c>
       <c r="X109" t="s">
-        <v>805</v>
+        <v>911</v>
       </c>
       <c r="Y109" t="s">
-        <v>806</v>
+        <v>912</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>64627</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>76581</v>
+      </c>
+      <c r="C110" t="s">
+        <v>913</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>807</v>
+        <v>914</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>808</v>
+        <v>915</v>
       </c>
       <c r="J110" t="s">
-        <v>809</v>
+        <v>916</v>
       </c>
       <c r="K110" t="s">
-        <v>810</v>
+        <v>917</v>
       </c>
       <c r="L110" t="s">
-        <v>811</v>
+        <v>918</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="O110" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P110" t="s"/>
       <c r="Q110" t="s"/>
@@ -10078,56 +10859,60 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>812</v>
+        <v>919</v>
       </c>
       <c r="X110" t="s">
-        <v>813</v>
+        <v>920</v>
       </c>
       <c r="Y110" t="s">
-        <v>814</v>
+        <v>921</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>64627</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>22740</v>
+      </c>
+      <c r="C111" t="s">
+        <v>922</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>815</v>
+        <v>923</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>816</v>
+        <v>924</v>
       </c>
       <c r="J111" t="s">
-        <v>817</v>
+        <v>925</v>
       </c>
       <c r="K111" t="s">
-        <v>818</v>
+        <v>926</v>
       </c>
       <c r="L111" t="s">
-        <v>819</v>
+        <v>927</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="O111" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P111" t="s"/>
       <c r="Q111" t="s"/>
@@ -10139,56 +10924,60 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>812</v>
+        <v>919</v>
       </c>
       <c r="X111" t="s">
-        <v>813</v>
+        <v>920</v>
       </c>
       <c r="Y111" t="s">
-        <v>820</v>
+        <v>928</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>64627</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>204</v>
+      </c>
+      <c r="C112" t="s">
+        <v>929</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>821</v>
+        <v>930</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>822</v>
+        <v>931</v>
       </c>
       <c r="J112" t="s">
-        <v>817</v>
+        <v>925</v>
       </c>
       <c r="K112" t="s">
-        <v>823</v>
+        <v>932</v>
       </c>
       <c r="L112" t="s">
-        <v>824</v>
+        <v>933</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="O112" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P112" t="s"/>
       <c r="Q112" t="s"/>
@@ -10200,56 +10989,60 @@
         <v>0</v>
       </c>
       <c r="W112" t="s">
-        <v>812</v>
+        <v>919</v>
       </c>
       <c r="X112" t="s">
-        <v>813</v>
+        <v>920</v>
       </c>
       <c r="Y112" t="s">
-        <v>825</v>
+        <v>934</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>64627</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>195935</v>
+      </c>
+      <c r="C113" t="s">
+        <v>935</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>826</v>
+        <v>936</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>827</v>
+        <v>937</v>
       </c>
       <c r="J113" t="s">
-        <v>828</v>
+        <v>938</v>
       </c>
       <c r="K113" t="s">
-        <v>829</v>
+        <v>939</v>
       </c>
       <c r="L113" t="s">
-        <v>830</v>
+        <v>940</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>831</v>
+        <v>941</v>
       </c>
       <c r="O113" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P113" t="n">
         <v>2</v>
@@ -10265,56 +11058,60 @@
         <v>0</v>
       </c>
       <c r="W113" t="s">
-        <v>832</v>
+        <v>942</v>
       </c>
       <c r="X113" t="s">
-        <v>833</v>
+        <v>943</v>
       </c>
       <c r="Y113" t="s">
-        <v>834</v>
+        <v>944</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>64627</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>195936</v>
+      </c>
+      <c r="C114" t="s">
+        <v>945</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>835</v>
+        <v>946</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>836</v>
+        <v>947</v>
       </c>
       <c r="J114" t="s">
-        <v>837</v>
+        <v>948</v>
       </c>
       <c r="K114" t="s">
-        <v>838</v>
+        <v>949</v>
       </c>
       <c r="L114" t="s">
-        <v>839</v>
+        <v>950</v>
       </c>
       <c r="M114" t="n">
         <v>5</v>
       </c>
       <c r="N114" t="s">
-        <v>831</v>
+        <v>941</v>
       </c>
       <c r="O114" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P114" t="s"/>
       <c r="Q114" t="s"/>
@@ -10326,56 +11123,60 @@
         <v>0</v>
       </c>
       <c r="W114" t="s">
-        <v>840</v>
+        <v>951</v>
       </c>
       <c r="X114" t="s">
-        <v>841</v>
+        <v>952</v>
       </c>
       <c r="Y114" t="s">
-        <v>842</v>
+        <v>953</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>64627</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>195937</v>
+      </c>
+      <c r="C115" t="s">
+        <v>954</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>843</v>
+        <v>955</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>844</v>
+        <v>956</v>
       </c>
       <c r="J115" t="s">
-        <v>845</v>
+        <v>957</v>
       </c>
       <c r="K115" t="s">
-        <v>846</v>
+        <v>958</v>
       </c>
       <c r="L115" t="s">
-        <v>847</v>
+        <v>959</v>
       </c>
       <c r="M115" t="n">
         <v>4</v>
       </c>
       <c r="N115" t="s">
-        <v>831</v>
+        <v>941</v>
       </c>
       <c r="O115" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P115" t="s"/>
       <c r="Q115" t="s"/>
@@ -10387,56 +11188,60 @@
         <v>0</v>
       </c>
       <c r="W115" t="s">
-        <v>848</v>
+        <v>960</v>
       </c>
       <c r="X115" t="s">
-        <v>849</v>
+        <v>961</v>
       </c>
       <c r="Y115" t="s">
-        <v>850</v>
+        <v>962</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>64627</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>7524</v>
+      </c>
+      <c r="C116" t="s">
+        <v>963</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>851</v>
+        <v>964</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>852</v>
+        <v>965</v>
       </c>
       <c r="J116" t="s">
-        <v>853</v>
+        <v>966</v>
       </c>
       <c r="K116" t="s">
-        <v>854</v>
+        <v>967</v>
       </c>
       <c r="L116" t="s">
-        <v>855</v>
+        <v>968</v>
       </c>
       <c r="M116" t="n">
         <v>3</v>
       </c>
       <c r="N116" t="s">
-        <v>831</v>
+        <v>941</v>
       </c>
       <c r="O116" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P116" t="n">
         <v>2</v>
@@ -10454,56 +11259,60 @@
         <v>0</v>
       </c>
       <c r="W116" t="s">
-        <v>856</v>
+        <v>969</v>
       </c>
       <c r="X116" t="s">
-        <v>857</v>
+        <v>970</v>
       </c>
       <c r="Y116" t="s">
-        <v>858</v>
+        <v>971</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>64627</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>3848</v>
+      </c>
+      <c r="C117" t="s">
+        <v>972</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>859</v>
+        <v>973</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>860</v>
+        <v>974</v>
       </c>
       <c r="J117" t="s">
-        <v>861</v>
+        <v>975</v>
       </c>
       <c r="K117" t="s">
-        <v>862</v>
+        <v>976</v>
       </c>
       <c r="L117" t="s">
-        <v>863</v>
+        <v>977</v>
       </c>
       <c r="M117" t="n">
         <v>5</v>
       </c>
       <c r="N117" t="s">
-        <v>831</v>
+        <v>941</v>
       </c>
       <c r="O117" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P117" t="s"/>
       <c r="Q117" t="n">
@@ -10521,56 +11330,60 @@
         <v>0</v>
       </c>
       <c r="W117" t="s">
-        <v>864</v>
+        <v>978</v>
       </c>
       <c r="X117" t="s">
-        <v>865</v>
+        <v>979</v>
       </c>
       <c r="Y117" t="s">
-        <v>866</v>
+        <v>980</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>64627</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C118" t="s">
+        <v>981</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>867</v>
+        <v>982</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>868</v>
+        <v>983</v>
       </c>
       <c r="J118" t="s">
-        <v>869</v>
+        <v>984</v>
       </c>
       <c r="K118" t="s">
-        <v>870</v>
+        <v>985</v>
       </c>
       <c r="L118" t="s">
-        <v>871</v>
+        <v>986</v>
       </c>
       <c r="M118" t="n">
         <v>5</v>
       </c>
       <c r="N118" t="s">
-        <v>831</v>
+        <v>941</v>
       </c>
       <c r="O118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P118" t="s"/>
       <c r="Q118" t="s"/>
@@ -10584,7 +11397,7 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>871</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>
